--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12127500</v>
+        <v>13015500</v>
       </c>
       <c r="E8" s="3">
-        <v>10461500</v>
+        <v>11830000</v>
       </c>
       <c r="F8" s="3">
-        <v>8119700</v>
+        <v>10204800</v>
       </c>
       <c r="G8" s="3">
-        <v>5768400</v>
+        <v>7920500</v>
       </c>
       <c r="H8" s="3">
-        <v>3318600</v>
+        <v>5626800</v>
       </c>
       <c r="I8" s="3">
-        <v>1495200</v>
+        <v>3237200</v>
       </c>
       <c r="J8" s="3">
+        <v>1458500</v>
+      </c>
+      <c r="K8" s="3">
         <v>99300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9678400</v>
+        <v>10121100</v>
       </c>
       <c r="E9" s="3">
-        <v>8123600</v>
+        <v>9441000</v>
       </c>
       <c r="F9" s="3">
-        <v>6168900</v>
+        <v>7924300</v>
       </c>
       <c r="G9" s="3">
-        <v>4348400</v>
+        <v>6017500</v>
       </c>
       <c r="H9" s="3">
-        <v>2493400</v>
+        <v>4241700</v>
       </c>
       <c r="I9" s="3">
-        <v>1135800</v>
+        <v>2432200</v>
       </c>
       <c r="J9" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="K9" s="3">
         <v>77100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2449100</v>
+        <v>2894400</v>
       </c>
       <c r="E10" s="3">
-        <v>2337800</v>
+        <v>2389000</v>
       </c>
       <c r="F10" s="3">
-        <v>1950800</v>
+        <v>2280500</v>
       </c>
       <c r="G10" s="3">
-        <v>1419900</v>
+        <v>1903000</v>
       </c>
       <c r="H10" s="3">
-        <v>825200</v>
+        <v>1385100</v>
       </c>
       <c r="I10" s="3">
-        <v>359300</v>
+        <v>804900</v>
       </c>
       <c r="J10" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,15 +848,18 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2900</v>
+        <v>56800</v>
       </c>
       <c r="E14" s="3">
-        <v>19100</v>
+        <v>2800</v>
       </c>
       <c r="F14" s="3">
-        <v>16400</v>
+        <v>18600</v>
       </c>
       <c r="G14" s="3">
-        <v>14300</v>
+        <v>16000</v>
       </c>
       <c r="H14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>110500</v>
+        <v>116200</v>
       </c>
       <c r="E15" s="3">
-        <v>103400</v>
+        <v>107800</v>
       </c>
       <c r="F15" s="3">
-        <v>87700</v>
+        <v>100900</v>
       </c>
       <c r="G15" s="3">
-        <v>41800</v>
+        <v>85500</v>
       </c>
       <c r="H15" s="3">
-        <v>15800</v>
+        <v>40800</v>
       </c>
       <c r="I15" s="3">
-        <v>7800</v>
+        <v>15400</v>
       </c>
       <c r="J15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11783000</v>
+        <v>12365300</v>
       </c>
       <c r="E17" s="3">
-        <v>10094500</v>
+        <v>11493900</v>
       </c>
       <c r="F17" s="3">
-        <v>7747700</v>
+        <v>9846900</v>
       </c>
       <c r="G17" s="3">
-        <v>5485600</v>
+        <v>7557600</v>
       </c>
       <c r="H17" s="3">
-        <v>3199900</v>
+        <v>5351000</v>
       </c>
       <c r="I17" s="3">
-        <v>1447700</v>
+        <v>3121400</v>
       </c>
       <c r="J17" s="3">
+        <v>1412200</v>
+      </c>
+      <c r="K17" s="3">
         <v>101400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>344500</v>
+        <v>650200</v>
       </c>
       <c r="E18" s="3">
-        <v>366900</v>
+        <v>336000</v>
       </c>
       <c r="F18" s="3">
-        <v>372100</v>
+        <v>357900</v>
       </c>
       <c r="G18" s="3">
-        <v>282800</v>
+        <v>362900</v>
       </c>
       <c r="H18" s="3">
-        <v>118700</v>
+        <v>275800</v>
       </c>
       <c r="I18" s="3">
-        <v>47400</v>
+        <v>115800</v>
       </c>
       <c r="J18" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72600</v>
+        <v>53600</v>
       </c>
       <c r="E20" s="3">
-        <v>9500</v>
+        <v>70800</v>
       </c>
       <c r="F20" s="3">
-        <v>22700</v>
+        <v>9200</v>
       </c>
       <c r="G20" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="H20" s="3">
-        <v>44200</v>
+        <v>23200</v>
       </c>
       <c r="I20" s="3">
-        <v>15000</v>
+        <v>43100</v>
       </c>
       <c r="J20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>544700</v>
+        <v>911400</v>
       </c>
       <c r="E21" s="3">
-        <v>536600</v>
+        <v>531000</v>
       </c>
       <c r="F21" s="3">
-        <v>540000</v>
+        <v>523000</v>
       </c>
       <c r="G21" s="3">
-        <v>390300</v>
+        <v>526300</v>
       </c>
       <c r="H21" s="3">
-        <v>214700</v>
+        <v>380400</v>
       </c>
       <c r="I21" s="3">
-        <v>63700</v>
+        <v>211600</v>
       </c>
       <c r="J21" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22900</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="3">
-        <v>11800</v>
+        <v>22400</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="G22" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="H22" s="3">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>394200</v>
+        <v>691800</v>
       </c>
       <c r="E23" s="3">
-        <v>364600</v>
+        <v>384500</v>
       </c>
       <c r="F23" s="3">
-        <v>382500</v>
+        <v>355600</v>
       </c>
       <c r="G23" s="3">
-        <v>294200</v>
+        <v>373100</v>
       </c>
       <c r="H23" s="3">
-        <v>152100</v>
+        <v>287000</v>
       </c>
       <c r="I23" s="3">
-        <v>62400</v>
+        <v>148400</v>
       </c>
       <c r="J23" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81300</v>
+        <v>137700</v>
       </c>
       <c r="E24" s="3">
-        <v>89800</v>
+        <v>79300</v>
       </c>
       <c r="F24" s="3">
-        <v>86400</v>
+        <v>87600</v>
       </c>
       <c r="G24" s="3">
-        <v>65700</v>
+        <v>84200</v>
       </c>
       <c r="H24" s="3">
-        <v>35200</v>
+        <v>64100</v>
       </c>
       <c r="I24" s="3">
-        <v>16300</v>
+        <v>34300</v>
       </c>
       <c r="J24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>312900</v>
+        <v>554100</v>
       </c>
       <c r="E26" s="3">
-        <v>274700</v>
+        <v>305200</v>
       </c>
       <c r="F26" s="3">
-        <v>296200</v>
+        <v>268000</v>
       </c>
       <c r="G26" s="3">
-        <v>228500</v>
+        <v>288900</v>
       </c>
       <c r="H26" s="3">
-        <v>117000</v>
+        <v>222900</v>
       </c>
       <c r="I26" s="3">
-        <v>46100</v>
+        <v>114100</v>
       </c>
       <c r="J26" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>305400</v>
+        <v>562200</v>
       </c>
       <c r="E27" s="3">
-        <v>279700</v>
+        <v>297900</v>
       </c>
       <c r="F27" s="3">
-        <v>292200</v>
+        <v>272900</v>
       </c>
       <c r="G27" s="3">
-        <v>228100</v>
+        <v>285100</v>
       </c>
       <c r="H27" s="3">
-        <v>120700</v>
+        <v>222500</v>
       </c>
       <c r="I27" s="3">
-        <v>46100</v>
+        <v>117700</v>
       </c>
       <c r="J27" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72600</v>
+        <v>-53600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9500</v>
+        <v>-70800</v>
       </c>
       <c r="F32" s="3">
-        <v>-22700</v>
+        <v>-9200</v>
       </c>
       <c r="G32" s="3">
-        <v>-23700</v>
+        <v>-22100</v>
       </c>
       <c r="H32" s="3">
-        <v>-44200</v>
+        <v>-23200</v>
       </c>
       <c r="I32" s="3">
-        <v>-15000</v>
+        <v>-43100</v>
       </c>
       <c r="J32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>305400</v>
+        <v>562200</v>
       </c>
       <c r="E33" s="3">
-        <v>279700</v>
+        <v>297900</v>
       </c>
       <c r="F33" s="3">
-        <v>292200</v>
+        <v>272900</v>
       </c>
       <c r="G33" s="3">
-        <v>228100</v>
+        <v>285100</v>
       </c>
       <c r="H33" s="3">
-        <v>120700</v>
+        <v>222500</v>
       </c>
       <c r="I33" s="3">
-        <v>46100</v>
+        <v>117700</v>
       </c>
       <c r="J33" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>305400</v>
+        <v>562200</v>
       </c>
       <c r="E35" s="3">
-        <v>279700</v>
+        <v>297900</v>
       </c>
       <c r="F35" s="3">
-        <v>292200</v>
+        <v>272900</v>
       </c>
       <c r="G35" s="3">
-        <v>228100</v>
+        <v>285100</v>
       </c>
       <c r="H35" s="3">
-        <v>120700</v>
+        <v>222500</v>
       </c>
       <c r="I35" s="3">
-        <v>46100</v>
+        <v>117700</v>
       </c>
       <c r="J35" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,208 +1645,227 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1368900</v>
+        <v>921400</v>
       </c>
       <c r="E41" s="3">
-        <v>1431100</v>
+        <v>1337200</v>
       </c>
       <c r="F41" s="3">
-        <v>589600</v>
+        <v>1397900</v>
       </c>
       <c r="G41" s="3">
-        <v>477000</v>
+        <v>576000</v>
       </c>
       <c r="H41" s="3">
-        <v>687400</v>
+        <v>465900</v>
       </c>
       <c r="I41" s="3">
-        <v>48000</v>
+        <v>671500</v>
       </c>
       <c r="J41" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K41" s="3">
         <v>17900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>333100</v>
+        <v>427900</v>
       </c>
       <c r="E42" s="3">
-        <v>35300</v>
+        <v>325300</v>
       </c>
       <c r="F42" s="3">
-        <v>96400</v>
+        <v>34500</v>
       </c>
       <c r="G42" s="3">
-        <v>259300</v>
+        <v>94200</v>
       </c>
       <c r="H42" s="3">
-        <v>540700</v>
+        <v>253300</v>
       </c>
       <c r="I42" s="3">
-        <v>55400</v>
+        <v>528200</v>
       </c>
       <c r="J42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K42" s="3">
         <v>12400</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1377100</v>
+        <v>637400</v>
       </c>
       <c r="E43" s="3">
-        <v>1217800</v>
+        <v>1345200</v>
       </c>
       <c r="F43" s="3">
-        <v>651900</v>
+        <v>1189700</v>
       </c>
       <c r="G43" s="3">
-        <v>315700</v>
+        <v>636800</v>
       </c>
       <c r="H43" s="3">
-        <v>142700</v>
+        <v>308400</v>
       </c>
       <c r="I43" s="3">
-        <v>2800</v>
+        <v>139400</v>
       </c>
       <c r="J43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>770200</v>
+        <v>1080400</v>
       </c>
       <c r="E44" s="3">
-        <v>998700</v>
+        <v>752400</v>
       </c>
       <c r="F44" s="3">
-        <v>710000</v>
+        <v>975500</v>
       </c>
       <c r="G44" s="3">
-        <v>655200</v>
+        <v>693600</v>
       </c>
       <c r="H44" s="3">
-        <v>514800</v>
+        <v>640100</v>
       </c>
       <c r="I44" s="3">
-        <v>38800</v>
+        <v>502900</v>
       </c>
       <c r="J44" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K44" s="3">
         <v>20700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71400</v>
+        <v>160600</v>
       </c>
       <c r="E45" s="3">
-        <v>35600</v>
+        <v>69800</v>
       </c>
       <c r="F45" s="3">
-        <v>44100</v>
+        <v>34800</v>
       </c>
       <c r="G45" s="3">
-        <v>36500</v>
+        <v>43100</v>
       </c>
       <c r="H45" s="3">
-        <v>48300</v>
+        <v>35700</v>
       </c>
       <c r="I45" s="3">
-        <v>3800</v>
+        <v>47200</v>
       </c>
       <c r="J45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3920700</v>
+        <v>3227600</v>
       </c>
       <c r="E46" s="3">
-        <v>3718400</v>
+        <v>3830000</v>
       </c>
       <c r="F46" s="3">
-        <v>2092100</v>
+        <v>3632400</v>
       </c>
       <c r="G46" s="3">
-        <v>1743800</v>
+        <v>2043700</v>
       </c>
       <c r="H46" s="3">
-        <v>1896900</v>
+        <v>1703400</v>
       </c>
       <c r="I46" s="3">
-        <v>148800</v>
+        <v>1853000</v>
       </c>
       <c r="J46" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K46" s="3">
         <v>54800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>306800</v>
+        <v>731300</v>
       </c>
       <c r="E47" s="3">
-        <v>86100</v>
+        <v>299700</v>
       </c>
       <c r="F47" s="3">
-        <v>144100</v>
+        <v>84100</v>
       </c>
       <c r="G47" s="3">
-        <v>145200</v>
+        <v>140700</v>
       </c>
       <c r="H47" s="3">
-        <v>56000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+        <v>141900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>54700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1224100</v>
+        <v>1818200</v>
       </c>
       <c r="E48" s="3">
-        <v>955700</v>
+        <v>1195800</v>
       </c>
       <c r="F48" s="3">
-        <v>641000</v>
+        <v>933600</v>
       </c>
       <c r="G48" s="3">
-        <v>423200</v>
+        <v>626200</v>
       </c>
       <c r="H48" s="3">
-        <v>548500</v>
+        <v>413400</v>
       </c>
       <c r="I48" s="3">
-        <v>3500</v>
+        <v>535800</v>
       </c>
       <c r="J48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>103300</v>
+        <v>80500</v>
       </c>
       <c r="E49" s="3">
-        <v>110200</v>
+        <v>100900</v>
       </c>
       <c r="F49" s="3">
-        <v>156700</v>
+        <v>107700</v>
       </c>
       <c r="G49" s="3">
-        <v>122400</v>
+        <v>153100</v>
       </c>
       <c r="H49" s="3">
-        <v>157700</v>
+        <v>119600</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>154000</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>695500</v>
+        <v>951800</v>
       </c>
       <c r="E52" s="3">
-        <v>579300</v>
+        <v>679400</v>
       </c>
       <c r="F52" s="3">
-        <v>566700</v>
+        <v>565900</v>
       </c>
       <c r="G52" s="3">
-        <v>440100</v>
+        <v>553600</v>
       </c>
       <c r="H52" s="3">
-        <v>59100</v>
+        <v>429900</v>
       </c>
       <c r="I52" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6250400</v>
+        <v>6809300</v>
       </c>
       <c r="E54" s="3">
-        <v>5449800</v>
+        <v>6105700</v>
       </c>
       <c r="F54" s="3">
-        <v>3600600</v>
+        <v>5323700</v>
       </c>
       <c r="G54" s="3">
-        <v>2874700</v>
+        <v>3517200</v>
       </c>
       <c r="H54" s="3">
-        <v>2432100</v>
+        <v>2808200</v>
       </c>
       <c r="I54" s="3">
-        <v>153800</v>
+        <v>2375900</v>
       </c>
       <c r="J54" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K54" s="3">
         <v>57200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,148 +2137,161 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1668700</v>
+        <v>1933100</v>
       </c>
       <c r="E57" s="3">
-        <v>1642100</v>
+        <v>1630100</v>
       </c>
       <c r="F57" s="3">
-        <v>1195700</v>
+        <v>1604100</v>
       </c>
       <c r="G57" s="3">
-        <v>953500</v>
+        <v>1168000</v>
       </c>
       <c r="H57" s="3">
-        <v>878300</v>
+        <v>931400</v>
       </c>
       <c r="I57" s="3">
-        <v>68400</v>
+        <v>858000</v>
       </c>
       <c r="J57" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K57" s="3">
         <v>27800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>952600</v>
+        <v>153300</v>
       </c>
       <c r="E58" s="3">
-        <v>239200</v>
+        <v>930600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>233700</v>
       </c>
       <c r="G58" s="3">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>13300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1101400</v>
+        <v>1267000</v>
       </c>
       <c r="E59" s="3">
-        <v>881700</v>
+        <v>1075900</v>
       </c>
       <c r="F59" s="3">
-        <v>896700</v>
+        <v>861300</v>
       </c>
       <c r="G59" s="3">
-        <v>778500</v>
+        <v>876000</v>
       </c>
       <c r="H59" s="3">
-        <v>914700</v>
+        <v>760500</v>
       </c>
       <c r="I59" s="3">
-        <v>50500</v>
+        <v>893500</v>
       </c>
       <c r="J59" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K59" s="3">
         <v>17600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3722700</v>
+        <v>3353400</v>
       </c>
       <c r="E60" s="3">
-        <v>2763100</v>
+        <v>3636600</v>
       </c>
       <c r="F60" s="3">
-        <v>2092400</v>
+        <v>2699200</v>
       </c>
       <c r="G60" s="3">
-        <v>1745600</v>
+        <v>2044000</v>
       </c>
       <c r="H60" s="3">
-        <v>1457100</v>
+        <v>1705200</v>
       </c>
       <c r="I60" s="3">
-        <v>118900</v>
+        <v>1423400</v>
       </c>
       <c r="J60" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K60" s="3">
         <v>45400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E61" s="3">
-        <v>587500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>628700</v>
+        <v>573900</v>
       </c>
       <c r="G61" s="3">
-        <v>582300</v>
+        <v>614100</v>
       </c>
       <c r="H61" s="3">
-        <v>553100</v>
+        <v>568800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>540300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2157,29 +2299,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58200</v>
+        <v>328400</v>
       </c>
       <c r="E62" s="3">
-        <v>54500</v>
+        <v>56900</v>
       </c>
       <c r="F62" s="3">
-        <v>49900</v>
+        <v>53200</v>
       </c>
       <c r="G62" s="3">
-        <v>28400</v>
+        <v>48700</v>
       </c>
       <c r="H62" s="3">
-        <v>34800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>27800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>34000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2187,9 +2332,12 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3773600</v>
+        <v>3750100</v>
       </c>
       <c r="E66" s="3">
-        <v>3398800</v>
+        <v>3686300</v>
       </c>
       <c r="F66" s="3">
-        <v>2778100</v>
+        <v>3320200</v>
       </c>
       <c r="G66" s="3">
-        <v>2366900</v>
+        <v>2713800</v>
       </c>
       <c r="H66" s="3">
-        <v>2065700</v>
+        <v>2312100</v>
       </c>
       <c r="I66" s="3">
-        <v>118900</v>
+        <v>2017900</v>
       </c>
       <c r="J66" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K66" s="3">
         <v>45400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2409,11 +2576,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>8900</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1134600</v>
+        <v>1671300</v>
       </c>
       <c r="E72" s="3">
-        <v>803900</v>
+        <v>1108300</v>
       </c>
       <c r="F72" s="3">
-        <v>524100</v>
+        <v>785300</v>
       </c>
       <c r="G72" s="3">
-        <v>231900</v>
+        <v>512000</v>
       </c>
       <c r="H72" s="3">
-        <v>3800</v>
+        <v>226500</v>
       </c>
       <c r="I72" s="3">
-        <v>-17800</v>
+        <v>3700</v>
       </c>
       <c r="J72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-25300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2476700</v>
+        <v>3059300</v>
       </c>
       <c r="E76" s="3">
-        <v>2051000</v>
+        <v>2419400</v>
       </c>
       <c r="F76" s="3">
-        <v>822500</v>
+        <v>2003500</v>
       </c>
       <c r="G76" s="3">
-        <v>507800</v>
+        <v>803400</v>
       </c>
       <c r="H76" s="3">
-        <v>366500</v>
+        <v>496100</v>
       </c>
       <c r="I76" s="3">
-        <v>34900</v>
+        <v>358000</v>
       </c>
       <c r="J76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K76" s="3">
         <v>11800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>305400</v>
+        <v>562200</v>
       </c>
       <c r="E81" s="3">
-        <v>279700</v>
+        <v>297900</v>
       </c>
       <c r="F81" s="3">
-        <v>292200</v>
+        <v>272900</v>
       </c>
       <c r="G81" s="3">
-        <v>228100</v>
+        <v>285100</v>
       </c>
       <c r="H81" s="3">
-        <v>120700</v>
+        <v>222500</v>
       </c>
       <c r="I81" s="3">
-        <v>46100</v>
+        <v>117700</v>
       </c>
       <c r="J81" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127700</v>
+        <v>208300</v>
       </c>
       <c r="E83" s="3">
-        <v>160300</v>
+        <v>124500</v>
       </c>
       <c r="F83" s="3">
-        <v>145300</v>
+        <v>156400</v>
       </c>
       <c r="G83" s="3">
-        <v>83800</v>
+        <v>141700</v>
       </c>
       <c r="H83" s="3">
-        <v>51800</v>
+        <v>81700</v>
       </c>
       <c r="I83" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>824400</v>
+        <v>1720100</v>
       </c>
       <c r="E89" s="3">
-        <v>140800</v>
+        <v>804200</v>
       </c>
       <c r="F89" s="3">
-        <v>406300</v>
+        <v>137300</v>
       </c>
       <c r="G89" s="3">
-        <v>274800</v>
+        <v>396300</v>
       </c>
       <c r="H89" s="3">
-        <v>468100</v>
+        <v>268000</v>
       </c>
       <c r="I89" s="3">
-        <v>62700</v>
+        <v>456600</v>
       </c>
       <c r="J89" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K89" s="3">
         <v>16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-515700</v>
+        <v>-598700</v>
       </c>
       <c r="E91" s="3">
-        <v>-355000</v>
+        <v>-503000</v>
       </c>
       <c r="F91" s="3">
-        <v>-311700</v>
+        <v>-346300</v>
       </c>
       <c r="G91" s="3">
-        <v>-331600</v>
+        <v>-304100</v>
       </c>
       <c r="H91" s="3">
-        <v>-244000</v>
+        <v>-323400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4000</v>
+        <v>-238000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-960400</v>
+        <v>-1153300</v>
       </c>
       <c r="E94" s="3">
-        <v>-291600</v>
+        <v>-936900</v>
       </c>
       <c r="F94" s="3">
-        <v>-239500</v>
+        <v>-284500</v>
       </c>
       <c r="G94" s="3">
-        <v>-421400</v>
+        <v>-233600</v>
       </c>
       <c r="H94" s="3">
-        <v>-610300</v>
+        <v>-411100</v>
       </c>
       <c r="I94" s="3">
-        <v>-46000</v>
+        <v>-595300</v>
       </c>
       <c r="J94" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>84200</v>
+        <v>-875700</v>
       </c>
       <c r="E100" s="3">
-        <v>1028700</v>
+        <v>82200</v>
       </c>
       <c r="F100" s="3">
-        <v>-56400</v>
+        <v>1003500</v>
       </c>
       <c r="G100" s="3">
-        <v>-77400</v>
+        <v>-55000</v>
       </c>
       <c r="H100" s="3">
-        <v>552700</v>
+        <v>-75500</v>
       </c>
       <c r="I100" s="3">
-        <v>13300</v>
+        <v>539100</v>
       </c>
       <c r="J100" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25500</v>
+        <v>-15700</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
+        <v>24900</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>-800</v>
       </c>
       <c r="G101" s="3">
-        <v>13600</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-13900</v>
+        <v>13300</v>
       </c>
       <c r="I101" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26300</v>
+        <v>-324600</v>
       </c>
       <c r="E102" s="3">
-        <v>877000</v>
+        <v>-25700</v>
       </c>
       <c r="F102" s="3">
-        <v>112700</v>
+        <v>855500</v>
       </c>
       <c r="G102" s="3">
-        <v>-210400</v>
+        <v>109900</v>
       </c>
       <c r="H102" s="3">
-        <v>396600</v>
+        <v>-205200</v>
       </c>
       <c r="I102" s="3">
-        <v>30200</v>
+        <v>386900</v>
       </c>
       <c r="J102" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13015500</v>
+        <v>13505600</v>
       </c>
       <c r="E8" s="3">
-        <v>11830000</v>
+        <v>12275400</v>
       </c>
       <c r="F8" s="3">
-        <v>10204800</v>
+        <v>10589100</v>
       </c>
       <c r="G8" s="3">
-        <v>7920500</v>
+        <v>8218800</v>
       </c>
       <c r="H8" s="3">
-        <v>5626800</v>
+        <v>5838700</v>
       </c>
       <c r="I8" s="3">
-        <v>3237200</v>
+        <v>3359100</v>
       </c>
       <c r="J8" s="3">
-        <v>1458500</v>
+        <v>1513400</v>
       </c>
       <c r="K8" s="3">
         <v>99300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10121100</v>
+        <v>10502200</v>
       </c>
       <c r="E9" s="3">
-        <v>9441000</v>
+        <v>9796500</v>
       </c>
       <c r="F9" s="3">
-        <v>7924300</v>
+        <v>8222700</v>
       </c>
       <c r="G9" s="3">
-        <v>6017500</v>
+        <v>6244100</v>
       </c>
       <c r="H9" s="3">
-        <v>4241700</v>
+        <v>4401400</v>
       </c>
       <c r="I9" s="3">
-        <v>2432200</v>
+        <v>2523800</v>
       </c>
       <c r="J9" s="3">
-        <v>1108000</v>
+        <v>1149700</v>
       </c>
       <c r="K9" s="3">
         <v>77100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2894400</v>
+        <v>3003400</v>
       </c>
       <c r="E10" s="3">
-        <v>2389000</v>
+        <v>2478900</v>
       </c>
       <c r="F10" s="3">
-        <v>2280500</v>
+        <v>2366400</v>
       </c>
       <c r="G10" s="3">
-        <v>1903000</v>
+        <v>1974600</v>
       </c>
       <c r="H10" s="3">
-        <v>1385100</v>
+        <v>1437300</v>
       </c>
       <c r="I10" s="3">
-        <v>804900</v>
+        <v>835300</v>
       </c>
       <c r="J10" s="3">
-        <v>350500</v>
+        <v>363700</v>
       </c>
       <c r="K10" s="3">
         <v>22200</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>56800</v>
+        <v>58900</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="G14" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="H14" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>116200</v>
+        <v>120600</v>
       </c>
       <c r="E15" s="3">
-        <v>107800</v>
+        <v>111900</v>
       </c>
       <c r="F15" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="G15" s="3">
-        <v>85500</v>
+        <v>88700</v>
       </c>
       <c r="H15" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="I15" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="J15" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12365300</v>
+        <v>12830900</v>
       </c>
       <c r="E17" s="3">
-        <v>11493900</v>
+        <v>11926700</v>
       </c>
       <c r="F17" s="3">
-        <v>9846900</v>
+        <v>10217600</v>
       </c>
       <c r="G17" s="3">
-        <v>7557600</v>
+        <v>7842200</v>
       </c>
       <c r="H17" s="3">
-        <v>5351000</v>
+        <v>5552500</v>
       </c>
       <c r="I17" s="3">
-        <v>3121400</v>
+        <v>3238900</v>
       </c>
       <c r="J17" s="3">
-        <v>1412200</v>
+        <v>1465400</v>
       </c>
       <c r="K17" s="3">
         <v>101400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>650200</v>
+        <v>674700</v>
       </c>
       <c r="E18" s="3">
-        <v>336000</v>
+        <v>348700</v>
       </c>
       <c r="F18" s="3">
-        <v>357900</v>
+        <v>371400</v>
       </c>
       <c r="G18" s="3">
-        <v>362900</v>
+        <v>376600</v>
       </c>
       <c r="H18" s="3">
-        <v>275800</v>
+        <v>286200</v>
       </c>
       <c r="I18" s="3">
-        <v>115800</v>
+        <v>120200</v>
       </c>
       <c r="J18" s="3">
-        <v>46300</v>
+        <v>48000</v>
       </c>
       <c r="K18" s="3">
         <v>-2100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53600</v>
+        <v>55600</v>
       </c>
       <c r="E20" s="3">
-        <v>70800</v>
+        <v>73500</v>
       </c>
       <c r="F20" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="H20" s="3">
-        <v>23200</v>
+        <v>24000</v>
       </c>
       <c r="I20" s="3">
-        <v>43100</v>
+        <v>44700</v>
       </c>
       <c r="J20" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>911400</v>
+        <v>945600</v>
       </c>
       <c r="E21" s="3">
-        <v>531000</v>
+        <v>550900</v>
       </c>
       <c r="F21" s="3">
-        <v>523000</v>
+        <v>542600</v>
       </c>
       <c r="G21" s="3">
-        <v>526300</v>
+        <v>546100</v>
       </c>
       <c r="H21" s="3">
-        <v>380400</v>
+        <v>394700</v>
       </c>
       <c r="I21" s="3">
-        <v>211600</v>
+        <v>219600</v>
       </c>
       <c r="J21" s="3">
-        <v>62200</v>
+        <v>64500</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11500</v>
-      </c>
       <c r="G22" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="H22" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="I22" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>691800</v>
+        <v>717800</v>
       </c>
       <c r="E23" s="3">
-        <v>384500</v>
+        <v>399000</v>
       </c>
       <c r="F23" s="3">
-        <v>355600</v>
+        <v>369000</v>
       </c>
       <c r="G23" s="3">
-        <v>373100</v>
+        <v>387200</v>
       </c>
       <c r="H23" s="3">
-        <v>287000</v>
+        <v>297800</v>
       </c>
       <c r="I23" s="3">
-        <v>148400</v>
+        <v>154000</v>
       </c>
       <c r="J23" s="3">
-        <v>60900</v>
+        <v>63200</v>
       </c>
       <c r="K23" s="3">
         <v>-1300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>137700</v>
+        <v>142800</v>
       </c>
       <c r="E24" s="3">
-        <v>79300</v>
+        <v>82300</v>
       </c>
       <c r="F24" s="3">
-        <v>87600</v>
+        <v>90900</v>
       </c>
       <c r="G24" s="3">
-        <v>84200</v>
+        <v>87400</v>
       </c>
       <c r="H24" s="3">
-        <v>64100</v>
+        <v>66500</v>
       </c>
       <c r="I24" s="3">
-        <v>34300</v>
+        <v>35600</v>
       </c>
       <c r="J24" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>554100</v>
+        <v>575000</v>
       </c>
       <c r="E26" s="3">
-        <v>305200</v>
+        <v>316700</v>
       </c>
       <c r="F26" s="3">
-        <v>268000</v>
+        <v>278100</v>
       </c>
       <c r="G26" s="3">
-        <v>288900</v>
+        <v>299800</v>
       </c>
       <c r="H26" s="3">
-        <v>222900</v>
+        <v>231300</v>
       </c>
       <c r="I26" s="3">
-        <v>114100</v>
+        <v>118400</v>
       </c>
       <c r="J26" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>562200</v>
+        <v>583400</v>
       </c>
       <c r="E27" s="3">
-        <v>297900</v>
+        <v>309200</v>
       </c>
       <c r="F27" s="3">
-        <v>272900</v>
+        <v>283100</v>
       </c>
       <c r="G27" s="3">
-        <v>285100</v>
+        <v>295800</v>
       </c>
       <c r="H27" s="3">
-        <v>222500</v>
+        <v>230900</v>
       </c>
       <c r="I27" s="3">
-        <v>117700</v>
+        <v>122200</v>
       </c>
       <c r="J27" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K27" s="3">
         <v>-1400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53600</v>
+        <v>-55600</v>
       </c>
       <c r="E32" s="3">
-        <v>-70800</v>
+        <v>-73500</v>
       </c>
       <c r="F32" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-22100</v>
+        <v>-23000</v>
       </c>
       <c r="H32" s="3">
-        <v>-23200</v>
+        <v>-24000</v>
       </c>
       <c r="I32" s="3">
-        <v>-43100</v>
+        <v>-44700</v>
       </c>
       <c r="J32" s="3">
-        <v>-14600</v>
+        <v>-15200</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>562200</v>
+        <v>583400</v>
       </c>
       <c r="E33" s="3">
-        <v>297900</v>
+        <v>309200</v>
       </c>
       <c r="F33" s="3">
-        <v>272900</v>
+        <v>283100</v>
       </c>
       <c r="G33" s="3">
-        <v>285100</v>
+        <v>295800</v>
       </c>
       <c r="H33" s="3">
-        <v>222500</v>
+        <v>230900</v>
       </c>
       <c r="I33" s="3">
-        <v>117700</v>
+        <v>122200</v>
       </c>
       <c r="J33" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K33" s="3">
         <v>-1400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>562200</v>
+        <v>583400</v>
       </c>
       <c r="E35" s="3">
-        <v>297900</v>
+        <v>309200</v>
       </c>
       <c r="F35" s="3">
-        <v>272900</v>
+        <v>283100</v>
       </c>
       <c r="G35" s="3">
-        <v>285100</v>
+        <v>295800</v>
       </c>
       <c r="H35" s="3">
-        <v>222500</v>
+        <v>230900</v>
       </c>
       <c r="I35" s="3">
-        <v>117700</v>
+        <v>122200</v>
       </c>
       <c r="J35" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K35" s="3">
         <v>-1400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>921400</v>
+        <v>954700</v>
       </c>
       <c r="E41" s="3">
-        <v>1337200</v>
+        <v>1385600</v>
       </c>
       <c r="F41" s="3">
-        <v>1397900</v>
+        <v>1448500</v>
       </c>
       <c r="G41" s="3">
-        <v>576000</v>
+        <v>596800</v>
       </c>
       <c r="H41" s="3">
-        <v>465900</v>
+        <v>482800</v>
       </c>
       <c r="I41" s="3">
-        <v>671500</v>
+        <v>695800</v>
       </c>
       <c r="J41" s="3">
-        <v>46900</v>
+        <v>48600</v>
       </c>
       <c r="K41" s="3">
         <v>17900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>427900</v>
+        <v>443300</v>
       </c>
       <c r="E42" s="3">
-        <v>325300</v>
+        <v>337100</v>
       </c>
       <c r="F42" s="3">
-        <v>34500</v>
+        <v>35700</v>
       </c>
       <c r="G42" s="3">
-        <v>94200</v>
+        <v>97600</v>
       </c>
       <c r="H42" s="3">
-        <v>253300</v>
+        <v>262500</v>
       </c>
       <c r="I42" s="3">
-        <v>528200</v>
+        <v>547300</v>
       </c>
       <c r="J42" s="3">
-        <v>54100</v>
+        <v>56000</v>
       </c>
       <c r="K42" s="3">
         <v>12400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>637400</v>
+        <v>660500</v>
       </c>
       <c r="E43" s="3">
-        <v>1345200</v>
+        <v>1393900</v>
       </c>
       <c r="F43" s="3">
-        <v>1189700</v>
+        <v>1232700</v>
       </c>
       <c r="G43" s="3">
-        <v>636800</v>
+        <v>659900</v>
       </c>
       <c r="H43" s="3">
-        <v>308400</v>
+        <v>319600</v>
       </c>
       <c r="I43" s="3">
-        <v>139400</v>
+        <v>144400</v>
       </c>
       <c r="J43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1080400</v>
+        <v>1119500</v>
       </c>
       <c r="E44" s="3">
-        <v>752400</v>
+        <v>779600</v>
       </c>
       <c r="F44" s="3">
-        <v>975500</v>
+        <v>1010800</v>
       </c>
       <c r="G44" s="3">
-        <v>693600</v>
+        <v>718700</v>
       </c>
       <c r="H44" s="3">
-        <v>640100</v>
+        <v>663200</v>
       </c>
       <c r="I44" s="3">
-        <v>502900</v>
+        <v>521100</v>
       </c>
       <c r="J44" s="3">
-        <v>37900</v>
+        <v>39200</v>
       </c>
       <c r="K44" s="3">
         <v>20700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>160600</v>
+        <v>166400</v>
       </c>
       <c r="E45" s="3">
-        <v>69800</v>
+        <v>72300</v>
       </c>
       <c r="F45" s="3">
-        <v>34800</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="3">
-        <v>43100</v>
+        <v>44600</v>
       </c>
       <c r="H45" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
       <c r="I45" s="3">
-        <v>47200</v>
+        <v>48900</v>
       </c>
       <c r="J45" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3227600</v>
+        <v>3344400</v>
       </c>
       <c r="E46" s="3">
-        <v>3830000</v>
+        <v>3968500</v>
       </c>
       <c r="F46" s="3">
-        <v>3632400</v>
+        <v>3763800</v>
       </c>
       <c r="G46" s="3">
-        <v>2043700</v>
+        <v>2117600</v>
       </c>
       <c r="H46" s="3">
-        <v>1703400</v>
+        <v>1765000</v>
       </c>
       <c r="I46" s="3">
-        <v>1853000</v>
+        <v>1920000</v>
       </c>
       <c r="J46" s="3">
-        <v>145300</v>
+        <v>150600</v>
       </c>
       <c r="K46" s="3">
         <v>54800</v>
@@ -1850,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>731300</v>
+        <v>757800</v>
       </c>
       <c r="E47" s="3">
-        <v>299700</v>
+        <v>310500</v>
       </c>
       <c r="F47" s="3">
-        <v>84100</v>
+        <v>87200</v>
       </c>
       <c r="G47" s="3">
-        <v>140700</v>
+        <v>145800</v>
       </c>
       <c r="H47" s="3">
-        <v>141900</v>
+        <v>147000</v>
       </c>
       <c r="I47" s="3">
-        <v>54700</v>
+        <v>56700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1818200</v>
+        <v>1884000</v>
       </c>
       <c r="E48" s="3">
-        <v>1195800</v>
+        <v>1239000</v>
       </c>
       <c r="F48" s="3">
-        <v>933600</v>
+        <v>967400</v>
       </c>
       <c r="G48" s="3">
-        <v>626200</v>
+        <v>648800</v>
       </c>
       <c r="H48" s="3">
-        <v>413400</v>
+        <v>428400</v>
       </c>
       <c r="I48" s="3">
-        <v>535800</v>
+        <v>555200</v>
       </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3">
         <v>1800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>80500</v>
+        <v>83400</v>
       </c>
       <c r="E49" s="3">
-        <v>100900</v>
+        <v>104600</v>
       </c>
       <c r="F49" s="3">
-        <v>107700</v>
+        <v>111600</v>
       </c>
       <c r="G49" s="3">
-        <v>153100</v>
+        <v>158600</v>
       </c>
       <c r="H49" s="3">
-        <v>119600</v>
+        <v>123900</v>
       </c>
       <c r="I49" s="3">
-        <v>154000</v>
+        <v>159600</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>951800</v>
+        <v>986200</v>
       </c>
       <c r="E52" s="3">
-        <v>679400</v>
+        <v>704000</v>
       </c>
       <c r="F52" s="3">
-        <v>565900</v>
+        <v>586400</v>
       </c>
       <c r="G52" s="3">
-        <v>553600</v>
+        <v>573600</v>
       </c>
       <c r="H52" s="3">
-        <v>429900</v>
+        <v>445400</v>
       </c>
       <c r="I52" s="3">
-        <v>57700</v>
+        <v>59800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6809300</v>
+        <v>7055700</v>
       </c>
       <c r="E54" s="3">
-        <v>6105700</v>
+        <v>6326600</v>
       </c>
       <c r="F54" s="3">
-        <v>5323700</v>
+        <v>5516200</v>
       </c>
       <c r="G54" s="3">
-        <v>3517200</v>
+        <v>3644500</v>
       </c>
       <c r="H54" s="3">
-        <v>2808200</v>
+        <v>2909800</v>
       </c>
       <c r="I54" s="3">
-        <v>2375900</v>
+        <v>2461800</v>
       </c>
       <c r="J54" s="3">
-        <v>150300</v>
+        <v>155700</v>
       </c>
       <c r="K54" s="3">
         <v>57200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1933100</v>
+        <v>2003000</v>
       </c>
       <c r="E57" s="3">
-        <v>1630100</v>
+        <v>1689000</v>
       </c>
       <c r="F57" s="3">
-        <v>1604100</v>
+        <v>1662200</v>
       </c>
       <c r="G57" s="3">
-        <v>1168000</v>
+        <v>1210300</v>
       </c>
       <c r="H57" s="3">
-        <v>931400</v>
+        <v>965100</v>
       </c>
       <c r="I57" s="3">
-        <v>858000</v>
+        <v>889000</v>
       </c>
       <c r="J57" s="3">
-        <v>66800</v>
+        <v>69300</v>
       </c>
       <c r="K57" s="3">
         <v>27800</v>
@@ -2177,19 +2177,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153300</v>
+        <v>158800</v>
       </c>
       <c r="E58" s="3">
-        <v>930600</v>
+        <v>964200</v>
       </c>
       <c r="F58" s="3">
-        <v>233700</v>
+        <v>242100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1267000</v>
+        <v>1312800</v>
       </c>
       <c r="E59" s="3">
-        <v>1075900</v>
+        <v>1114800</v>
       </c>
       <c r="F59" s="3">
-        <v>861300</v>
+        <v>892500</v>
       </c>
       <c r="G59" s="3">
-        <v>876000</v>
+        <v>907700</v>
       </c>
       <c r="H59" s="3">
-        <v>760500</v>
+        <v>788000</v>
       </c>
       <c r="I59" s="3">
-        <v>893500</v>
+        <v>925800</v>
       </c>
       <c r="J59" s="3">
-        <v>49300</v>
+        <v>51100</v>
       </c>
       <c r="K59" s="3">
         <v>17600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3353400</v>
+        <v>3474700</v>
       </c>
       <c r="E60" s="3">
-        <v>3636600</v>
+        <v>3768100</v>
       </c>
       <c r="F60" s="3">
-        <v>2699200</v>
+        <v>2796800</v>
       </c>
       <c r="G60" s="3">
-        <v>2044000</v>
+        <v>2118000</v>
       </c>
       <c r="H60" s="3">
-        <v>1705200</v>
+        <v>1766900</v>
       </c>
       <c r="I60" s="3">
-        <v>1423400</v>
+        <v>1474900</v>
       </c>
       <c r="J60" s="3">
-        <v>116200</v>
+        <v>120400</v>
       </c>
       <c r="K60" s="3">
         <v>45400</v>
@@ -2276,22 +2276,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>573900</v>
+        <v>594700</v>
       </c>
       <c r="G61" s="3">
-        <v>614100</v>
+        <v>636400</v>
       </c>
       <c r="H61" s="3">
-        <v>568800</v>
+        <v>589400</v>
       </c>
       <c r="I61" s="3">
-        <v>540300</v>
+        <v>559900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>328400</v>
+        <v>340200</v>
       </c>
       <c r="E62" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="F62" s="3">
-        <v>53200</v>
+        <v>55100</v>
       </c>
       <c r="G62" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="H62" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="I62" s="3">
-        <v>34000</v>
+        <v>35200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3750100</v>
+        <v>3885700</v>
       </c>
       <c r="E66" s="3">
-        <v>3686300</v>
+        <v>3819700</v>
       </c>
       <c r="F66" s="3">
-        <v>3320200</v>
+        <v>3440300</v>
       </c>
       <c r="G66" s="3">
-        <v>2713800</v>
+        <v>2812000</v>
       </c>
       <c r="H66" s="3">
-        <v>2312100</v>
+        <v>2395800</v>
       </c>
       <c r="I66" s="3">
-        <v>2017900</v>
+        <v>2090900</v>
       </c>
       <c r="J66" s="3">
-        <v>116200</v>
+        <v>120400</v>
       </c>
       <c r="K66" s="3">
         <v>45400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1671300</v>
+        <v>1731800</v>
       </c>
       <c r="E72" s="3">
-        <v>1108300</v>
+        <v>1148400</v>
       </c>
       <c r="F72" s="3">
-        <v>785300</v>
+        <v>813700</v>
       </c>
       <c r="G72" s="3">
-        <v>512000</v>
+        <v>530500</v>
       </c>
       <c r="H72" s="3">
-        <v>226500</v>
+        <v>234700</v>
       </c>
       <c r="I72" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="J72" s="3">
-        <v>-17300</v>
+        <v>-18000</v>
       </c>
       <c r="K72" s="3">
         <v>-25300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3059300</v>
+        <v>3170000</v>
       </c>
       <c r="E76" s="3">
-        <v>2419400</v>
+        <v>2506900</v>
       </c>
       <c r="F76" s="3">
-        <v>2003500</v>
+        <v>2076000</v>
       </c>
       <c r="G76" s="3">
-        <v>803400</v>
+        <v>832500</v>
       </c>
       <c r="H76" s="3">
-        <v>496100</v>
+        <v>514000</v>
       </c>
       <c r="I76" s="3">
-        <v>358000</v>
+        <v>370900</v>
       </c>
       <c r="J76" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="K76" s="3">
         <v>11800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>562200</v>
+        <v>583400</v>
       </c>
       <c r="E81" s="3">
-        <v>297900</v>
+        <v>309200</v>
       </c>
       <c r="F81" s="3">
-        <v>272900</v>
+        <v>283100</v>
       </c>
       <c r="G81" s="3">
-        <v>285100</v>
+        <v>295800</v>
       </c>
       <c r="H81" s="3">
-        <v>222500</v>
+        <v>230900</v>
       </c>
       <c r="I81" s="3">
-        <v>117700</v>
+        <v>122200</v>
       </c>
       <c r="J81" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="K81" s="3">
         <v>-1400</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208300</v>
+        <v>216100</v>
       </c>
       <c r="E83" s="3">
-        <v>124500</v>
+        <v>129200</v>
       </c>
       <c r="F83" s="3">
-        <v>156400</v>
+        <v>162300</v>
       </c>
       <c r="G83" s="3">
-        <v>141700</v>
+        <v>147100</v>
       </c>
       <c r="H83" s="3">
-        <v>81700</v>
+        <v>84800</v>
       </c>
       <c r="I83" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="J83" s="3">
         <v>1300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1720100</v>
+        <v>1784900</v>
       </c>
       <c r="E89" s="3">
-        <v>804200</v>
+        <v>834500</v>
       </c>
       <c r="F89" s="3">
-        <v>137300</v>
+        <v>142500</v>
       </c>
       <c r="G89" s="3">
-        <v>396300</v>
+        <v>411200</v>
       </c>
       <c r="H89" s="3">
-        <v>268000</v>
+        <v>278100</v>
       </c>
       <c r="I89" s="3">
-        <v>456600</v>
+        <v>473800</v>
       </c>
       <c r="J89" s="3">
-        <v>61200</v>
+        <v>63500</v>
       </c>
       <c r="K89" s="3">
         <v>16000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-598700</v>
+        <v>-621200</v>
       </c>
       <c r="E91" s="3">
-        <v>-503000</v>
+        <v>-522000</v>
       </c>
       <c r="F91" s="3">
-        <v>-346300</v>
+        <v>-359400</v>
       </c>
       <c r="G91" s="3">
-        <v>-304100</v>
+        <v>-315500</v>
       </c>
       <c r="H91" s="3">
-        <v>-323400</v>
+        <v>-335600</v>
       </c>
       <c r="I91" s="3">
-        <v>-238000</v>
+        <v>-247000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K91" s="3">
         <v>-1800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1153300</v>
+        <v>-1196800</v>
       </c>
       <c r="E94" s="3">
-        <v>-936900</v>
+        <v>-972100</v>
       </c>
       <c r="F94" s="3">
-        <v>-284500</v>
+        <v>-295200</v>
       </c>
       <c r="G94" s="3">
-        <v>-233600</v>
+        <v>-242400</v>
       </c>
       <c r="H94" s="3">
-        <v>-411100</v>
+        <v>-426600</v>
       </c>
       <c r="I94" s="3">
-        <v>-595300</v>
+        <v>-617700</v>
       </c>
       <c r="J94" s="3">
-        <v>-44900</v>
+        <v>-46600</v>
       </c>
       <c r="K94" s="3">
         <v>-11900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-875700</v>
+        <v>-908700</v>
       </c>
       <c r="E100" s="3">
-        <v>82200</v>
+        <v>85200</v>
       </c>
       <c r="F100" s="3">
-        <v>1003500</v>
+        <v>1041300</v>
       </c>
       <c r="G100" s="3">
-        <v>-55000</v>
+        <v>-57100</v>
       </c>
       <c r="H100" s="3">
-        <v>-75500</v>
+        <v>-78300</v>
       </c>
       <c r="I100" s="3">
-        <v>539100</v>
+        <v>559400</v>
       </c>
       <c r="J100" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K100" s="3">
         <v>7200</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15700</v>
+        <v>-16300</v>
       </c>
       <c r="E101" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13600</v>
+        <v>-14100</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-324600</v>
+        <v>-336800</v>
       </c>
       <c r="E102" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="F102" s="3">
-        <v>855500</v>
+        <v>887700</v>
       </c>
       <c r="G102" s="3">
-        <v>109900</v>
+        <v>114000</v>
       </c>
       <c r="H102" s="3">
-        <v>-205200</v>
+        <v>-213000</v>
       </c>
       <c r="I102" s="3">
-        <v>386900</v>
+        <v>401500</v>
       </c>
       <c r="J102" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="K102" s="3">
         <v>11400</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13505600</v>
+        <v>14146300</v>
       </c>
       <c r="E8" s="3">
-        <v>12275400</v>
+        <v>12857800</v>
       </c>
       <c r="F8" s="3">
-        <v>10589100</v>
+        <v>11091400</v>
       </c>
       <c r="G8" s="3">
-        <v>8218800</v>
+        <v>8608700</v>
       </c>
       <c r="H8" s="3">
-        <v>5838700</v>
+        <v>6115700</v>
       </c>
       <c r="I8" s="3">
-        <v>3359100</v>
+        <v>3518400</v>
       </c>
       <c r="J8" s="3">
-        <v>1513400</v>
+        <v>1585200</v>
       </c>
       <c r="K8" s="3">
         <v>99300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10502200</v>
+        <v>11000400</v>
       </c>
       <c r="E9" s="3">
-        <v>9796500</v>
+        <v>10261300</v>
       </c>
       <c r="F9" s="3">
-        <v>8222700</v>
+        <v>8612800</v>
       </c>
       <c r="G9" s="3">
-        <v>6244100</v>
+        <v>6540400</v>
       </c>
       <c r="H9" s="3">
-        <v>4401400</v>
+        <v>4610300</v>
       </c>
       <c r="I9" s="3">
-        <v>2523800</v>
+        <v>2643500</v>
       </c>
       <c r="J9" s="3">
-        <v>1149700</v>
+        <v>1204200</v>
       </c>
       <c r="K9" s="3">
         <v>77100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3003400</v>
+        <v>3145900</v>
       </c>
       <c r="E10" s="3">
-        <v>2478900</v>
+        <v>2596500</v>
       </c>
       <c r="F10" s="3">
-        <v>2366400</v>
+        <v>2478600</v>
       </c>
       <c r="G10" s="3">
-        <v>1974600</v>
+        <v>2068300</v>
       </c>
       <c r="H10" s="3">
-        <v>1437300</v>
+        <v>1505500</v>
       </c>
       <c r="I10" s="3">
-        <v>835300</v>
+        <v>874900</v>
       </c>
       <c r="J10" s="3">
-        <v>363700</v>
+        <v>381000</v>
       </c>
       <c r="K10" s="3">
         <v>22200</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58900</v>
+        <v>61700</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="G14" s="3">
-        <v>16600</v>
+        <v>17400</v>
       </c>
       <c r="H14" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>120600</v>
+        <v>126300</v>
       </c>
       <c r="E15" s="3">
-        <v>111900</v>
+        <v>117200</v>
       </c>
       <c r="F15" s="3">
-        <v>104700</v>
+        <v>109700</v>
       </c>
       <c r="G15" s="3">
-        <v>88700</v>
+        <v>92900</v>
       </c>
       <c r="H15" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="I15" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="J15" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12830900</v>
+        <v>13439600</v>
       </c>
       <c r="E17" s="3">
-        <v>11926700</v>
+        <v>12492500</v>
       </c>
       <c r="F17" s="3">
-        <v>10217600</v>
+        <v>10702400</v>
       </c>
       <c r="G17" s="3">
-        <v>7842200</v>
+        <v>8214200</v>
       </c>
       <c r="H17" s="3">
-        <v>5552500</v>
+        <v>5815900</v>
       </c>
       <c r="I17" s="3">
-        <v>3238900</v>
+        <v>3392500</v>
       </c>
       <c r="J17" s="3">
-        <v>1465400</v>
+        <v>1534900</v>
       </c>
       <c r="K17" s="3">
         <v>101400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>674700</v>
+        <v>706700</v>
       </c>
       <c r="E18" s="3">
-        <v>348700</v>
+        <v>365200</v>
       </c>
       <c r="F18" s="3">
-        <v>371400</v>
+        <v>389000</v>
       </c>
       <c r="G18" s="3">
-        <v>376600</v>
+        <v>394500</v>
       </c>
       <c r="H18" s="3">
-        <v>286200</v>
+        <v>299800</v>
       </c>
       <c r="I18" s="3">
-        <v>120200</v>
+        <v>125900</v>
       </c>
       <c r="J18" s="3">
-        <v>48000</v>
+        <v>50300</v>
       </c>
       <c r="K18" s="3">
         <v>-2100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55600</v>
+        <v>58300</v>
       </c>
       <c r="E20" s="3">
-        <v>73500</v>
+        <v>76900</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="H20" s="3">
-        <v>24000</v>
+        <v>25200</v>
       </c>
       <c r="I20" s="3">
-        <v>44700</v>
+        <v>46900</v>
       </c>
       <c r="J20" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>945600</v>
+        <v>991300</v>
       </c>
       <c r="E21" s="3">
-        <v>550900</v>
+        <v>577500</v>
       </c>
       <c r="F21" s="3">
-        <v>542600</v>
+        <v>569000</v>
       </c>
       <c r="G21" s="3">
-        <v>546100</v>
+        <v>572600</v>
       </c>
       <c r="H21" s="3">
-        <v>394700</v>
+        <v>413800</v>
       </c>
       <c r="I21" s="3">
-        <v>219600</v>
+        <v>230200</v>
       </c>
       <c r="J21" s="3">
-        <v>64500</v>
+        <v>67600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12000</v>
-      </c>
       <c r="G22" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="H22" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>717800</v>
+        <v>751900</v>
       </c>
       <c r="E23" s="3">
-        <v>399000</v>
+        <v>417900</v>
       </c>
       <c r="F23" s="3">
-        <v>369000</v>
+        <v>386500</v>
       </c>
       <c r="G23" s="3">
-        <v>387200</v>
+        <v>405600</v>
       </c>
       <c r="H23" s="3">
-        <v>297800</v>
+        <v>311900</v>
       </c>
       <c r="I23" s="3">
-        <v>154000</v>
+        <v>161300</v>
       </c>
       <c r="J23" s="3">
-        <v>63200</v>
+        <v>66200</v>
       </c>
       <c r="K23" s="3">
         <v>-1300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>142800</v>
+        <v>149600</v>
       </c>
       <c r="E24" s="3">
-        <v>82300</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>90900</v>
+        <v>95200</v>
       </c>
       <c r="G24" s="3">
-        <v>87400</v>
+        <v>91600</v>
       </c>
       <c r="H24" s="3">
-        <v>66500</v>
+        <v>69600</v>
       </c>
       <c r="I24" s="3">
-        <v>35600</v>
+        <v>37300</v>
       </c>
       <c r="J24" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>575000</v>
+        <v>602300</v>
       </c>
       <c r="E26" s="3">
-        <v>316700</v>
+        <v>331700</v>
       </c>
       <c r="F26" s="3">
-        <v>278100</v>
+        <v>291300</v>
       </c>
       <c r="G26" s="3">
-        <v>299800</v>
+        <v>314000</v>
       </c>
       <c r="H26" s="3">
-        <v>231300</v>
+        <v>242300</v>
       </c>
       <c r="I26" s="3">
-        <v>118400</v>
+        <v>124000</v>
       </c>
       <c r="J26" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>583400</v>
+        <v>611000</v>
       </c>
       <c r="E27" s="3">
-        <v>309200</v>
+        <v>323800</v>
       </c>
       <c r="F27" s="3">
-        <v>283100</v>
+        <v>296600</v>
       </c>
       <c r="G27" s="3">
-        <v>295800</v>
+        <v>309800</v>
       </c>
       <c r="H27" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="I27" s="3">
-        <v>122200</v>
+        <v>128000</v>
       </c>
       <c r="J27" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="K27" s="3">
         <v>-1400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55600</v>
+        <v>-58300</v>
       </c>
       <c r="E32" s="3">
-        <v>-73500</v>
+        <v>-76900</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-10000</v>
       </c>
       <c r="G32" s="3">
-        <v>-23000</v>
+        <v>-24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-24000</v>
+        <v>-25200</v>
       </c>
       <c r="I32" s="3">
-        <v>-44700</v>
+        <v>-46900</v>
       </c>
       <c r="J32" s="3">
-        <v>-15200</v>
+        <v>-15900</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>583400</v>
+        <v>611000</v>
       </c>
       <c r="E33" s="3">
-        <v>309200</v>
+        <v>323800</v>
       </c>
       <c r="F33" s="3">
-        <v>283100</v>
+        <v>296600</v>
       </c>
       <c r="G33" s="3">
-        <v>295800</v>
+        <v>309800</v>
       </c>
       <c r="H33" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="I33" s="3">
-        <v>122200</v>
+        <v>128000</v>
       </c>
       <c r="J33" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="K33" s="3">
         <v>-1400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>583400</v>
+        <v>611000</v>
       </c>
       <c r="E35" s="3">
-        <v>309200</v>
+        <v>323800</v>
       </c>
       <c r="F35" s="3">
-        <v>283100</v>
+        <v>296600</v>
       </c>
       <c r="G35" s="3">
-        <v>295800</v>
+        <v>309800</v>
       </c>
       <c r="H35" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="I35" s="3">
-        <v>122200</v>
+        <v>128000</v>
       </c>
       <c r="J35" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="K35" s="3">
         <v>-1400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>954700</v>
+        <v>1000000</v>
       </c>
       <c r="E41" s="3">
-        <v>1385600</v>
+        <v>1451300</v>
       </c>
       <c r="F41" s="3">
-        <v>1448500</v>
+        <v>1517200</v>
       </c>
       <c r="G41" s="3">
-        <v>596800</v>
+        <v>625100</v>
       </c>
       <c r="H41" s="3">
-        <v>482800</v>
+        <v>505700</v>
       </c>
       <c r="I41" s="3">
-        <v>695800</v>
+        <v>728800</v>
       </c>
       <c r="J41" s="3">
-        <v>48600</v>
+        <v>50900</v>
       </c>
       <c r="K41" s="3">
         <v>17900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>443300</v>
+        <v>464400</v>
       </c>
       <c r="E42" s="3">
-        <v>337100</v>
+        <v>353100</v>
       </c>
       <c r="F42" s="3">
-        <v>35700</v>
+        <v>37400</v>
       </c>
       <c r="G42" s="3">
-        <v>97600</v>
+        <v>102200</v>
       </c>
       <c r="H42" s="3">
-        <v>262500</v>
+        <v>274900</v>
       </c>
       <c r="I42" s="3">
-        <v>547300</v>
+        <v>573200</v>
       </c>
       <c r="J42" s="3">
-        <v>56000</v>
+        <v>58700</v>
       </c>
       <c r="K42" s="3">
         <v>12400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>660500</v>
+        <v>691800</v>
       </c>
       <c r="E43" s="3">
-        <v>1393900</v>
+        <v>1460000</v>
       </c>
       <c r="F43" s="3">
-        <v>1232700</v>
+        <v>1291200</v>
       </c>
       <c r="G43" s="3">
-        <v>659900</v>
+        <v>691200</v>
       </c>
       <c r="H43" s="3">
-        <v>319600</v>
+        <v>334700</v>
       </c>
       <c r="I43" s="3">
-        <v>144400</v>
+        <v>151300</v>
       </c>
       <c r="J43" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1119500</v>
+        <v>1172600</v>
       </c>
       <c r="E44" s="3">
-        <v>779600</v>
+        <v>816600</v>
       </c>
       <c r="F44" s="3">
-        <v>1010800</v>
+        <v>1058800</v>
       </c>
       <c r="G44" s="3">
-        <v>718700</v>
+        <v>752800</v>
       </c>
       <c r="H44" s="3">
-        <v>663200</v>
+        <v>694700</v>
       </c>
       <c r="I44" s="3">
-        <v>521100</v>
+        <v>545900</v>
       </c>
       <c r="J44" s="3">
-        <v>39200</v>
+        <v>41100</v>
       </c>
       <c r="K44" s="3">
         <v>20700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>166400</v>
+        <v>174200</v>
       </c>
       <c r="E45" s="3">
-        <v>72300</v>
+        <v>75700</v>
       </c>
       <c r="F45" s="3">
-        <v>36000</v>
+        <v>37700</v>
       </c>
       <c r="G45" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="H45" s="3">
-        <v>36900</v>
+        <v>38700</v>
       </c>
       <c r="I45" s="3">
-        <v>48900</v>
+        <v>51200</v>
       </c>
       <c r="J45" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3344400</v>
+        <v>3503000</v>
       </c>
       <c r="E46" s="3">
-        <v>3968500</v>
+        <v>4156800</v>
       </c>
       <c r="F46" s="3">
-        <v>3763800</v>
+        <v>3942400</v>
       </c>
       <c r="G46" s="3">
-        <v>2117600</v>
+        <v>2218000</v>
       </c>
       <c r="H46" s="3">
-        <v>1765000</v>
+        <v>1848800</v>
       </c>
       <c r="I46" s="3">
-        <v>1920000</v>
+        <v>2011100</v>
       </c>
       <c r="J46" s="3">
-        <v>150600</v>
+        <v>157700</v>
       </c>
       <c r="K46" s="3">
         <v>54800</v>
@@ -1850,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>757800</v>
+        <v>793700</v>
       </c>
       <c r="E47" s="3">
-        <v>310500</v>
+        <v>325200</v>
       </c>
       <c r="F47" s="3">
-        <v>87200</v>
+        <v>91300</v>
       </c>
       <c r="G47" s="3">
-        <v>145800</v>
+        <v>152800</v>
       </c>
       <c r="H47" s="3">
-        <v>147000</v>
+        <v>154000</v>
       </c>
       <c r="I47" s="3">
-        <v>56700</v>
+        <v>59400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1884000</v>
+        <v>1973400</v>
       </c>
       <c r="E48" s="3">
-        <v>1239000</v>
+        <v>1297800</v>
       </c>
       <c r="F48" s="3">
-        <v>967400</v>
+        <v>1013200</v>
       </c>
       <c r="G48" s="3">
-        <v>648800</v>
+        <v>679600</v>
       </c>
       <c r="H48" s="3">
-        <v>428400</v>
+        <v>448700</v>
       </c>
       <c r="I48" s="3">
-        <v>555200</v>
+        <v>581500</v>
       </c>
       <c r="J48" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>1800</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>83400</v>
+        <v>87300</v>
       </c>
       <c r="E49" s="3">
-        <v>104600</v>
+        <v>109600</v>
       </c>
       <c r="F49" s="3">
-        <v>111600</v>
+        <v>116800</v>
       </c>
       <c r="G49" s="3">
-        <v>158600</v>
+        <v>166200</v>
       </c>
       <c r="H49" s="3">
-        <v>123900</v>
+        <v>129800</v>
       </c>
       <c r="I49" s="3">
-        <v>159600</v>
+        <v>167200</v>
       </c>
       <c r="J49" s="3">
         <v>800</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>986200</v>
+        <v>1033000</v>
       </c>
       <c r="E52" s="3">
-        <v>704000</v>
+        <v>737400</v>
       </c>
       <c r="F52" s="3">
-        <v>586400</v>
+        <v>614200</v>
       </c>
       <c r="G52" s="3">
-        <v>573600</v>
+        <v>600800</v>
       </c>
       <c r="H52" s="3">
-        <v>445400</v>
+        <v>466600</v>
       </c>
       <c r="I52" s="3">
-        <v>59800</v>
+        <v>62700</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7055700</v>
+        <v>7390400</v>
       </c>
       <c r="E54" s="3">
-        <v>6326600</v>
+        <v>6626800</v>
       </c>
       <c r="F54" s="3">
-        <v>5516200</v>
+        <v>5777900</v>
       </c>
       <c r="G54" s="3">
-        <v>3644500</v>
+        <v>3817400</v>
       </c>
       <c r="H54" s="3">
-        <v>2909800</v>
+        <v>3047800</v>
       </c>
       <c r="I54" s="3">
-        <v>2461800</v>
+        <v>2578600</v>
       </c>
       <c r="J54" s="3">
-        <v>155700</v>
+        <v>163100</v>
       </c>
       <c r="K54" s="3">
         <v>57200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2003000</v>
+        <v>2098100</v>
       </c>
       <c r="E57" s="3">
-        <v>1689000</v>
+        <v>1769200</v>
       </c>
       <c r="F57" s="3">
-        <v>1662200</v>
+        <v>1741000</v>
       </c>
       <c r="G57" s="3">
-        <v>1210300</v>
+        <v>1267700</v>
       </c>
       <c r="H57" s="3">
-        <v>965100</v>
+        <v>1010900</v>
       </c>
       <c r="I57" s="3">
-        <v>889000</v>
+        <v>931200</v>
       </c>
       <c r="J57" s="3">
-        <v>69300</v>
+        <v>72500</v>
       </c>
       <c r="K57" s="3">
         <v>27800</v>
@@ -2177,19 +2177,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>158800</v>
+        <v>166400</v>
       </c>
       <c r="E58" s="3">
-        <v>964200</v>
+        <v>1010000</v>
       </c>
       <c r="F58" s="3">
-        <v>242100</v>
+        <v>253600</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1312800</v>
+        <v>1375100</v>
       </c>
       <c r="E59" s="3">
-        <v>1114800</v>
+        <v>1167700</v>
       </c>
       <c r="F59" s="3">
-        <v>892500</v>
+        <v>934800</v>
       </c>
       <c r="G59" s="3">
-        <v>907700</v>
+        <v>950700</v>
       </c>
       <c r="H59" s="3">
-        <v>788000</v>
+        <v>825400</v>
       </c>
       <c r="I59" s="3">
-        <v>925800</v>
+        <v>969700</v>
       </c>
       <c r="J59" s="3">
-        <v>51100</v>
+        <v>53500</v>
       </c>
       <c r="K59" s="3">
         <v>17600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3474700</v>
+        <v>3639600</v>
       </c>
       <c r="E60" s="3">
-        <v>3768100</v>
+        <v>3946900</v>
       </c>
       <c r="F60" s="3">
-        <v>2796800</v>
+        <v>2929500</v>
       </c>
       <c r="G60" s="3">
-        <v>2118000</v>
+        <v>2218400</v>
       </c>
       <c r="H60" s="3">
-        <v>1766900</v>
+        <v>1850700</v>
       </c>
       <c r="I60" s="3">
-        <v>1474900</v>
+        <v>1544800</v>
       </c>
       <c r="J60" s="3">
-        <v>120400</v>
+        <v>126100</v>
       </c>
       <c r="K60" s="3">
         <v>45400</v>
@@ -2276,22 +2276,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>594700</v>
+        <v>622900</v>
       </c>
       <c r="G61" s="3">
-        <v>636400</v>
+        <v>666500</v>
       </c>
       <c r="H61" s="3">
-        <v>589400</v>
+        <v>617300</v>
       </c>
       <c r="I61" s="3">
-        <v>559900</v>
+        <v>586400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>340200</v>
+        <v>356400</v>
       </c>
       <c r="E62" s="3">
-        <v>59000</v>
+        <v>61700</v>
       </c>
       <c r="F62" s="3">
-        <v>55100</v>
+        <v>57800</v>
       </c>
       <c r="G62" s="3">
-        <v>50500</v>
+        <v>52900</v>
       </c>
       <c r="H62" s="3">
-        <v>28800</v>
+        <v>30100</v>
       </c>
       <c r="I62" s="3">
-        <v>35200</v>
+        <v>36900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3885700</v>
+        <v>4070100</v>
       </c>
       <c r="E66" s="3">
-        <v>3819700</v>
+        <v>4000900</v>
       </c>
       <c r="F66" s="3">
-        <v>3440300</v>
+        <v>3603500</v>
       </c>
       <c r="G66" s="3">
-        <v>2812000</v>
+        <v>2945400</v>
       </c>
       <c r="H66" s="3">
-        <v>2395800</v>
+        <v>2509400</v>
       </c>
       <c r="I66" s="3">
-        <v>2090900</v>
+        <v>2190100</v>
       </c>
       <c r="J66" s="3">
-        <v>120400</v>
+        <v>126100</v>
       </c>
       <c r="K66" s="3">
         <v>45400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1731800</v>
+        <v>1813900</v>
       </c>
       <c r="E72" s="3">
-        <v>1148400</v>
+        <v>1202900</v>
       </c>
       <c r="F72" s="3">
-        <v>813700</v>
+        <v>852300</v>
       </c>
       <c r="G72" s="3">
-        <v>530500</v>
+        <v>555700</v>
       </c>
       <c r="H72" s="3">
-        <v>234700</v>
+        <v>245900</v>
       </c>
       <c r="I72" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J72" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="K72" s="3">
         <v>-25300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3170000</v>
+        <v>3320300</v>
       </c>
       <c r="E76" s="3">
-        <v>2506900</v>
+        <v>2625900</v>
       </c>
       <c r="F76" s="3">
-        <v>2076000</v>
+        <v>2174500</v>
       </c>
       <c r="G76" s="3">
-        <v>832500</v>
+        <v>872000</v>
       </c>
       <c r="H76" s="3">
-        <v>514000</v>
+        <v>538400</v>
       </c>
       <c r="I76" s="3">
-        <v>370900</v>
+        <v>388500</v>
       </c>
       <c r="J76" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="K76" s="3">
         <v>11800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>583400</v>
+        <v>611000</v>
       </c>
       <c r="E81" s="3">
-        <v>309200</v>
+        <v>323800</v>
       </c>
       <c r="F81" s="3">
-        <v>283100</v>
+        <v>296600</v>
       </c>
       <c r="G81" s="3">
-        <v>295800</v>
+        <v>309800</v>
       </c>
       <c r="H81" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="I81" s="3">
-        <v>122200</v>
+        <v>128000</v>
       </c>
       <c r="J81" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="K81" s="3">
         <v>-1400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216100</v>
+        <v>226400</v>
       </c>
       <c r="E83" s="3">
-        <v>129200</v>
+        <v>135300</v>
       </c>
       <c r="F83" s="3">
-        <v>162300</v>
+        <v>169900</v>
       </c>
       <c r="G83" s="3">
-        <v>147100</v>
+        <v>154000</v>
       </c>
       <c r="H83" s="3">
-        <v>84800</v>
+        <v>88800</v>
       </c>
       <c r="I83" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="J83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1784900</v>
+        <v>1869600</v>
       </c>
       <c r="E89" s="3">
-        <v>834500</v>
+        <v>874000</v>
       </c>
       <c r="F89" s="3">
-        <v>142500</v>
+        <v>149300</v>
       </c>
       <c r="G89" s="3">
-        <v>411200</v>
+        <v>430700</v>
       </c>
       <c r="H89" s="3">
-        <v>278100</v>
+        <v>291300</v>
       </c>
       <c r="I89" s="3">
-        <v>473800</v>
+        <v>496300</v>
       </c>
       <c r="J89" s="3">
-        <v>63500</v>
+        <v>66500</v>
       </c>
       <c r="K89" s="3">
         <v>16000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-621200</v>
+        <v>-650700</v>
       </c>
       <c r="E91" s="3">
-        <v>-522000</v>
+        <v>-546700</v>
       </c>
       <c r="F91" s="3">
-        <v>-359400</v>
+        <v>-376400</v>
       </c>
       <c r="G91" s="3">
-        <v>-315500</v>
+        <v>-330500</v>
       </c>
       <c r="H91" s="3">
-        <v>-335600</v>
+        <v>-351500</v>
       </c>
       <c r="I91" s="3">
-        <v>-247000</v>
+        <v>-258700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="K91" s="3">
         <v>-1800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1196800</v>
+        <v>-1253600</v>
       </c>
       <c r="E94" s="3">
-        <v>-972100</v>
+        <v>-1018300</v>
       </c>
       <c r="F94" s="3">
-        <v>-295200</v>
+        <v>-309200</v>
       </c>
       <c r="G94" s="3">
-        <v>-242400</v>
+        <v>-253900</v>
       </c>
       <c r="H94" s="3">
-        <v>-426600</v>
+        <v>-446800</v>
       </c>
       <c r="I94" s="3">
-        <v>-617700</v>
+        <v>-647000</v>
       </c>
       <c r="J94" s="3">
-        <v>-46600</v>
+        <v>-48800</v>
       </c>
       <c r="K94" s="3">
         <v>-11900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-908700</v>
+        <v>-951800</v>
       </c>
       <c r="E100" s="3">
-        <v>85200</v>
+        <v>89300</v>
       </c>
       <c r="F100" s="3">
-        <v>1041300</v>
+        <v>1090700</v>
       </c>
       <c r="G100" s="3">
-        <v>-57100</v>
+        <v>-59800</v>
       </c>
       <c r="H100" s="3">
-        <v>-78300</v>
+        <v>-82000</v>
       </c>
       <c r="I100" s="3">
-        <v>559400</v>
+        <v>586000</v>
       </c>
       <c r="J100" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="K100" s="3">
         <v>7200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16300</v>
+        <v>-17100</v>
       </c>
       <c r="E101" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="F101" s="3">
         <v>-900</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H101" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="I101" s="3">
-        <v>-14100</v>
+        <v>-14700</v>
       </c>
       <c r="J101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-336800</v>
+        <v>-352800</v>
       </c>
       <c r="E102" s="3">
-        <v>-26700</v>
+        <v>-27900</v>
       </c>
       <c r="F102" s="3">
-        <v>887700</v>
+        <v>929800</v>
       </c>
       <c r="G102" s="3">
-        <v>114000</v>
+        <v>119400</v>
       </c>
       <c r="H102" s="3">
-        <v>-213000</v>
+        <v>-223100</v>
       </c>
       <c r="I102" s="3">
-        <v>401500</v>
+        <v>420500</v>
       </c>
       <c r="J102" s="3">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="K102" s="3">
         <v>11400</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14146300</v>
+        <v>15561900</v>
       </c>
       <c r="E8" s="3">
-        <v>12857800</v>
+        <v>14207700</v>
       </c>
       <c r="F8" s="3">
-        <v>11091400</v>
+        <v>12913600</v>
       </c>
       <c r="G8" s="3">
-        <v>8608700</v>
+        <v>11139500</v>
       </c>
       <c r="H8" s="3">
-        <v>6115700</v>
+        <v>8646000</v>
       </c>
       <c r="I8" s="3">
-        <v>3518400</v>
+        <v>6142200</v>
       </c>
       <c r="J8" s="3">
+        <v>3533700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1585200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11000400</v>
+        <v>12310000</v>
       </c>
       <c r="E9" s="3">
-        <v>10261300</v>
+        <v>11048200</v>
       </c>
       <c r="F9" s="3">
-        <v>8612800</v>
+        <v>10305800</v>
       </c>
       <c r="G9" s="3">
-        <v>6540400</v>
+        <v>8650200</v>
       </c>
       <c r="H9" s="3">
-        <v>4610300</v>
+        <v>6568700</v>
       </c>
       <c r="I9" s="3">
-        <v>2643500</v>
+        <v>4630300</v>
       </c>
       <c r="J9" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1204200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3145900</v>
+        <v>3252000</v>
       </c>
       <c r="E10" s="3">
-        <v>2596500</v>
+        <v>3159500</v>
       </c>
       <c r="F10" s="3">
-        <v>2478600</v>
+        <v>2607800</v>
       </c>
       <c r="G10" s="3">
-        <v>2068300</v>
+        <v>2489400</v>
       </c>
       <c r="H10" s="3">
-        <v>1505500</v>
+        <v>2077300</v>
       </c>
       <c r="I10" s="3">
-        <v>874900</v>
+        <v>1512000</v>
       </c>
       <c r="J10" s="3">
+        <v>878700</v>
+      </c>
+      <c r="K10" s="3">
         <v>381000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,15 +864,18 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>61700</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
-        <v>20200</v>
-      </c>
       <c r="G14" s="3">
-        <v>17400</v>
+        <v>20300</v>
       </c>
       <c r="H14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>126300</v>
+        <v>5400</v>
       </c>
       <c r="E15" s="3">
-        <v>117200</v>
+        <v>126900</v>
       </c>
       <c r="F15" s="3">
-        <v>109700</v>
+        <v>117700</v>
       </c>
       <c r="G15" s="3">
-        <v>92900</v>
+        <v>110100</v>
       </c>
       <c r="H15" s="3">
-        <v>44300</v>
+        <v>93300</v>
       </c>
       <c r="I15" s="3">
-        <v>16700</v>
+        <v>44500</v>
       </c>
       <c r="J15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K15" s="3">
         <v>8300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13439600</v>
+        <v>14673200</v>
       </c>
       <c r="E17" s="3">
-        <v>12492500</v>
+        <v>13497900</v>
       </c>
       <c r="F17" s="3">
-        <v>10702400</v>
+        <v>12546700</v>
       </c>
       <c r="G17" s="3">
-        <v>8214200</v>
+        <v>10748800</v>
       </c>
       <c r="H17" s="3">
-        <v>5815900</v>
+        <v>8249800</v>
       </c>
       <c r="I17" s="3">
-        <v>3392500</v>
+        <v>5841100</v>
       </c>
       <c r="J17" s="3">
+        <v>3407300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1534900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>101400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>706700</v>
+        <v>888700</v>
       </c>
       <c r="E18" s="3">
-        <v>365200</v>
+        <v>709800</v>
       </c>
       <c r="F18" s="3">
-        <v>389000</v>
+        <v>366800</v>
       </c>
       <c r="G18" s="3">
-        <v>394500</v>
+        <v>390700</v>
       </c>
       <c r="H18" s="3">
-        <v>299800</v>
+        <v>396200</v>
       </c>
       <c r="I18" s="3">
-        <v>125900</v>
+        <v>301100</v>
       </c>
       <c r="J18" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K18" s="3">
         <v>50300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58300</v>
+        <v>194000</v>
       </c>
       <c r="E20" s="3">
-        <v>76900</v>
+        <v>58500</v>
       </c>
       <c r="F20" s="3">
-        <v>10000</v>
+        <v>77300</v>
       </c>
       <c r="G20" s="3">
-        <v>24100</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
-        <v>25200</v>
+        <v>24200</v>
       </c>
       <c r="I20" s="3">
-        <v>46900</v>
+        <v>25300</v>
       </c>
       <c r="J20" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K20" s="3">
         <v>15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>991300</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>577500</v>
+        <v>914000</v>
       </c>
       <c r="F21" s="3">
-        <v>569000</v>
+        <v>580500</v>
       </c>
       <c r="G21" s="3">
-        <v>572600</v>
+        <v>572100</v>
       </c>
       <c r="H21" s="3">
-        <v>413800</v>
+        <v>575600</v>
       </c>
       <c r="I21" s="3">
-        <v>230200</v>
+        <v>415900</v>
       </c>
       <c r="J21" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K21" s="3">
         <v>67600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E22" s="3">
         <v>13100</v>
       </c>
-      <c r="E22" s="3">
-        <v>24300</v>
-      </c>
       <c r="F22" s="3">
-        <v>12500</v>
+        <v>24400</v>
       </c>
       <c r="G22" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H22" s="3">
         <v>13000</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>13100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>751900</v>
+        <v>1072400</v>
       </c>
       <c r="E23" s="3">
-        <v>417900</v>
+        <v>755200</v>
       </c>
       <c r="F23" s="3">
-        <v>386500</v>
+        <v>419700</v>
       </c>
       <c r="G23" s="3">
-        <v>405600</v>
+        <v>388200</v>
       </c>
       <c r="H23" s="3">
-        <v>311900</v>
+        <v>407300</v>
       </c>
       <c r="I23" s="3">
-        <v>161300</v>
+        <v>313300</v>
       </c>
       <c r="J23" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K23" s="3">
         <v>66200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149600</v>
+        <v>172600</v>
       </c>
       <c r="E24" s="3">
-        <v>86200</v>
+        <v>150300</v>
       </c>
       <c r="F24" s="3">
-        <v>95200</v>
+        <v>86600</v>
       </c>
       <c r="G24" s="3">
-        <v>91600</v>
+        <v>95700</v>
       </c>
       <c r="H24" s="3">
-        <v>69600</v>
+        <v>91900</v>
       </c>
       <c r="I24" s="3">
-        <v>37300</v>
+        <v>69900</v>
       </c>
       <c r="J24" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>602300</v>
+        <v>899800</v>
       </c>
       <c r="E26" s="3">
-        <v>331700</v>
+        <v>604900</v>
       </c>
       <c r="F26" s="3">
-        <v>291300</v>
+        <v>333100</v>
       </c>
       <c r="G26" s="3">
-        <v>314000</v>
+        <v>292500</v>
       </c>
       <c r="H26" s="3">
-        <v>242300</v>
+        <v>315400</v>
       </c>
       <c r="I26" s="3">
-        <v>124000</v>
+        <v>243300</v>
       </c>
       <c r="J26" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K26" s="3">
         <v>48900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>611000</v>
+        <v>902500</v>
       </c>
       <c r="E27" s="3">
-        <v>323800</v>
+        <v>613700</v>
       </c>
       <c r="F27" s="3">
-        <v>296600</v>
+        <v>325200</v>
       </c>
       <c r="G27" s="3">
-        <v>309800</v>
+        <v>297900</v>
       </c>
       <c r="H27" s="3">
-        <v>241800</v>
+        <v>311200</v>
       </c>
       <c r="I27" s="3">
-        <v>128000</v>
+        <v>242900</v>
       </c>
       <c r="J27" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K27" s="3">
         <v>48900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58300</v>
+        <v>-194000</v>
       </c>
       <c r="E32" s="3">
-        <v>-76900</v>
+        <v>-58500</v>
       </c>
       <c r="F32" s="3">
-        <v>-10000</v>
+        <v>-77300</v>
       </c>
       <c r="G32" s="3">
-        <v>-24100</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
-        <v>-25200</v>
+        <v>-24200</v>
       </c>
       <c r="I32" s="3">
-        <v>-46900</v>
+        <v>-25300</v>
       </c>
       <c r="J32" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>611000</v>
+        <v>902500</v>
       </c>
       <c r="E33" s="3">
-        <v>323800</v>
+        <v>613700</v>
       </c>
       <c r="F33" s="3">
-        <v>296600</v>
+        <v>325200</v>
       </c>
       <c r="G33" s="3">
-        <v>309800</v>
+        <v>297900</v>
       </c>
       <c r="H33" s="3">
-        <v>241800</v>
+        <v>311200</v>
       </c>
       <c r="I33" s="3">
-        <v>128000</v>
+        <v>242900</v>
       </c>
       <c r="J33" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K33" s="3">
         <v>48900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>611000</v>
+        <v>902500</v>
       </c>
       <c r="E35" s="3">
-        <v>323800</v>
+        <v>613700</v>
       </c>
       <c r="F35" s="3">
-        <v>296600</v>
+        <v>325200</v>
       </c>
       <c r="G35" s="3">
-        <v>309800</v>
+        <v>297900</v>
       </c>
       <c r="H35" s="3">
-        <v>241800</v>
+        <v>311200</v>
       </c>
       <c r="I35" s="3">
-        <v>128000</v>
+        <v>242900</v>
       </c>
       <c r="J35" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K35" s="3">
         <v>48900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,229 +1731,248 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000000</v>
+        <v>1832700</v>
       </c>
       <c r="E41" s="3">
-        <v>1451300</v>
+        <v>1004300</v>
       </c>
       <c r="F41" s="3">
-        <v>1517200</v>
+        <v>1457600</v>
       </c>
       <c r="G41" s="3">
-        <v>625100</v>
+        <v>1523800</v>
       </c>
       <c r="H41" s="3">
-        <v>505700</v>
+        <v>627900</v>
       </c>
       <c r="I41" s="3">
-        <v>728800</v>
+        <v>507900</v>
       </c>
       <c r="J41" s="3">
+        <v>731900</v>
+      </c>
+      <c r="K41" s="3">
         <v>50900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>464400</v>
+        <v>1119700</v>
       </c>
       <c r="E42" s="3">
-        <v>353100</v>
+        <v>466400</v>
       </c>
       <c r="F42" s="3">
-        <v>37400</v>
+        <v>354600</v>
       </c>
       <c r="G42" s="3">
-        <v>102200</v>
+        <v>37600</v>
       </c>
       <c r="H42" s="3">
-        <v>274900</v>
+        <v>102600</v>
       </c>
       <c r="I42" s="3">
-        <v>573200</v>
+        <v>276100</v>
       </c>
       <c r="J42" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K42" s="3">
         <v>58700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12400</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>691800</v>
+        <v>455500</v>
       </c>
       <c r="E43" s="3">
-        <v>1460000</v>
+        <v>694800</v>
       </c>
       <c r="F43" s="3">
-        <v>1291200</v>
+        <v>1466400</v>
       </c>
       <c r="G43" s="3">
-        <v>691200</v>
+        <v>1296800</v>
       </c>
       <c r="H43" s="3">
-        <v>334700</v>
+        <v>694200</v>
       </c>
       <c r="I43" s="3">
-        <v>151300</v>
+        <v>336200</v>
       </c>
       <c r="J43" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1172600</v>
+        <v>1167600</v>
       </c>
       <c r="E44" s="3">
-        <v>816600</v>
+        <v>1177700</v>
       </c>
       <c r="F44" s="3">
-        <v>1058800</v>
+        <v>820100</v>
       </c>
       <c r="G44" s="3">
-        <v>752800</v>
+        <v>1063400</v>
       </c>
       <c r="H44" s="3">
-        <v>694700</v>
+        <v>756000</v>
       </c>
       <c r="I44" s="3">
-        <v>545900</v>
+        <v>697700</v>
       </c>
       <c r="J44" s="3">
+        <v>548200</v>
+      </c>
+      <c r="K44" s="3">
         <v>41100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>174200</v>
+        <v>187100</v>
       </c>
       <c r="E45" s="3">
-        <v>75700</v>
+        <v>175000</v>
       </c>
       <c r="F45" s="3">
-        <v>37700</v>
+        <v>76100</v>
       </c>
       <c r="G45" s="3">
-        <v>46700</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3">
-        <v>38700</v>
+        <v>46900</v>
       </c>
       <c r="I45" s="3">
-        <v>51200</v>
+        <v>38900</v>
       </c>
       <c r="J45" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3503000</v>
+        <v>4762600</v>
       </c>
       <c r="E46" s="3">
-        <v>4156800</v>
+        <v>3518200</v>
       </c>
       <c r="F46" s="3">
-        <v>3942400</v>
+        <v>4174800</v>
       </c>
       <c r="G46" s="3">
-        <v>2218000</v>
+        <v>3959500</v>
       </c>
       <c r="H46" s="3">
-        <v>1848800</v>
+        <v>2227700</v>
       </c>
       <c r="I46" s="3">
-        <v>2011100</v>
+        <v>1856800</v>
       </c>
       <c r="J46" s="3">
+        <v>2019800</v>
+      </c>
+      <c r="K46" s="3">
         <v>157700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>793700</v>
+        <v>735000</v>
       </c>
       <c r="E47" s="3">
-        <v>325200</v>
+        <v>797200</v>
       </c>
       <c r="F47" s="3">
-        <v>91300</v>
+        <v>326600</v>
       </c>
       <c r="G47" s="3">
-        <v>152800</v>
+        <v>91700</v>
       </c>
       <c r="H47" s="3">
-        <v>154000</v>
+        <v>153400</v>
       </c>
       <c r="I47" s="3">
-        <v>59400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+        <v>154700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>59600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1973400</v>
+        <v>2316900</v>
       </c>
       <c r="E48" s="3">
-        <v>1297800</v>
+        <v>1981900</v>
       </c>
       <c r="F48" s="3">
-        <v>1013200</v>
+        <v>1303400</v>
       </c>
       <c r="G48" s="3">
-        <v>679600</v>
+        <v>1017600</v>
       </c>
       <c r="H48" s="3">
-        <v>448700</v>
+        <v>682500</v>
       </c>
       <c r="I48" s="3">
-        <v>581500</v>
+        <v>450600</v>
       </c>
       <c r="J48" s="3">
+        <v>584100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87300</v>
+        <v>141600</v>
       </c>
       <c r="E49" s="3">
-        <v>109600</v>
+        <v>87700</v>
       </c>
       <c r="F49" s="3">
-        <v>116800</v>
+        <v>110000</v>
       </c>
       <c r="G49" s="3">
-        <v>166200</v>
+        <v>117400</v>
       </c>
       <c r="H49" s="3">
-        <v>129800</v>
+        <v>166900</v>
       </c>
       <c r="I49" s="3">
-        <v>167200</v>
+        <v>130300</v>
       </c>
       <c r="J49" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1033000</v>
+        <v>1048900</v>
       </c>
       <c r="E52" s="3">
-        <v>737400</v>
+        <v>1037500</v>
       </c>
       <c r="F52" s="3">
-        <v>614200</v>
+        <v>740600</v>
       </c>
       <c r="G52" s="3">
-        <v>600800</v>
+        <v>616800</v>
       </c>
       <c r="H52" s="3">
-        <v>466600</v>
+        <v>603400</v>
       </c>
       <c r="I52" s="3">
-        <v>62700</v>
+        <v>468600</v>
       </c>
       <c r="J52" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7390400</v>
+        <v>9005000</v>
       </c>
       <c r="E54" s="3">
-        <v>6626800</v>
+        <v>7422500</v>
       </c>
       <c r="F54" s="3">
-        <v>5777900</v>
+        <v>6655500</v>
       </c>
       <c r="G54" s="3">
-        <v>3817400</v>
+        <v>5803000</v>
       </c>
       <c r="H54" s="3">
-        <v>3047800</v>
+        <v>3833900</v>
       </c>
       <c r="I54" s="3">
-        <v>2578600</v>
+        <v>3061000</v>
       </c>
       <c r="J54" s="3">
+        <v>2589800</v>
+      </c>
+      <c r="K54" s="3">
         <v>163100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,163 +2267,176 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2098100</v>
+        <v>2320900</v>
       </c>
       <c r="E57" s="3">
-        <v>1769200</v>
+        <v>2107200</v>
       </c>
       <c r="F57" s="3">
-        <v>1741000</v>
+        <v>1776900</v>
       </c>
       <c r="G57" s="3">
-        <v>1267700</v>
+        <v>1748600</v>
       </c>
       <c r="H57" s="3">
-        <v>1010900</v>
+        <v>1273200</v>
       </c>
       <c r="I57" s="3">
-        <v>931200</v>
+        <v>1015300</v>
       </c>
       <c r="J57" s="3">
+        <v>935200</v>
+      </c>
+      <c r="K57" s="3">
         <v>72500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>166400</v>
+        <v>159400</v>
       </c>
       <c r="E58" s="3">
-        <v>1010000</v>
+        <v>167100</v>
       </c>
       <c r="F58" s="3">
-        <v>253600</v>
+        <v>1014400</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>254700</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>14500</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1375100</v>
+        <v>1578900</v>
       </c>
       <c r="E59" s="3">
-        <v>1167700</v>
+        <v>1381100</v>
       </c>
       <c r="F59" s="3">
-        <v>934800</v>
+        <v>1172800</v>
       </c>
       <c r="G59" s="3">
-        <v>950700</v>
+        <v>938900</v>
       </c>
       <c r="H59" s="3">
-        <v>825400</v>
+        <v>954900</v>
       </c>
       <c r="I59" s="3">
-        <v>969700</v>
+        <v>828900</v>
       </c>
       <c r="J59" s="3">
+        <v>973900</v>
+      </c>
+      <c r="K59" s="3">
         <v>53500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3639600</v>
+        <v>4059200</v>
       </c>
       <c r="E60" s="3">
-        <v>3946900</v>
+        <v>3655400</v>
       </c>
       <c r="F60" s="3">
-        <v>2929500</v>
+        <v>3964000</v>
       </c>
       <c r="G60" s="3">
-        <v>2218400</v>
+        <v>2942200</v>
       </c>
       <c r="H60" s="3">
-        <v>1850700</v>
+        <v>2228100</v>
       </c>
       <c r="I60" s="3">
-        <v>1544800</v>
+        <v>1858700</v>
       </c>
       <c r="J60" s="3">
+        <v>1551500</v>
+      </c>
+      <c r="K60" s="3">
         <v>126100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="F61" s="3">
-        <v>622900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>666500</v>
+        <v>625600</v>
       </c>
       <c r="H61" s="3">
-        <v>617300</v>
+        <v>669400</v>
       </c>
       <c r="I61" s="3">
-        <v>586400</v>
+        <v>620000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>589000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2302,32 +2444,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>356400</v>
+        <v>456200</v>
       </c>
       <c r="E62" s="3">
-        <v>61700</v>
+        <v>357900</v>
       </c>
       <c r="F62" s="3">
-        <v>57800</v>
+        <v>62000</v>
       </c>
       <c r="G62" s="3">
-        <v>52900</v>
+        <v>58000</v>
       </c>
       <c r="H62" s="3">
-        <v>30100</v>
+        <v>53100</v>
       </c>
       <c r="I62" s="3">
-        <v>36900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>30300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>37100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2335,9 +2480,12 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4070100</v>
+        <v>4651100</v>
       </c>
       <c r="E66" s="3">
-        <v>4000900</v>
+        <v>4087700</v>
       </c>
       <c r="F66" s="3">
-        <v>3603500</v>
+        <v>4018200</v>
       </c>
       <c r="G66" s="3">
-        <v>2945400</v>
+        <v>3619100</v>
       </c>
       <c r="H66" s="3">
-        <v>2509400</v>
+        <v>2958200</v>
       </c>
       <c r="I66" s="3">
-        <v>2190100</v>
+        <v>2520300</v>
       </c>
       <c r="J66" s="3">
+        <v>2199600</v>
+      </c>
+      <c r="K66" s="3">
         <v>126100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2579,11 +2746,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>8900</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1813900</v>
+        <v>2710400</v>
       </c>
       <c r="E72" s="3">
-        <v>1202900</v>
+        <v>1821800</v>
       </c>
       <c r="F72" s="3">
-        <v>852300</v>
+        <v>1208100</v>
       </c>
       <c r="G72" s="3">
-        <v>555700</v>
+        <v>856000</v>
       </c>
       <c r="H72" s="3">
-        <v>245900</v>
+        <v>558100</v>
       </c>
       <c r="I72" s="3">
-        <v>4000</v>
+        <v>246900</v>
       </c>
       <c r="J72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3320300</v>
+        <v>4353900</v>
       </c>
       <c r="E76" s="3">
-        <v>2625900</v>
+        <v>3334800</v>
       </c>
       <c r="F76" s="3">
-        <v>2174500</v>
+        <v>2637300</v>
       </c>
       <c r="G76" s="3">
-        <v>872000</v>
+        <v>2183900</v>
       </c>
       <c r="H76" s="3">
-        <v>538400</v>
+        <v>875800</v>
       </c>
       <c r="I76" s="3">
-        <v>388500</v>
+        <v>540700</v>
       </c>
       <c r="J76" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K76" s="3">
         <v>37000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>611000</v>
+        <v>902500</v>
       </c>
       <c r="E81" s="3">
-        <v>323800</v>
+        <v>613700</v>
       </c>
       <c r="F81" s="3">
-        <v>296600</v>
+        <v>325200</v>
       </c>
       <c r="G81" s="3">
-        <v>309800</v>
+        <v>297900</v>
       </c>
       <c r="H81" s="3">
-        <v>241800</v>
+        <v>311200</v>
       </c>
       <c r="I81" s="3">
-        <v>128000</v>
+        <v>242900</v>
       </c>
       <c r="J81" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K81" s="3">
         <v>48900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>226400</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>135300</v>
+        <v>145200</v>
       </c>
       <c r="F83" s="3">
-        <v>169900</v>
+        <v>135900</v>
       </c>
       <c r="G83" s="3">
-        <v>154000</v>
+        <v>170700</v>
       </c>
       <c r="H83" s="3">
-        <v>88800</v>
+        <v>154700</v>
       </c>
       <c r="I83" s="3">
-        <v>57500</v>
+        <v>89200</v>
       </c>
       <c r="J83" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1869600</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>874000</v>
+        <v>1877700</v>
       </c>
       <c r="F89" s="3">
-        <v>149300</v>
+        <v>877800</v>
       </c>
       <c r="G89" s="3">
-        <v>430700</v>
+        <v>149900</v>
       </c>
       <c r="H89" s="3">
-        <v>291300</v>
+        <v>432600</v>
       </c>
       <c r="I89" s="3">
-        <v>496300</v>
+        <v>292600</v>
       </c>
       <c r="J89" s="3">
+        <v>498500</v>
+      </c>
+      <c r="K89" s="3">
         <v>66500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-650700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-546700</v>
+        <v>-653500</v>
       </c>
       <c r="F91" s="3">
-        <v>-376400</v>
+        <v>-549100</v>
       </c>
       <c r="G91" s="3">
-        <v>-330500</v>
+        <v>-378000</v>
       </c>
       <c r="H91" s="3">
-        <v>-351500</v>
+        <v>-331900</v>
       </c>
       <c r="I91" s="3">
-        <v>-258700</v>
+        <v>-353100</v>
       </c>
       <c r="J91" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1253600</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-1018300</v>
+        <v>-1259000</v>
       </c>
       <c r="F94" s="3">
-        <v>-309200</v>
+        <v>-1022700</v>
       </c>
       <c r="G94" s="3">
-        <v>-253900</v>
+        <v>-310500</v>
       </c>
       <c r="H94" s="3">
-        <v>-446800</v>
+        <v>-255000</v>
       </c>
       <c r="I94" s="3">
-        <v>-647000</v>
+        <v>-448800</v>
       </c>
       <c r="J94" s="3">
+        <v>-649800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-48800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-951800</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>89300</v>
+        <v>-955900</v>
       </c>
       <c r="F100" s="3">
-        <v>1090700</v>
+        <v>89700</v>
       </c>
       <c r="G100" s="3">
-        <v>-59800</v>
+        <v>1095400</v>
       </c>
       <c r="H100" s="3">
-        <v>-82000</v>
+        <v>-60100</v>
       </c>
       <c r="I100" s="3">
-        <v>586000</v>
+        <v>-82400</v>
       </c>
       <c r="J100" s="3">
+        <v>588500</v>
+      </c>
+      <c r="K100" s="3">
         <v>14100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17100</v>
       </c>
-      <c r="E101" s="3">
-        <v>27000</v>
-      </c>
       <c r="F101" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="H101" s="3">
-        <v>14400</v>
-      </c>
       <c r="I101" s="3">
-        <v>-14700</v>
+        <v>14500</v>
       </c>
       <c r="J101" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-352800</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-27900</v>
+        <v>-354300</v>
       </c>
       <c r="F102" s="3">
-        <v>929800</v>
+        <v>-28000</v>
       </c>
       <c r="G102" s="3">
-        <v>119400</v>
+        <v>933900</v>
       </c>
       <c r="H102" s="3">
-        <v>-223100</v>
+        <v>120000</v>
       </c>
       <c r="I102" s="3">
-        <v>420500</v>
+        <v>-224000</v>
       </c>
       <c r="J102" s="3">
+        <v>422400</v>
+      </c>
+      <c r="K102" s="3">
         <v>32000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15561900</v>
+        <v>15890900</v>
       </c>
       <c r="E8" s="3">
-        <v>14207700</v>
+        <v>14508100</v>
       </c>
       <c r="F8" s="3">
-        <v>12913600</v>
+        <v>13186600</v>
       </c>
       <c r="G8" s="3">
-        <v>11139500</v>
+        <v>11375000</v>
       </c>
       <c r="H8" s="3">
-        <v>8646000</v>
+        <v>8828800</v>
       </c>
       <c r="I8" s="3">
-        <v>6142200</v>
+        <v>6272100</v>
       </c>
       <c r="J8" s="3">
-        <v>3533700</v>
+        <v>3608400</v>
       </c>
       <c r="K8" s="3">
         <v>1585200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12310000</v>
+        <v>12570200</v>
       </c>
       <c r="E9" s="3">
-        <v>11048200</v>
+        <v>11281700</v>
       </c>
       <c r="F9" s="3">
-        <v>10305800</v>
+        <v>10523700</v>
       </c>
       <c r="G9" s="3">
-        <v>8650200</v>
+        <v>8833000</v>
       </c>
       <c r="H9" s="3">
-        <v>6568700</v>
+        <v>6707600</v>
       </c>
       <c r="I9" s="3">
-        <v>4630300</v>
+        <v>4728200</v>
       </c>
       <c r="J9" s="3">
-        <v>2655000</v>
+        <v>2711100</v>
       </c>
       <c r="K9" s="3">
         <v>1204200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3252000</v>
+        <v>3320700</v>
       </c>
       <c r="E10" s="3">
-        <v>3159500</v>
+        <v>3226300</v>
       </c>
       <c r="F10" s="3">
-        <v>2607800</v>
+        <v>2662900</v>
       </c>
       <c r="G10" s="3">
-        <v>2489400</v>
+        <v>2542000</v>
       </c>
       <c r="H10" s="3">
-        <v>2077300</v>
+        <v>2121200</v>
       </c>
       <c r="I10" s="3">
-        <v>1512000</v>
+        <v>1544000</v>
       </c>
       <c r="J10" s="3">
-        <v>878700</v>
+        <v>897300</v>
       </c>
       <c r="K10" s="3">
         <v>381000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="3">
-        <v>62000</v>
+        <v>63300</v>
       </c>
       <c r="F14" s="3">
         <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="H14" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="I14" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -951,26 +951,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>5400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="F15" s="3">
-        <v>117700</v>
+        <v>120200</v>
       </c>
       <c r="G15" s="3">
-        <v>110100</v>
+        <v>112500</v>
       </c>
       <c r="H15" s="3">
-        <v>93300</v>
+        <v>95300</v>
       </c>
       <c r="I15" s="3">
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="J15" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="K15" s="3">
         <v>8300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14673200</v>
+        <v>14983400</v>
       </c>
       <c r="E17" s="3">
-        <v>13497900</v>
+        <v>13783300</v>
       </c>
       <c r="F17" s="3">
-        <v>12546700</v>
+        <v>12812000</v>
       </c>
       <c r="G17" s="3">
-        <v>10748800</v>
+        <v>10976100</v>
       </c>
       <c r="H17" s="3">
-        <v>8249800</v>
+        <v>8424300</v>
       </c>
       <c r="I17" s="3">
-        <v>5841100</v>
+        <v>5964600</v>
       </c>
       <c r="J17" s="3">
-        <v>3407300</v>
+        <v>3479300</v>
       </c>
       <c r="K17" s="3">
         <v>1534900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>888700</v>
+        <v>907500</v>
       </c>
       <c r="E18" s="3">
-        <v>709800</v>
+        <v>724800</v>
       </c>
       <c r="F18" s="3">
-        <v>366800</v>
+        <v>374600</v>
       </c>
       <c r="G18" s="3">
-        <v>390700</v>
+        <v>399000</v>
       </c>
       <c r="H18" s="3">
-        <v>396200</v>
+        <v>404600</v>
       </c>
       <c r="I18" s="3">
-        <v>301100</v>
+        <v>307500</v>
       </c>
       <c r="J18" s="3">
-        <v>126400</v>
+        <v>129100</v>
       </c>
       <c r="K18" s="3">
         <v>50300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>194000</v>
+        <v>198100</v>
       </c>
       <c r="E20" s="3">
-        <v>58500</v>
+        <v>59800</v>
       </c>
       <c r="F20" s="3">
-        <v>77300</v>
+        <v>78900</v>
       </c>
       <c r="G20" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H20" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="I20" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="J20" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="K20" s="3">
         <v>15900</v>
@@ -1124,26 +1124,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1283100</v>
       </c>
       <c r="E21" s="3">
-        <v>914000</v>
+        <v>932700</v>
       </c>
       <c r="F21" s="3">
-        <v>580500</v>
+        <v>592100</v>
       </c>
       <c r="G21" s="3">
-        <v>572100</v>
+        <v>583300</v>
       </c>
       <c r="H21" s="3">
-        <v>575600</v>
+        <v>587000</v>
       </c>
       <c r="I21" s="3">
-        <v>415900</v>
+        <v>424300</v>
       </c>
       <c r="J21" s="3">
-        <v>228800</v>
+        <v>233400</v>
       </c>
       <c r="K21" s="3">
         <v>67600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="F22" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="G22" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="H22" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="I22" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J22" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1072400</v>
+        <v>1095100</v>
       </c>
       <c r="E23" s="3">
-        <v>755200</v>
+        <v>771100</v>
       </c>
       <c r="F23" s="3">
-        <v>419700</v>
+        <v>428600</v>
       </c>
       <c r="G23" s="3">
-        <v>388200</v>
+        <v>396400</v>
       </c>
       <c r="H23" s="3">
-        <v>407300</v>
+        <v>415900</v>
       </c>
       <c r="I23" s="3">
-        <v>313300</v>
+        <v>319900</v>
       </c>
       <c r="J23" s="3">
-        <v>162000</v>
+        <v>165400</v>
       </c>
       <c r="K23" s="3">
         <v>66200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>172600</v>
+        <v>176300</v>
       </c>
       <c r="E24" s="3">
-        <v>150300</v>
+        <v>153400</v>
       </c>
       <c r="F24" s="3">
-        <v>86600</v>
+        <v>88400</v>
       </c>
       <c r="G24" s="3">
-        <v>95700</v>
+        <v>97700</v>
       </c>
       <c r="H24" s="3">
-        <v>91900</v>
+        <v>93900</v>
       </c>
       <c r="I24" s="3">
-        <v>69900</v>
+        <v>71400</v>
       </c>
       <c r="J24" s="3">
-        <v>37400</v>
+        <v>38200</v>
       </c>
       <c r="K24" s="3">
         <v>17300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>899800</v>
+        <v>918800</v>
       </c>
       <c r="E26" s="3">
-        <v>604900</v>
+        <v>617700</v>
       </c>
       <c r="F26" s="3">
-        <v>333100</v>
+        <v>340200</v>
       </c>
       <c r="G26" s="3">
-        <v>292500</v>
+        <v>298700</v>
       </c>
       <c r="H26" s="3">
-        <v>315400</v>
+        <v>322000</v>
       </c>
       <c r="I26" s="3">
-        <v>243300</v>
+        <v>248500</v>
       </c>
       <c r="J26" s="3">
-        <v>124600</v>
+        <v>127200</v>
       </c>
       <c r="K26" s="3">
         <v>48900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>902500</v>
+        <v>921500</v>
       </c>
       <c r="E27" s="3">
-        <v>613700</v>
+        <v>626700</v>
       </c>
       <c r="F27" s="3">
-        <v>325200</v>
+        <v>332100</v>
       </c>
       <c r="G27" s="3">
-        <v>297900</v>
+        <v>304200</v>
       </c>
       <c r="H27" s="3">
-        <v>311200</v>
+        <v>317800</v>
       </c>
       <c r="I27" s="3">
-        <v>242900</v>
+        <v>248000</v>
       </c>
       <c r="J27" s="3">
-        <v>128500</v>
+        <v>131200</v>
       </c>
       <c r="K27" s="3">
         <v>48900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-194000</v>
+        <v>-198100</v>
       </c>
       <c r="E32" s="3">
-        <v>-58500</v>
+        <v>-59800</v>
       </c>
       <c r="F32" s="3">
-        <v>-77300</v>
+        <v>-78900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="H32" s="3">
-        <v>-24200</v>
+        <v>-24700</v>
       </c>
       <c r="I32" s="3">
-        <v>-25300</v>
+        <v>-25800</v>
       </c>
       <c r="J32" s="3">
-        <v>-47100</v>
+        <v>-48100</v>
       </c>
       <c r="K32" s="3">
         <v>-15900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>902500</v>
+        <v>921500</v>
       </c>
       <c r="E33" s="3">
-        <v>613700</v>
+        <v>626700</v>
       </c>
       <c r="F33" s="3">
-        <v>325200</v>
+        <v>332100</v>
       </c>
       <c r="G33" s="3">
-        <v>297900</v>
+        <v>304200</v>
       </c>
       <c r="H33" s="3">
-        <v>311200</v>
+        <v>317800</v>
       </c>
       <c r="I33" s="3">
-        <v>242900</v>
+        <v>248000</v>
       </c>
       <c r="J33" s="3">
-        <v>128500</v>
+        <v>131200</v>
       </c>
       <c r="K33" s="3">
         <v>48900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>902500</v>
+        <v>921500</v>
       </c>
       <c r="E35" s="3">
-        <v>613700</v>
+        <v>626700</v>
       </c>
       <c r="F35" s="3">
-        <v>325200</v>
+        <v>332100</v>
       </c>
       <c r="G35" s="3">
-        <v>297900</v>
+        <v>304200</v>
       </c>
       <c r="H35" s="3">
-        <v>311200</v>
+        <v>317800</v>
       </c>
       <c r="I35" s="3">
-        <v>242900</v>
+        <v>248000</v>
       </c>
       <c r="J35" s="3">
-        <v>128500</v>
+        <v>131200</v>
       </c>
       <c r="K35" s="3">
         <v>48900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1832700</v>
+        <v>1871400</v>
       </c>
       <c r="E41" s="3">
-        <v>1004300</v>
+        <v>1025600</v>
       </c>
       <c r="F41" s="3">
-        <v>1457600</v>
+        <v>1488400</v>
       </c>
       <c r="G41" s="3">
-        <v>1523800</v>
+        <v>1556000</v>
       </c>
       <c r="H41" s="3">
-        <v>627900</v>
+        <v>641100</v>
       </c>
       <c r="I41" s="3">
-        <v>507900</v>
+        <v>518600</v>
       </c>
       <c r="J41" s="3">
-        <v>731900</v>
+        <v>747400</v>
       </c>
       <c r="K41" s="3">
         <v>50900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1119700</v>
+        <v>1143400</v>
       </c>
       <c r="E42" s="3">
-        <v>466400</v>
+        <v>476300</v>
       </c>
       <c r="F42" s="3">
-        <v>354600</v>
+        <v>362100</v>
       </c>
       <c r="G42" s="3">
-        <v>37600</v>
+        <v>38400</v>
       </c>
       <c r="H42" s="3">
-        <v>102600</v>
+        <v>104800</v>
       </c>
       <c r="I42" s="3">
-        <v>276100</v>
+        <v>282000</v>
       </c>
       <c r="J42" s="3">
-        <v>575700</v>
+        <v>587900</v>
       </c>
       <c r="K42" s="3">
         <v>58700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>455500</v>
+        <v>465200</v>
       </c>
       <c r="E43" s="3">
-        <v>694800</v>
+        <v>709500</v>
       </c>
       <c r="F43" s="3">
-        <v>1466400</v>
+        <v>1497400</v>
       </c>
       <c r="G43" s="3">
-        <v>1296800</v>
+        <v>1324200</v>
       </c>
       <c r="H43" s="3">
-        <v>694200</v>
+        <v>708900</v>
       </c>
       <c r="I43" s="3">
-        <v>336200</v>
+        <v>343300</v>
       </c>
       <c r="J43" s="3">
-        <v>152000</v>
+        <v>155200</v>
       </c>
       <c r="K43" s="3">
         <v>3000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1167600</v>
+        <v>1192300</v>
       </c>
       <c r="E44" s="3">
-        <v>1177700</v>
+        <v>1202600</v>
       </c>
       <c r="F44" s="3">
-        <v>820100</v>
+        <v>837500</v>
       </c>
       <c r="G44" s="3">
-        <v>1063400</v>
+        <v>1085900</v>
       </c>
       <c r="H44" s="3">
-        <v>756000</v>
+        <v>772000</v>
       </c>
       <c r="I44" s="3">
-        <v>697700</v>
+        <v>712500</v>
       </c>
       <c r="J44" s="3">
-        <v>548200</v>
+        <v>559800</v>
       </c>
       <c r="K44" s="3">
         <v>41100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187100</v>
+        <v>191100</v>
       </c>
       <c r="E45" s="3">
-        <v>175000</v>
+        <v>178700</v>
       </c>
       <c r="F45" s="3">
-        <v>76100</v>
+        <v>77700</v>
       </c>
       <c r="G45" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="H45" s="3">
-        <v>46900</v>
+        <v>47900</v>
       </c>
       <c r="I45" s="3">
-        <v>38900</v>
+        <v>39700</v>
       </c>
       <c r="J45" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4762600</v>
+        <v>4863300</v>
       </c>
       <c r="E46" s="3">
-        <v>3518200</v>
+        <v>3592600</v>
       </c>
       <c r="F46" s="3">
-        <v>4174800</v>
+        <v>4263100</v>
       </c>
       <c r="G46" s="3">
-        <v>3959500</v>
+        <v>4043200</v>
       </c>
       <c r="H46" s="3">
-        <v>2227700</v>
+        <v>2274800</v>
       </c>
       <c r="I46" s="3">
-        <v>1856800</v>
+        <v>1896000</v>
       </c>
       <c r="J46" s="3">
-        <v>2019800</v>
+        <v>2062500</v>
       </c>
       <c r="K46" s="3">
         <v>157700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>735000</v>
+        <v>750500</v>
       </c>
       <c r="E47" s="3">
-        <v>797200</v>
+        <v>814000</v>
       </c>
       <c r="F47" s="3">
-        <v>326600</v>
+        <v>333500</v>
       </c>
       <c r="G47" s="3">
-        <v>91700</v>
+        <v>93600</v>
       </c>
       <c r="H47" s="3">
-        <v>153400</v>
+        <v>156700</v>
       </c>
       <c r="I47" s="3">
-        <v>154700</v>
+        <v>157900</v>
       </c>
       <c r="J47" s="3">
-        <v>59600</v>
+        <v>60900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2316900</v>
+        <v>2365900</v>
       </c>
       <c r="E48" s="3">
-        <v>1981900</v>
+        <v>2023800</v>
       </c>
       <c r="F48" s="3">
-        <v>1303400</v>
+        <v>1331000</v>
       </c>
       <c r="G48" s="3">
-        <v>1017600</v>
+        <v>1039200</v>
       </c>
       <c r="H48" s="3">
-        <v>682500</v>
+        <v>697000</v>
       </c>
       <c r="I48" s="3">
-        <v>450600</v>
+        <v>460200</v>
       </c>
       <c r="J48" s="3">
-        <v>584100</v>
+        <v>596400</v>
       </c>
       <c r="K48" s="3">
         <v>3700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141600</v>
+        <v>144600</v>
       </c>
       <c r="E49" s="3">
-        <v>87700</v>
+        <v>89600</v>
       </c>
       <c r="F49" s="3">
-        <v>110000</v>
+        <v>112400</v>
       </c>
       <c r="G49" s="3">
-        <v>117400</v>
+        <v>119800</v>
       </c>
       <c r="H49" s="3">
-        <v>166900</v>
+        <v>170400</v>
       </c>
       <c r="I49" s="3">
-        <v>130300</v>
+        <v>133100</v>
       </c>
       <c r="J49" s="3">
-        <v>167900</v>
+        <v>171400</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1048900</v>
+        <v>1071000</v>
       </c>
       <c r="E52" s="3">
-        <v>1037500</v>
+        <v>1059400</v>
       </c>
       <c r="F52" s="3">
-        <v>740600</v>
+        <v>756200</v>
       </c>
       <c r="G52" s="3">
-        <v>616800</v>
+        <v>629900</v>
       </c>
       <c r="H52" s="3">
-        <v>603400</v>
+        <v>616200</v>
       </c>
       <c r="I52" s="3">
-        <v>468600</v>
+        <v>478500</v>
       </c>
       <c r="J52" s="3">
-        <v>62900</v>
+        <v>64300</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9005000</v>
+        <v>9195400</v>
       </c>
       <c r="E54" s="3">
-        <v>7422500</v>
+        <v>7579400</v>
       </c>
       <c r="F54" s="3">
-        <v>6655500</v>
+        <v>6796200</v>
       </c>
       <c r="G54" s="3">
-        <v>5803000</v>
+        <v>5925700</v>
       </c>
       <c r="H54" s="3">
-        <v>3833900</v>
+        <v>3915000</v>
       </c>
       <c r="I54" s="3">
-        <v>3061000</v>
+        <v>3125700</v>
       </c>
       <c r="J54" s="3">
-        <v>2589800</v>
+        <v>2644500</v>
       </c>
       <c r="K54" s="3">
         <v>163100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2320900</v>
+        <v>2370000</v>
       </c>
       <c r="E57" s="3">
-        <v>2107200</v>
+        <v>2151700</v>
       </c>
       <c r="F57" s="3">
-        <v>1776900</v>
+        <v>1814400</v>
       </c>
       <c r="G57" s="3">
-        <v>1748600</v>
+        <v>1785600</v>
       </c>
       <c r="H57" s="3">
-        <v>1273200</v>
+        <v>1300100</v>
       </c>
       <c r="I57" s="3">
-        <v>1015300</v>
+        <v>1036700</v>
       </c>
       <c r="J57" s="3">
-        <v>935200</v>
+        <v>955000</v>
       </c>
       <c r="K57" s="3">
         <v>72500</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159400</v>
+        <v>162800</v>
       </c>
       <c r="E58" s="3">
-        <v>167100</v>
+        <v>170600</v>
       </c>
       <c r="F58" s="3">
-        <v>1014400</v>
+        <v>1035800</v>
       </c>
       <c r="G58" s="3">
-        <v>254700</v>
+        <v>260100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1578900</v>
+        <v>1612200</v>
       </c>
       <c r="E59" s="3">
-        <v>1381100</v>
+        <v>1410300</v>
       </c>
       <c r="F59" s="3">
-        <v>1172800</v>
+        <v>1197600</v>
       </c>
       <c r="G59" s="3">
-        <v>938900</v>
+        <v>958700</v>
       </c>
       <c r="H59" s="3">
-        <v>954900</v>
+        <v>975000</v>
       </c>
       <c r="I59" s="3">
-        <v>828900</v>
+        <v>846500</v>
       </c>
       <c r="J59" s="3">
-        <v>973900</v>
+        <v>994500</v>
       </c>
       <c r="K59" s="3">
         <v>53500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4059200</v>
+        <v>4145000</v>
       </c>
       <c r="E60" s="3">
-        <v>3655400</v>
+        <v>3732600</v>
       </c>
       <c r="F60" s="3">
-        <v>3964000</v>
+        <v>4047800</v>
       </c>
       <c r="G60" s="3">
-        <v>2942200</v>
+        <v>3004400</v>
       </c>
       <c r="H60" s="3">
-        <v>2228100</v>
+        <v>2275200</v>
       </c>
       <c r="I60" s="3">
-        <v>1858700</v>
+        <v>1898000</v>
       </c>
       <c r="J60" s="3">
-        <v>1551500</v>
+        <v>1584300</v>
       </c>
       <c r="K60" s="3">
         <v>126100</v>
@@ -2421,22 +2421,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>625600</v>
+        <v>638800</v>
       </c>
       <c r="H61" s="3">
-        <v>669400</v>
+        <v>683600</v>
       </c>
       <c r="I61" s="3">
-        <v>620000</v>
+        <v>633100</v>
       </c>
       <c r="J61" s="3">
-        <v>589000</v>
+        <v>601400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>456200</v>
+        <v>465900</v>
       </c>
       <c r="E62" s="3">
-        <v>357900</v>
+        <v>365500</v>
       </c>
       <c r="F62" s="3">
-        <v>62000</v>
+        <v>63300</v>
       </c>
       <c r="G62" s="3">
-        <v>58000</v>
+        <v>59200</v>
       </c>
       <c r="H62" s="3">
-        <v>53100</v>
+        <v>54200</v>
       </c>
       <c r="I62" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="J62" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4651100</v>
+        <v>4749400</v>
       </c>
       <c r="E66" s="3">
-        <v>4087700</v>
+        <v>4174100</v>
       </c>
       <c r="F66" s="3">
-        <v>4018200</v>
+        <v>4103200</v>
       </c>
       <c r="G66" s="3">
-        <v>3619100</v>
+        <v>3695600</v>
       </c>
       <c r="H66" s="3">
-        <v>2958200</v>
+        <v>3020700</v>
       </c>
       <c r="I66" s="3">
-        <v>2520300</v>
+        <v>2573600</v>
       </c>
       <c r="J66" s="3">
-        <v>2199600</v>
+        <v>2246100</v>
       </c>
       <c r="K66" s="3">
         <v>126100</v>
@@ -2794,22 +2794,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2710400</v>
+        <v>2767700</v>
       </c>
       <c r="E72" s="3">
-        <v>1821800</v>
+        <v>1860300</v>
       </c>
       <c r="F72" s="3">
-        <v>1208100</v>
+        <v>1233600</v>
       </c>
       <c r="G72" s="3">
-        <v>856000</v>
+        <v>874100</v>
       </c>
       <c r="H72" s="3">
-        <v>558100</v>
+        <v>569900</v>
       </c>
       <c r="I72" s="3">
-        <v>246900</v>
+        <v>252100</v>
       </c>
       <c r="J72" s="3">
         <v>4100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4353900</v>
+        <v>4445900</v>
       </c>
       <c r="E76" s="3">
-        <v>3334800</v>
+        <v>3405300</v>
       </c>
       <c r="F76" s="3">
-        <v>2637300</v>
+        <v>2693000</v>
       </c>
       <c r="G76" s="3">
-        <v>2183900</v>
+        <v>2230100</v>
       </c>
       <c r="H76" s="3">
-        <v>875800</v>
+        <v>894300</v>
       </c>
       <c r="I76" s="3">
-        <v>540700</v>
+        <v>552100</v>
       </c>
       <c r="J76" s="3">
-        <v>390200</v>
+        <v>398500</v>
       </c>
       <c r="K76" s="3">
         <v>37000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>902500</v>
+        <v>921500</v>
       </c>
       <c r="E81" s="3">
-        <v>613700</v>
+        <v>626700</v>
       </c>
       <c r="F81" s="3">
-        <v>325200</v>
+        <v>332100</v>
       </c>
       <c r="G81" s="3">
-        <v>297900</v>
+        <v>304200</v>
       </c>
       <c r="H81" s="3">
-        <v>311200</v>
+        <v>317800</v>
       </c>
       <c r="I81" s="3">
-        <v>242900</v>
+        <v>248000</v>
       </c>
       <c r="J81" s="3">
-        <v>128500</v>
+        <v>131200</v>
       </c>
       <c r="K81" s="3">
         <v>48900</v>
@@ -3102,26 +3102,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>177700</v>
       </c>
       <c r="E83" s="3">
-        <v>145200</v>
+        <v>148300</v>
       </c>
       <c r="F83" s="3">
-        <v>135900</v>
+        <v>138800</v>
       </c>
       <c r="G83" s="3">
-        <v>170700</v>
+        <v>174300</v>
       </c>
       <c r="H83" s="3">
-        <v>154700</v>
+        <v>158000</v>
       </c>
       <c r="I83" s="3">
-        <v>89200</v>
+        <v>91100</v>
       </c>
       <c r="J83" s="3">
-        <v>55100</v>
+        <v>56300</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3318,26 +3318,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>1844100</v>
       </c>
       <c r="E89" s="3">
-        <v>1877700</v>
+        <v>1917400</v>
       </c>
       <c r="F89" s="3">
-        <v>877800</v>
+        <v>896400</v>
       </c>
       <c r="G89" s="3">
-        <v>149900</v>
+        <v>153100</v>
       </c>
       <c r="H89" s="3">
-        <v>432600</v>
+        <v>441700</v>
       </c>
       <c r="I89" s="3">
-        <v>292600</v>
+        <v>298800</v>
       </c>
       <c r="J89" s="3">
-        <v>498500</v>
+        <v>509000</v>
       </c>
       <c r="K89" s="3">
         <v>66500</v>
@@ -3370,26 +3370,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-354400</v>
       </c>
       <c r="E91" s="3">
-        <v>-653500</v>
+        <v>-667400</v>
       </c>
       <c r="F91" s="3">
-        <v>-549100</v>
+        <v>-560700</v>
       </c>
       <c r="G91" s="3">
-        <v>-378000</v>
+        <v>-386000</v>
       </c>
       <c r="H91" s="3">
-        <v>-331900</v>
+        <v>-338900</v>
       </c>
       <c r="I91" s="3">
-        <v>-353100</v>
+        <v>-360500</v>
       </c>
       <c r="J91" s="3">
-        <v>-259800</v>
+        <v>-265300</v>
       </c>
       <c r="K91" s="3">
         <v>-4200</v>
@@ -3478,26 +3478,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-1044500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1259000</v>
+        <v>-1285600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1022700</v>
+        <v>-1044300</v>
       </c>
       <c r="G94" s="3">
-        <v>-310500</v>
+        <v>-317100</v>
       </c>
       <c r="H94" s="3">
-        <v>-255000</v>
+        <v>-260400</v>
       </c>
       <c r="I94" s="3">
-        <v>-448800</v>
+        <v>-458200</v>
       </c>
       <c r="J94" s="3">
-        <v>-649800</v>
+        <v>-663600</v>
       </c>
       <c r="K94" s="3">
         <v>-48800</v>
@@ -3674,26 +3674,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-3300</v>
       </c>
       <c r="E100" s="3">
-        <v>-955900</v>
+        <v>-976100</v>
       </c>
       <c r="F100" s="3">
-        <v>89700</v>
+        <v>91600</v>
       </c>
       <c r="G100" s="3">
-        <v>1095400</v>
+        <v>1118600</v>
       </c>
       <c r="H100" s="3">
-        <v>-60100</v>
+        <v>-61300</v>
       </c>
       <c r="I100" s="3">
-        <v>-82400</v>
+        <v>-84100</v>
       </c>
       <c r="J100" s="3">
-        <v>588500</v>
+        <v>601000</v>
       </c>
       <c r="K100" s="3">
         <v>14100</v>
@@ -3710,26 +3710,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="F101" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="G101" s="3">
         <v>-900</v>
       </c>
       <c r="H101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J101" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -3746,26 +3746,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>794400</v>
       </c>
       <c r="E102" s="3">
-        <v>-354300</v>
+        <v>-361800</v>
       </c>
       <c r="F102" s="3">
-        <v>-28000</v>
+        <v>-28600</v>
       </c>
       <c r="G102" s="3">
-        <v>933900</v>
+        <v>953600</v>
       </c>
       <c r="H102" s="3">
-        <v>120000</v>
+        <v>122500</v>
       </c>
       <c r="I102" s="3">
-        <v>-224000</v>
+        <v>-228800</v>
       </c>
       <c r="J102" s="3">
-        <v>422400</v>
+        <v>431300</v>
       </c>
       <c r="K102" s="3">
         <v>32000</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15890900</v>
+        <v>15684200</v>
       </c>
       <c r="E8" s="3">
-        <v>14508100</v>
+        <v>14319300</v>
       </c>
       <c r="F8" s="3">
-        <v>13186600</v>
+        <v>13015000</v>
       </c>
       <c r="G8" s="3">
-        <v>11375000</v>
+        <v>11227000</v>
       </c>
       <c r="H8" s="3">
-        <v>8828800</v>
+        <v>8713900</v>
       </c>
       <c r="I8" s="3">
-        <v>6272100</v>
+        <v>6190500</v>
       </c>
       <c r="J8" s="3">
-        <v>3608400</v>
+        <v>3561500</v>
       </c>
       <c r="K8" s="3">
         <v>1585200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12570200</v>
+        <v>12406700</v>
       </c>
       <c r="E9" s="3">
-        <v>11281700</v>
+        <v>11134900</v>
       </c>
       <c r="F9" s="3">
-        <v>10523700</v>
+        <v>10386700</v>
       </c>
       <c r="G9" s="3">
-        <v>8833000</v>
+        <v>8718100</v>
       </c>
       <c r="H9" s="3">
-        <v>6707600</v>
+        <v>6620300</v>
       </c>
       <c r="I9" s="3">
-        <v>4728200</v>
+        <v>4666600</v>
       </c>
       <c r="J9" s="3">
-        <v>2711100</v>
+        <v>2675900</v>
       </c>
       <c r="K9" s="3">
         <v>1204200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3320700</v>
+        <v>3277500</v>
       </c>
       <c r="E10" s="3">
-        <v>3226300</v>
+        <v>3184300</v>
       </c>
       <c r="F10" s="3">
-        <v>2662900</v>
+        <v>2628300</v>
       </c>
       <c r="G10" s="3">
-        <v>2542000</v>
+        <v>2508900</v>
       </c>
       <c r="H10" s="3">
-        <v>2121200</v>
+        <v>2093600</v>
       </c>
       <c r="I10" s="3">
-        <v>1544000</v>
+        <v>1523900</v>
       </c>
       <c r="J10" s="3">
-        <v>897300</v>
+        <v>885600</v>
       </c>
       <c r="K10" s="3">
         <v>381000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
-        <v>63300</v>
+        <v>62500</v>
       </c>
       <c r="F14" s="3">
         <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="H14" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I14" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="J14" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -955,22 +955,22 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>129500</v>
+        <v>127900</v>
       </c>
       <c r="F15" s="3">
-        <v>120200</v>
+        <v>118600</v>
       </c>
       <c r="G15" s="3">
-        <v>112500</v>
+        <v>111000</v>
       </c>
       <c r="H15" s="3">
-        <v>95300</v>
+        <v>94100</v>
       </c>
       <c r="I15" s="3">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="J15" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="K15" s="3">
         <v>8300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14983400</v>
+        <v>14788500</v>
       </c>
       <c r="E17" s="3">
-        <v>13783300</v>
+        <v>13603900</v>
       </c>
       <c r="F17" s="3">
-        <v>12812000</v>
+        <v>12645300</v>
       </c>
       <c r="G17" s="3">
-        <v>10976100</v>
+        <v>10833200</v>
       </c>
       <c r="H17" s="3">
-        <v>8424300</v>
+        <v>8314600</v>
       </c>
       <c r="I17" s="3">
-        <v>5964600</v>
+        <v>5887000</v>
       </c>
       <c r="J17" s="3">
-        <v>3479300</v>
+        <v>3434000</v>
       </c>
       <c r="K17" s="3">
         <v>1534900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>907500</v>
+        <v>895700</v>
       </c>
       <c r="E18" s="3">
-        <v>724800</v>
+        <v>715400</v>
       </c>
       <c r="F18" s="3">
-        <v>374600</v>
+        <v>369700</v>
       </c>
       <c r="G18" s="3">
-        <v>399000</v>
+        <v>393800</v>
       </c>
       <c r="H18" s="3">
-        <v>404600</v>
+        <v>399300</v>
       </c>
       <c r="I18" s="3">
-        <v>307500</v>
+        <v>303500</v>
       </c>
       <c r="J18" s="3">
-        <v>129100</v>
+        <v>127400</v>
       </c>
       <c r="K18" s="3">
         <v>50300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>198100</v>
+        <v>195500</v>
       </c>
       <c r="E20" s="3">
-        <v>59800</v>
+        <v>59000</v>
       </c>
       <c r="F20" s="3">
-        <v>78900</v>
+        <v>77900</v>
       </c>
       <c r="G20" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="I20" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="J20" s="3">
-        <v>48100</v>
+        <v>47400</v>
       </c>
       <c r="K20" s="3">
         <v>15900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1283100</v>
+        <v>1266900</v>
       </c>
       <c r="E21" s="3">
-        <v>932700</v>
+        <v>920900</v>
       </c>
       <c r="F21" s="3">
-        <v>592100</v>
+        <v>584800</v>
       </c>
       <c r="G21" s="3">
-        <v>583300</v>
+        <v>576200</v>
       </c>
       <c r="H21" s="3">
-        <v>587000</v>
+        <v>579800</v>
       </c>
       <c r="I21" s="3">
-        <v>424300</v>
+        <v>419000</v>
       </c>
       <c r="J21" s="3">
-        <v>233400</v>
+        <v>230500</v>
       </c>
       <c r="K21" s="3">
         <v>67600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="G22" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="H22" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="I22" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="J22" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1095100</v>
+        <v>1080800</v>
       </c>
       <c r="E23" s="3">
-        <v>771100</v>
+        <v>761100</v>
       </c>
       <c r="F23" s="3">
-        <v>428600</v>
+        <v>423000</v>
       </c>
       <c r="G23" s="3">
-        <v>396400</v>
+        <v>391200</v>
       </c>
       <c r="H23" s="3">
-        <v>415900</v>
+        <v>410500</v>
       </c>
       <c r="I23" s="3">
-        <v>319900</v>
+        <v>315700</v>
       </c>
       <c r="J23" s="3">
-        <v>165400</v>
+        <v>163300</v>
       </c>
       <c r="K23" s="3">
         <v>66200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="E24" s="3">
-        <v>153400</v>
+        <v>151400</v>
       </c>
       <c r="F24" s="3">
-        <v>88400</v>
+        <v>87200</v>
       </c>
       <c r="G24" s="3">
-        <v>97700</v>
+        <v>96400</v>
       </c>
       <c r="H24" s="3">
-        <v>93900</v>
+        <v>92700</v>
       </c>
       <c r="I24" s="3">
-        <v>71400</v>
+        <v>70500</v>
       </c>
       <c r="J24" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="K24" s="3">
         <v>17300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>918800</v>
+        <v>906800</v>
       </c>
       <c r="E26" s="3">
-        <v>617700</v>
+        <v>609600</v>
       </c>
       <c r="F26" s="3">
-        <v>340200</v>
+        <v>335700</v>
       </c>
       <c r="G26" s="3">
-        <v>298700</v>
+        <v>294800</v>
       </c>
       <c r="H26" s="3">
-        <v>322000</v>
+        <v>317900</v>
       </c>
       <c r="I26" s="3">
-        <v>248500</v>
+        <v>245300</v>
       </c>
       <c r="J26" s="3">
-        <v>127200</v>
+        <v>125500</v>
       </c>
       <c r="K26" s="3">
         <v>48900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>921500</v>
+        <v>909600</v>
       </c>
       <c r="E27" s="3">
-        <v>626700</v>
+        <v>618500</v>
       </c>
       <c r="F27" s="3">
-        <v>332100</v>
+        <v>327800</v>
       </c>
       <c r="G27" s="3">
-        <v>304200</v>
+        <v>300200</v>
       </c>
       <c r="H27" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="I27" s="3">
-        <v>248000</v>
+        <v>244800</v>
       </c>
       <c r="J27" s="3">
-        <v>131200</v>
+        <v>129500</v>
       </c>
       <c r="K27" s="3">
         <v>48900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-198100</v>
+        <v>-195500</v>
       </c>
       <c r="E32" s="3">
-        <v>-59800</v>
+        <v>-59000</v>
       </c>
       <c r="F32" s="3">
-        <v>-78900</v>
+        <v>-77900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10300</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="I32" s="3">
-        <v>-25800</v>
+        <v>-25500</v>
       </c>
       <c r="J32" s="3">
-        <v>-48100</v>
+        <v>-47400</v>
       </c>
       <c r="K32" s="3">
         <v>-15900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>921500</v>
+        <v>909600</v>
       </c>
       <c r="E33" s="3">
-        <v>626700</v>
+        <v>618500</v>
       </c>
       <c r="F33" s="3">
-        <v>332100</v>
+        <v>327800</v>
       </c>
       <c r="G33" s="3">
-        <v>304200</v>
+        <v>300200</v>
       </c>
       <c r="H33" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="I33" s="3">
-        <v>248000</v>
+        <v>244800</v>
       </c>
       <c r="J33" s="3">
-        <v>131200</v>
+        <v>129500</v>
       </c>
       <c r="K33" s="3">
         <v>48900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>921500</v>
+        <v>909600</v>
       </c>
       <c r="E35" s="3">
-        <v>626700</v>
+        <v>618500</v>
       </c>
       <c r="F35" s="3">
-        <v>332100</v>
+        <v>327800</v>
       </c>
       <c r="G35" s="3">
-        <v>304200</v>
+        <v>300200</v>
       </c>
       <c r="H35" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="I35" s="3">
-        <v>248000</v>
+        <v>244800</v>
       </c>
       <c r="J35" s="3">
-        <v>131200</v>
+        <v>129500</v>
       </c>
       <c r="K35" s="3">
         <v>48900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1871400</v>
+        <v>1847100</v>
       </c>
       <c r="E41" s="3">
-        <v>1025600</v>
+        <v>1012200</v>
       </c>
       <c r="F41" s="3">
-        <v>1488400</v>
+        <v>1469100</v>
       </c>
       <c r="G41" s="3">
-        <v>1556000</v>
+        <v>1535800</v>
       </c>
       <c r="H41" s="3">
-        <v>641100</v>
+        <v>632800</v>
       </c>
       <c r="I41" s="3">
-        <v>518600</v>
+        <v>511900</v>
       </c>
       <c r="J41" s="3">
-        <v>747400</v>
+        <v>737700</v>
       </c>
       <c r="K41" s="3">
         <v>50900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1143400</v>
+        <v>1128500</v>
       </c>
       <c r="E42" s="3">
-        <v>476300</v>
+        <v>470100</v>
       </c>
       <c r="F42" s="3">
-        <v>362100</v>
+        <v>357400</v>
       </c>
       <c r="G42" s="3">
-        <v>38400</v>
+        <v>37900</v>
       </c>
       <c r="H42" s="3">
-        <v>104800</v>
+        <v>103400</v>
       </c>
       <c r="I42" s="3">
-        <v>282000</v>
+        <v>278300</v>
       </c>
       <c r="J42" s="3">
-        <v>587900</v>
+        <v>580200</v>
       </c>
       <c r="K42" s="3">
         <v>58700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>465200</v>
+        <v>459100</v>
       </c>
       <c r="E43" s="3">
-        <v>709500</v>
+        <v>700300</v>
       </c>
       <c r="F43" s="3">
-        <v>1497400</v>
+        <v>1477900</v>
       </c>
       <c r="G43" s="3">
-        <v>1324200</v>
+        <v>1307000</v>
       </c>
       <c r="H43" s="3">
-        <v>708900</v>
+        <v>699600</v>
       </c>
       <c r="I43" s="3">
-        <v>343300</v>
+        <v>338800</v>
       </c>
       <c r="J43" s="3">
-        <v>155200</v>
+        <v>153200</v>
       </c>
       <c r="K43" s="3">
         <v>3000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1192300</v>
+        <v>1176800</v>
       </c>
       <c r="E44" s="3">
-        <v>1202600</v>
+        <v>1186900</v>
       </c>
       <c r="F44" s="3">
-        <v>837500</v>
+        <v>826600</v>
       </c>
       <c r="G44" s="3">
-        <v>1085900</v>
+        <v>1071700</v>
       </c>
       <c r="H44" s="3">
-        <v>772000</v>
+        <v>762000</v>
       </c>
       <c r="I44" s="3">
-        <v>712500</v>
+        <v>703200</v>
       </c>
       <c r="J44" s="3">
-        <v>559800</v>
+        <v>552500</v>
       </c>
       <c r="K44" s="3">
         <v>41100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>191100</v>
+        <v>188600</v>
       </c>
       <c r="E45" s="3">
-        <v>178700</v>
+        <v>176400</v>
       </c>
       <c r="F45" s="3">
-        <v>77700</v>
+        <v>76700</v>
       </c>
       <c r="G45" s="3">
-        <v>38700</v>
+        <v>38200</v>
       </c>
       <c r="H45" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="I45" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="J45" s="3">
-        <v>52600</v>
+        <v>51900</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4863300</v>
+        <v>4800000</v>
       </c>
       <c r="E46" s="3">
-        <v>3592600</v>
+        <v>3545900</v>
       </c>
       <c r="F46" s="3">
-        <v>4263100</v>
+        <v>4207600</v>
       </c>
       <c r="G46" s="3">
-        <v>4043200</v>
+        <v>3990600</v>
       </c>
       <c r="H46" s="3">
-        <v>2274800</v>
+        <v>2245200</v>
       </c>
       <c r="I46" s="3">
-        <v>1896000</v>
+        <v>1871400</v>
       </c>
       <c r="J46" s="3">
-        <v>2062500</v>
+        <v>2035700</v>
       </c>
       <c r="K46" s="3">
         <v>157700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>750500</v>
+        <v>740800</v>
       </c>
       <c r="E47" s="3">
-        <v>814000</v>
+        <v>803400</v>
       </c>
       <c r="F47" s="3">
-        <v>333500</v>
+        <v>329200</v>
       </c>
       <c r="G47" s="3">
-        <v>93600</v>
+        <v>92400</v>
       </c>
       <c r="H47" s="3">
-        <v>156700</v>
+        <v>154600</v>
       </c>
       <c r="I47" s="3">
-        <v>157900</v>
+        <v>155900</v>
       </c>
       <c r="J47" s="3">
-        <v>60900</v>
+        <v>60100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2365900</v>
+        <v>2335100</v>
       </c>
       <c r="E48" s="3">
-        <v>2023800</v>
+        <v>1997500</v>
       </c>
       <c r="F48" s="3">
-        <v>1331000</v>
+        <v>1313700</v>
       </c>
       <c r="G48" s="3">
-        <v>1039200</v>
+        <v>1025600</v>
       </c>
       <c r="H48" s="3">
-        <v>697000</v>
+        <v>687900</v>
       </c>
       <c r="I48" s="3">
-        <v>460200</v>
+        <v>454200</v>
       </c>
       <c r="J48" s="3">
-        <v>596400</v>
+        <v>588700</v>
       </c>
       <c r="K48" s="3">
         <v>3700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144600</v>
+        <v>142700</v>
       </c>
       <c r="E49" s="3">
-        <v>89600</v>
+        <v>88400</v>
       </c>
       <c r="F49" s="3">
-        <v>112400</v>
+        <v>110900</v>
       </c>
       <c r="G49" s="3">
-        <v>119800</v>
+        <v>118300</v>
       </c>
       <c r="H49" s="3">
-        <v>170400</v>
+        <v>168200</v>
       </c>
       <c r="I49" s="3">
-        <v>133100</v>
+        <v>131400</v>
       </c>
       <c r="J49" s="3">
-        <v>171400</v>
+        <v>169200</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1071000</v>
+        <v>1057100</v>
       </c>
       <c r="E52" s="3">
-        <v>1059400</v>
+        <v>1045600</v>
       </c>
       <c r="F52" s="3">
-        <v>756200</v>
+        <v>746400</v>
       </c>
       <c r="G52" s="3">
-        <v>629900</v>
+        <v>621700</v>
       </c>
       <c r="H52" s="3">
-        <v>616200</v>
+        <v>608200</v>
       </c>
       <c r="I52" s="3">
-        <v>478500</v>
+        <v>472300</v>
       </c>
       <c r="J52" s="3">
-        <v>64300</v>
+        <v>63400</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9195400</v>
+        <v>9075700</v>
       </c>
       <c r="E54" s="3">
-        <v>7579400</v>
+        <v>7480800</v>
       </c>
       <c r="F54" s="3">
-        <v>6796200</v>
+        <v>6707800</v>
       </c>
       <c r="G54" s="3">
-        <v>5925700</v>
+        <v>5848600</v>
       </c>
       <c r="H54" s="3">
-        <v>3915000</v>
+        <v>3864000</v>
       </c>
       <c r="I54" s="3">
-        <v>3125700</v>
+        <v>3085100</v>
       </c>
       <c r="J54" s="3">
-        <v>2644500</v>
+        <v>2610100</v>
       </c>
       <c r="K54" s="3">
         <v>163100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2370000</v>
+        <v>2339200</v>
       </c>
       <c r="E57" s="3">
-        <v>2151700</v>
+        <v>2123700</v>
       </c>
       <c r="F57" s="3">
-        <v>1814400</v>
+        <v>1790800</v>
       </c>
       <c r="G57" s="3">
-        <v>1785600</v>
+        <v>1762300</v>
       </c>
       <c r="H57" s="3">
-        <v>1300100</v>
+        <v>1283200</v>
       </c>
       <c r="I57" s="3">
-        <v>1036700</v>
+        <v>1023200</v>
       </c>
       <c r="J57" s="3">
-        <v>955000</v>
+        <v>942600</v>
       </c>
       <c r="K57" s="3">
         <v>72500</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>162800</v>
+        <v>160700</v>
       </c>
       <c r="E58" s="3">
-        <v>170600</v>
+        <v>168400</v>
       </c>
       <c r="F58" s="3">
-        <v>1035800</v>
+        <v>1022300</v>
       </c>
       <c r="G58" s="3">
-        <v>260100</v>
+        <v>256700</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612200</v>
+        <v>1591300</v>
       </c>
       <c r="E59" s="3">
-        <v>1410300</v>
+        <v>1391900</v>
       </c>
       <c r="F59" s="3">
-        <v>1197600</v>
+        <v>1182000</v>
       </c>
       <c r="G59" s="3">
-        <v>958700</v>
+        <v>946200</v>
       </c>
       <c r="H59" s="3">
-        <v>975000</v>
+        <v>962400</v>
       </c>
       <c r="I59" s="3">
-        <v>846500</v>
+        <v>835400</v>
       </c>
       <c r="J59" s="3">
-        <v>994500</v>
+        <v>981600</v>
       </c>
       <c r="K59" s="3">
         <v>53500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4145000</v>
+        <v>4091100</v>
       </c>
       <c r="E60" s="3">
-        <v>3732600</v>
+        <v>3684100</v>
       </c>
       <c r="F60" s="3">
-        <v>4047800</v>
+        <v>3995200</v>
       </c>
       <c r="G60" s="3">
-        <v>3004400</v>
+        <v>2965300</v>
       </c>
       <c r="H60" s="3">
-        <v>2275200</v>
+        <v>2245600</v>
       </c>
       <c r="I60" s="3">
-        <v>1898000</v>
+        <v>1873300</v>
       </c>
       <c r="J60" s="3">
-        <v>1584300</v>
+        <v>1563700</v>
       </c>
       <c r="K60" s="3">
         <v>126100</v>
@@ -2421,22 +2421,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>638800</v>
+        <v>630500</v>
       </c>
       <c r="H61" s="3">
-        <v>683600</v>
+        <v>674700</v>
       </c>
       <c r="I61" s="3">
-        <v>633100</v>
+        <v>624900</v>
       </c>
       <c r="J61" s="3">
-        <v>601400</v>
+        <v>593600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>465900</v>
+        <v>459800</v>
       </c>
       <c r="E62" s="3">
-        <v>365500</v>
+        <v>360700</v>
       </c>
       <c r="F62" s="3">
-        <v>63300</v>
+        <v>62500</v>
       </c>
       <c r="G62" s="3">
-        <v>59200</v>
+        <v>58500</v>
       </c>
       <c r="H62" s="3">
-        <v>54200</v>
+        <v>53500</v>
       </c>
       <c r="I62" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="J62" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4749400</v>
+        <v>4687600</v>
       </c>
       <c r="E66" s="3">
-        <v>4174100</v>
+        <v>4119800</v>
       </c>
       <c r="F66" s="3">
-        <v>4103200</v>
+        <v>4049800</v>
       </c>
       <c r="G66" s="3">
-        <v>3695600</v>
+        <v>3647500</v>
       </c>
       <c r="H66" s="3">
-        <v>3020700</v>
+        <v>2981400</v>
       </c>
       <c r="I66" s="3">
-        <v>2573600</v>
+        <v>2540100</v>
       </c>
       <c r="J66" s="3">
-        <v>2246100</v>
+        <v>2216800</v>
       </c>
       <c r="K66" s="3">
         <v>126100</v>
@@ -2794,22 +2794,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2767700</v>
+        <v>2731700</v>
       </c>
       <c r="E72" s="3">
-        <v>1860300</v>
+        <v>1836100</v>
       </c>
       <c r="F72" s="3">
-        <v>1233600</v>
+        <v>1217600</v>
       </c>
       <c r="G72" s="3">
-        <v>874100</v>
+        <v>862700</v>
       </c>
       <c r="H72" s="3">
-        <v>569900</v>
+        <v>562500</v>
       </c>
       <c r="I72" s="3">
-        <v>252100</v>
+        <v>248900</v>
       </c>
       <c r="J72" s="3">
         <v>4100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4445900</v>
+        <v>4388100</v>
       </c>
       <c r="E76" s="3">
-        <v>3405300</v>
+        <v>3360900</v>
       </c>
       <c r="F76" s="3">
-        <v>2693000</v>
+        <v>2658000</v>
       </c>
       <c r="G76" s="3">
-        <v>2230100</v>
+        <v>2201100</v>
       </c>
       <c r="H76" s="3">
-        <v>894300</v>
+        <v>882600</v>
       </c>
       <c r="I76" s="3">
-        <v>552100</v>
+        <v>545000</v>
       </c>
       <c r="J76" s="3">
-        <v>398500</v>
+        <v>393300</v>
       </c>
       <c r="K76" s="3">
         <v>37000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>921500</v>
+        <v>909600</v>
       </c>
       <c r="E81" s="3">
-        <v>626700</v>
+        <v>618500</v>
       </c>
       <c r="F81" s="3">
-        <v>332100</v>
+        <v>327800</v>
       </c>
       <c r="G81" s="3">
-        <v>304200</v>
+        <v>300200</v>
       </c>
       <c r="H81" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="I81" s="3">
-        <v>248000</v>
+        <v>244800</v>
       </c>
       <c r="J81" s="3">
-        <v>131200</v>
+        <v>129500</v>
       </c>
       <c r="K81" s="3">
         <v>48900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>177700</v>
+        <v>175400</v>
       </c>
       <c r="E83" s="3">
-        <v>148300</v>
+        <v>146400</v>
       </c>
       <c r="F83" s="3">
-        <v>138800</v>
+        <v>137000</v>
       </c>
       <c r="G83" s="3">
-        <v>174300</v>
+        <v>172000</v>
       </c>
       <c r="H83" s="3">
-        <v>158000</v>
+        <v>155900</v>
       </c>
       <c r="I83" s="3">
-        <v>91100</v>
+        <v>89900</v>
       </c>
       <c r="J83" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1844100</v>
+        <v>1820100</v>
       </c>
       <c r="E89" s="3">
-        <v>1917400</v>
+        <v>1892400</v>
       </c>
       <c r="F89" s="3">
-        <v>896400</v>
+        <v>884700</v>
       </c>
       <c r="G89" s="3">
-        <v>153100</v>
+        <v>151100</v>
       </c>
       <c r="H89" s="3">
-        <v>441700</v>
+        <v>436000</v>
       </c>
       <c r="I89" s="3">
-        <v>298800</v>
+        <v>294900</v>
       </c>
       <c r="J89" s="3">
-        <v>509000</v>
+        <v>502400</v>
       </c>
       <c r="K89" s="3">
         <v>66500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-354400</v>
+        <v>-349800</v>
       </c>
       <c r="E91" s="3">
-        <v>-667400</v>
+        <v>-658700</v>
       </c>
       <c r="F91" s="3">
-        <v>-560700</v>
+        <v>-553400</v>
       </c>
       <c r="G91" s="3">
-        <v>-386000</v>
+        <v>-381000</v>
       </c>
       <c r="H91" s="3">
-        <v>-338900</v>
+        <v>-334500</v>
       </c>
       <c r="I91" s="3">
-        <v>-360500</v>
+        <v>-355800</v>
       </c>
       <c r="J91" s="3">
-        <v>-265300</v>
+        <v>-261900</v>
       </c>
       <c r="K91" s="3">
         <v>-4200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1044500</v>
+        <v>-1030900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1285600</v>
+        <v>-1268900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1044300</v>
+        <v>-1030700</v>
       </c>
       <c r="G94" s="3">
-        <v>-317100</v>
+        <v>-313000</v>
       </c>
       <c r="H94" s="3">
-        <v>-260400</v>
+        <v>-257000</v>
       </c>
       <c r="I94" s="3">
-        <v>-458200</v>
+        <v>-452300</v>
       </c>
       <c r="J94" s="3">
-        <v>-663600</v>
+        <v>-654900</v>
       </c>
       <c r="K94" s="3">
         <v>-48800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E100" s="3">
-        <v>-976100</v>
+        <v>-963400</v>
       </c>
       <c r="F100" s="3">
-        <v>91600</v>
+        <v>90400</v>
       </c>
       <c r="G100" s="3">
-        <v>1118600</v>
+        <v>1104000</v>
       </c>
       <c r="H100" s="3">
-        <v>-61300</v>
+        <v>-60500</v>
       </c>
       <c r="I100" s="3">
-        <v>-84100</v>
+        <v>-83000</v>
       </c>
       <c r="J100" s="3">
-        <v>601000</v>
+        <v>593200</v>
       </c>
       <c r="K100" s="3">
         <v>14100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-17500</v>
+        <v>-17300</v>
       </c>
       <c r="F101" s="3">
-        <v>27700</v>
+        <v>27300</v>
       </c>
       <c r="G101" s="3">
         <v>-900</v>
       </c>
       <c r="H101" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I101" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="J101" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>794400</v>
+        <v>784100</v>
       </c>
       <c r="E102" s="3">
-        <v>-361800</v>
+        <v>-357100</v>
       </c>
       <c r="F102" s="3">
-        <v>-28600</v>
+        <v>-28300</v>
       </c>
       <c r="G102" s="3">
-        <v>953600</v>
+        <v>941200</v>
       </c>
       <c r="H102" s="3">
-        <v>122500</v>
+        <v>120900</v>
       </c>
       <c r="I102" s="3">
-        <v>-228800</v>
+        <v>-225800</v>
       </c>
       <c r="J102" s="3">
-        <v>431300</v>
+        <v>425700</v>
       </c>
       <c r="K102" s="3">
         <v>32000</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15684200</v>
+        <v>15947000</v>
       </c>
       <c r="E8" s="3">
-        <v>14319300</v>
+        <v>14559200</v>
       </c>
       <c r="F8" s="3">
-        <v>13015000</v>
+        <v>13233100</v>
       </c>
       <c r="G8" s="3">
-        <v>11227000</v>
+        <v>11415200</v>
       </c>
       <c r="H8" s="3">
-        <v>8713900</v>
+        <v>8859900</v>
       </c>
       <c r="I8" s="3">
-        <v>6190500</v>
+        <v>6294200</v>
       </c>
       <c r="J8" s="3">
-        <v>3561500</v>
+        <v>3621100</v>
       </c>
       <c r="K8" s="3">
         <v>1585200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12406700</v>
+        <v>12614500</v>
       </c>
       <c r="E9" s="3">
-        <v>11134900</v>
+        <v>11321500</v>
       </c>
       <c r="F9" s="3">
-        <v>10386700</v>
+        <v>10560800</v>
       </c>
       <c r="G9" s="3">
-        <v>8718100</v>
+        <v>8864200</v>
       </c>
       <c r="H9" s="3">
-        <v>6620300</v>
+        <v>6731200</v>
       </c>
       <c r="I9" s="3">
-        <v>4666600</v>
+        <v>4744800</v>
       </c>
       <c r="J9" s="3">
-        <v>2675900</v>
+        <v>2720700</v>
       </c>
       <c r="K9" s="3">
         <v>1204200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3277500</v>
+        <v>3332400</v>
       </c>
       <c r="E10" s="3">
-        <v>3184300</v>
+        <v>3237700</v>
       </c>
       <c r="F10" s="3">
-        <v>2628300</v>
+        <v>2672300</v>
       </c>
       <c r="G10" s="3">
-        <v>2508900</v>
+        <v>2551000</v>
       </c>
       <c r="H10" s="3">
-        <v>2093600</v>
+        <v>2128700</v>
       </c>
       <c r="I10" s="3">
-        <v>1523900</v>
+        <v>1549400</v>
       </c>
       <c r="J10" s="3">
-        <v>885600</v>
+        <v>900400</v>
       </c>
       <c r="K10" s="3">
         <v>381000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="F14" s="3">
         <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="H14" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="I14" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -955,22 +955,22 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>127900</v>
+        <v>130000</v>
       </c>
       <c r="F15" s="3">
-        <v>118600</v>
+        <v>120600</v>
       </c>
       <c r="G15" s="3">
-        <v>111000</v>
+        <v>112900</v>
       </c>
       <c r="H15" s="3">
-        <v>94100</v>
+        <v>95700</v>
       </c>
       <c r="I15" s="3">
-        <v>44900</v>
+        <v>45600</v>
       </c>
       <c r="J15" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="K15" s="3">
         <v>8300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14788500</v>
+        <v>15036300</v>
       </c>
       <c r="E17" s="3">
-        <v>13603900</v>
+        <v>13831900</v>
       </c>
       <c r="F17" s="3">
-        <v>12645300</v>
+        <v>12857200</v>
       </c>
       <c r="G17" s="3">
-        <v>10833200</v>
+        <v>11014800</v>
       </c>
       <c r="H17" s="3">
-        <v>8314600</v>
+        <v>8454000</v>
       </c>
       <c r="I17" s="3">
-        <v>5887000</v>
+        <v>5985700</v>
       </c>
       <c r="J17" s="3">
-        <v>3434000</v>
+        <v>3491600</v>
       </c>
       <c r="K17" s="3">
         <v>1534900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>895700</v>
+        <v>910700</v>
       </c>
       <c r="E18" s="3">
-        <v>715400</v>
+        <v>727300</v>
       </c>
       <c r="F18" s="3">
-        <v>369700</v>
+        <v>375900</v>
       </c>
       <c r="G18" s="3">
-        <v>393800</v>
+        <v>400400</v>
       </c>
       <c r="H18" s="3">
-        <v>399300</v>
+        <v>406000</v>
       </c>
       <c r="I18" s="3">
-        <v>303500</v>
+        <v>308500</v>
       </c>
       <c r="J18" s="3">
-        <v>127400</v>
+        <v>129600</v>
       </c>
       <c r="K18" s="3">
         <v>50300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>195500</v>
+        <v>198800</v>
       </c>
       <c r="E20" s="3">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="F20" s="3">
-        <v>77900</v>
+        <v>79200</v>
       </c>
       <c r="G20" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H20" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="I20" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="J20" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="K20" s="3">
         <v>15900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1266900</v>
+        <v>1287700</v>
       </c>
       <c r="E21" s="3">
-        <v>920900</v>
+        <v>936000</v>
       </c>
       <c r="F21" s="3">
-        <v>584800</v>
+        <v>594300</v>
       </c>
       <c r="G21" s="3">
-        <v>576200</v>
+        <v>585500</v>
       </c>
       <c r="H21" s="3">
-        <v>579800</v>
+        <v>589200</v>
       </c>
       <c r="I21" s="3">
-        <v>419000</v>
+        <v>425800</v>
       </c>
       <c r="J21" s="3">
-        <v>230500</v>
+        <v>234200</v>
       </c>
       <c r="K21" s="3">
         <v>67600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="G22" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="H22" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="I22" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="J22" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1080800</v>
+        <v>1099000</v>
       </c>
       <c r="E23" s="3">
-        <v>761100</v>
+        <v>773800</v>
       </c>
       <c r="F23" s="3">
-        <v>423000</v>
+        <v>430100</v>
       </c>
       <c r="G23" s="3">
-        <v>391200</v>
+        <v>397800</v>
       </c>
       <c r="H23" s="3">
-        <v>410500</v>
+        <v>417400</v>
       </c>
       <c r="I23" s="3">
-        <v>315700</v>
+        <v>321000</v>
       </c>
       <c r="J23" s="3">
-        <v>163300</v>
+        <v>166000</v>
       </c>
       <c r="K23" s="3">
         <v>66200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>174000</v>
+        <v>176900</v>
       </c>
       <c r="E24" s="3">
-        <v>151400</v>
+        <v>154000</v>
       </c>
       <c r="F24" s="3">
-        <v>87200</v>
+        <v>88700</v>
       </c>
       <c r="G24" s="3">
-        <v>96400</v>
+        <v>98000</v>
       </c>
       <c r="H24" s="3">
-        <v>92700</v>
+        <v>94200</v>
       </c>
       <c r="I24" s="3">
-        <v>70500</v>
+        <v>71700</v>
       </c>
       <c r="J24" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="K24" s="3">
         <v>17300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>906800</v>
+        <v>922000</v>
       </c>
       <c r="E26" s="3">
-        <v>609600</v>
+        <v>619900</v>
       </c>
       <c r="F26" s="3">
-        <v>335700</v>
+        <v>341400</v>
       </c>
       <c r="G26" s="3">
-        <v>294800</v>
+        <v>299800</v>
       </c>
       <c r="H26" s="3">
-        <v>317900</v>
+        <v>323200</v>
       </c>
       <c r="I26" s="3">
-        <v>245300</v>
+        <v>249400</v>
       </c>
       <c r="J26" s="3">
-        <v>125500</v>
+        <v>127600</v>
       </c>
       <c r="K26" s="3">
         <v>48900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>909600</v>
+        <v>924800</v>
       </c>
       <c r="E27" s="3">
-        <v>618500</v>
+        <v>628900</v>
       </c>
       <c r="F27" s="3">
-        <v>327800</v>
+        <v>333300</v>
       </c>
       <c r="G27" s="3">
-        <v>300200</v>
+        <v>305200</v>
       </c>
       <c r="H27" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="I27" s="3">
-        <v>244800</v>
+        <v>248900</v>
       </c>
       <c r="J27" s="3">
-        <v>129500</v>
+        <v>131700</v>
       </c>
       <c r="K27" s="3">
         <v>48900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-195500</v>
+        <v>-198800</v>
       </c>
       <c r="E32" s="3">
-        <v>-59000</v>
+        <v>-60000</v>
       </c>
       <c r="F32" s="3">
-        <v>-77900</v>
+        <v>-79200</v>
       </c>
       <c r="G32" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="H32" s="3">
-        <v>-24400</v>
+        <v>-24800</v>
       </c>
       <c r="I32" s="3">
-        <v>-25500</v>
+        <v>-25900</v>
       </c>
       <c r="J32" s="3">
-        <v>-47400</v>
+        <v>-48200</v>
       </c>
       <c r="K32" s="3">
         <v>-15900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>909600</v>
+        <v>924800</v>
       </c>
       <c r="E33" s="3">
-        <v>618500</v>
+        <v>628900</v>
       </c>
       <c r="F33" s="3">
-        <v>327800</v>
+        <v>333300</v>
       </c>
       <c r="G33" s="3">
-        <v>300200</v>
+        <v>305200</v>
       </c>
       <c r="H33" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="I33" s="3">
-        <v>244800</v>
+        <v>248900</v>
       </c>
       <c r="J33" s="3">
-        <v>129500</v>
+        <v>131700</v>
       </c>
       <c r="K33" s="3">
         <v>48900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>909600</v>
+        <v>924800</v>
       </c>
       <c r="E35" s="3">
-        <v>618500</v>
+        <v>628900</v>
       </c>
       <c r="F35" s="3">
-        <v>327800</v>
+        <v>333300</v>
       </c>
       <c r="G35" s="3">
-        <v>300200</v>
+        <v>305200</v>
       </c>
       <c r="H35" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="I35" s="3">
-        <v>244800</v>
+        <v>248900</v>
       </c>
       <c r="J35" s="3">
-        <v>129500</v>
+        <v>131700</v>
       </c>
       <c r="K35" s="3">
         <v>48900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1847100</v>
+        <v>1878000</v>
       </c>
       <c r="E41" s="3">
-        <v>1012200</v>
+        <v>1029200</v>
       </c>
       <c r="F41" s="3">
-        <v>1469100</v>
+        <v>1493700</v>
       </c>
       <c r="G41" s="3">
-        <v>1535800</v>
+        <v>1561500</v>
       </c>
       <c r="H41" s="3">
-        <v>632800</v>
+        <v>643400</v>
       </c>
       <c r="I41" s="3">
-        <v>511900</v>
+        <v>520500</v>
       </c>
       <c r="J41" s="3">
-        <v>737700</v>
+        <v>750000</v>
       </c>
       <c r="K41" s="3">
         <v>50900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1128500</v>
+        <v>1147400</v>
       </c>
       <c r="E42" s="3">
-        <v>470100</v>
+        <v>477900</v>
       </c>
       <c r="F42" s="3">
-        <v>357400</v>
+        <v>363400</v>
       </c>
       <c r="G42" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="H42" s="3">
-        <v>103400</v>
+        <v>105200</v>
       </c>
       <c r="I42" s="3">
-        <v>278300</v>
+        <v>283000</v>
       </c>
       <c r="J42" s="3">
-        <v>580200</v>
+        <v>590000</v>
       </c>
       <c r="K42" s="3">
         <v>58700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>459100</v>
+        <v>466800</v>
       </c>
       <c r="E43" s="3">
-        <v>700300</v>
+        <v>712000</v>
       </c>
       <c r="F43" s="3">
-        <v>1477900</v>
+        <v>1502600</v>
       </c>
       <c r="G43" s="3">
-        <v>1307000</v>
+        <v>1328900</v>
       </c>
       <c r="H43" s="3">
-        <v>699600</v>
+        <v>711400</v>
       </c>
       <c r="I43" s="3">
-        <v>338800</v>
+        <v>344500</v>
       </c>
       <c r="J43" s="3">
-        <v>153200</v>
+        <v>155700</v>
       </c>
       <c r="K43" s="3">
         <v>3000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1176800</v>
+        <v>1196500</v>
       </c>
       <c r="E44" s="3">
-        <v>1186900</v>
+        <v>1206800</v>
       </c>
       <c r="F44" s="3">
-        <v>826600</v>
+        <v>840400</v>
       </c>
       <c r="G44" s="3">
-        <v>1071700</v>
+        <v>1089700</v>
       </c>
       <c r="H44" s="3">
-        <v>762000</v>
+        <v>774800</v>
       </c>
       <c r="I44" s="3">
-        <v>703200</v>
+        <v>715000</v>
       </c>
       <c r="J44" s="3">
-        <v>552500</v>
+        <v>561800</v>
       </c>
       <c r="K44" s="3">
         <v>41100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188600</v>
+        <v>191700</v>
       </c>
       <c r="E45" s="3">
-        <v>176400</v>
+        <v>179300</v>
       </c>
       <c r="F45" s="3">
-        <v>76700</v>
+        <v>78000</v>
       </c>
       <c r="G45" s="3">
-        <v>38200</v>
+        <v>38800</v>
       </c>
       <c r="H45" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="I45" s="3">
-        <v>39200</v>
+        <v>39800</v>
       </c>
       <c r="J45" s="3">
-        <v>51900</v>
+        <v>52700</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4800000</v>
+        <v>4880400</v>
       </c>
       <c r="E46" s="3">
-        <v>3545900</v>
+        <v>3605300</v>
       </c>
       <c r="F46" s="3">
-        <v>4207600</v>
+        <v>4278100</v>
       </c>
       <c r="G46" s="3">
-        <v>3990600</v>
+        <v>4057400</v>
       </c>
       <c r="H46" s="3">
-        <v>2245200</v>
+        <v>2282800</v>
       </c>
       <c r="I46" s="3">
-        <v>1871400</v>
+        <v>1902700</v>
       </c>
       <c r="J46" s="3">
-        <v>2035700</v>
+        <v>2069800</v>
       </c>
       <c r="K46" s="3">
         <v>157700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>740800</v>
+        <v>753200</v>
       </c>
       <c r="E47" s="3">
-        <v>803400</v>
+        <v>816900</v>
       </c>
       <c r="F47" s="3">
-        <v>329200</v>
+        <v>334700</v>
       </c>
       <c r="G47" s="3">
-        <v>92400</v>
+        <v>94000</v>
       </c>
       <c r="H47" s="3">
-        <v>154600</v>
+        <v>157200</v>
       </c>
       <c r="I47" s="3">
-        <v>155900</v>
+        <v>158500</v>
       </c>
       <c r="J47" s="3">
-        <v>60100</v>
+        <v>61100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2335100</v>
+        <v>2374300</v>
       </c>
       <c r="E48" s="3">
-        <v>1997500</v>
+        <v>2031000</v>
       </c>
       <c r="F48" s="3">
-        <v>1313700</v>
+        <v>1335700</v>
       </c>
       <c r="G48" s="3">
-        <v>1025600</v>
+        <v>1042800</v>
       </c>
       <c r="H48" s="3">
-        <v>687900</v>
+        <v>699400</v>
       </c>
       <c r="I48" s="3">
-        <v>454200</v>
+        <v>461800</v>
       </c>
       <c r="J48" s="3">
-        <v>588700</v>
+        <v>598500</v>
       </c>
       <c r="K48" s="3">
         <v>3700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>142700</v>
+        <v>145100</v>
       </c>
       <c r="E49" s="3">
-        <v>88400</v>
+        <v>89900</v>
       </c>
       <c r="F49" s="3">
-        <v>110900</v>
+        <v>112800</v>
       </c>
       <c r="G49" s="3">
-        <v>118300</v>
+        <v>120300</v>
       </c>
       <c r="H49" s="3">
-        <v>168200</v>
+        <v>171000</v>
       </c>
       <c r="I49" s="3">
-        <v>131400</v>
+        <v>133600</v>
       </c>
       <c r="J49" s="3">
-        <v>169200</v>
+        <v>172100</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1057100</v>
+        <v>1074800</v>
       </c>
       <c r="E52" s="3">
-        <v>1045600</v>
+        <v>1063100</v>
       </c>
       <c r="F52" s="3">
-        <v>746400</v>
+        <v>758900</v>
       </c>
       <c r="G52" s="3">
-        <v>621700</v>
+        <v>632100</v>
       </c>
       <c r="H52" s="3">
-        <v>608200</v>
+        <v>618400</v>
       </c>
       <c r="I52" s="3">
-        <v>472300</v>
+        <v>480200</v>
       </c>
       <c r="J52" s="3">
-        <v>63400</v>
+        <v>64500</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9075700</v>
+        <v>9227800</v>
       </c>
       <c r="E54" s="3">
-        <v>7480800</v>
+        <v>7606100</v>
       </c>
       <c r="F54" s="3">
-        <v>6707800</v>
+        <v>6820200</v>
       </c>
       <c r="G54" s="3">
-        <v>5848600</v>
+        <v>5946600</v>
       </c>
       <c r="H54" s="3">
-        <v>3864000</v>
+        <v>3928800</v>
       </c>
       <c r="I54" s="3">
-        <v>3085100</v>
+        <v>3136800</v>
       </c>
       <c r="J54" s="3">
-        <v>2610100</v>
+        <v>2653900</v>
       </c>
       <c r="K54" s="3">
         <v>163100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2339200</v>
+        <v>2378400</v>
       </c>
       <c r="E57" s="3">
-        <v>2123700</v>
+        <v>2159300</v>
       </c>
       <c r="F57" s="3">
-        <v>1790800</v>
+        <v>1820800</v>
       </c>
       <c r="G57" s="3">
-        <v>1762300</v>
+        <v>1791800</v>
       </c>
       <c r="H57" s="3">
-        <v>1283200</v>
+        <v>1304700</v>
       </c>
       <c r="I57" s="3">
-        <v>1023200</v>
+        <v>1040400</v>
       </c>
       <c r="J57" s="3">
-        <v>942600</v>
+        <v>958300</v>
       </c>
       <c r="K57" s="3">
         <v>72500</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160700</v>
+        <v>163400</v>
       </c>
       <c r="E58" s="3">
-        <v>168400</v>
+        <v>171200</v>
       </c>
       <c r="F58" s="3">
-        <v>1022300</v>
+        <v>1039500</v>
       </c>
       <c r="G58" s="3">
-        <v>256700</v>
+        <v>261000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1591300</v>
+        <v>1617900</v>
       </c>
       <c r="E59" s="3">
-        <v>1391900</v>
+        <v>1415300</v>
       </c>
       <c r="F59" s="3">
-        <v>1182000</v>
+        <v>1201800</v>
       </c>
       <c r="G59" s="3">
-        <v>946200</v>
+        <v>962100</v>
       </c>
       <c r="H59" s="3">
-        <v>962400</v>
+        <v>978500</v>
       </c>
       <c r="I59" s="3">
-        <v>835400</v>
+        <v>849400</v>
       </c>
       <c r="J59" s="3">
-        <v>981600</v>
+        <v>998000</v>
       </c>
       <c r="K59" s="3">
         <v>53500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4091100</v>
+        <v>4159600</v>
       </c>
       <c r="E60" s="3">
-        <v>3684100</v>
+        <v>3745800</v>
       </c>
       <c r="F60" s="3">
-        <v>3995200</v>
+        <v>4062100</v>
       </c>
       <c r="G60" s="3">
-        <v>2965300</v>
+        <v>3015000</v>
       </c>
       <c r="H60" s="3">
-        <v>2245600</v>
+        <v>2283200</v>
       </c>
       <c r="I60" s="3">
-        <v>1873300</v>
+        <v>1904700</v>
       </c>
       <c r="J60" s="3">
-        <v>1563700</v>
+        <v>1589900</v>
       </c>
       <c r="K60" s="3">
         <v>126100</v>
@@ -2421,22 +2421,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>630500</v>
+        <v>641100</v>
       </c>
       <c r="H61" s="3">
-        <v>674700</v>
+        <v>686000</v>
       </c>
       <c r="I61" s="3">
-        <v>624900</v>
+        <v>635300</v>
       </c>
       <c r="J61" s="3">
-        <v>593600</v>
+        <v>603500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>459800</v>
+        <v>467500</v>
       </c>
       <c r="E62" s="3">
-        <v>360700</v>
+        <v>366800</v>
       </c>
       <c r="F62" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="G62" s="3">
-        <v>58500</v>
+        <v>59400</v>
       </c>
       <c r="H62" s="3">
-        <v>53500</v>
+        <v>54400</v>
       </c>
       <c r="I62" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="J62" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4687600</v>
+        <v>4766200</v>
       </c>
       <c r="E66" s="3">
-        <v>4119800</v>
+        <v>4188800</v>
       </c>
       <c r="F66" s="3">
-        <v>4049800</v>
+        <v>4117700</v>
       </c>
       <c r="G66" s="3">
-        <v>3647500</v>
+        <v>3708600</v>
       </c>
       <c r="H66" s="3">
-        <v>2981400</v>
+        <v>3031400</v>
       </c>
       <c r="I66" s="3">
-        <v>2540100</v>
+        <v>2582700</v>
       </c>
       <c r="J66" s="3">
-        <v>2216800</v>
+        <v>2254000</v>
       </c>
       <c r="K66" s="3">
         <v>126100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2731700</v>
+        <v>2777400</v>
       </c>
       <c r="E72" s="3">
-        <v>1836100</v>
+        <v>1866900</v>
       </c>
       <c r="F72" s="3">
-        <v>1217600</v>
+        <v>1238000</v>
       </c>
       <c r="G72" s="3">
-        <v>862700</v>
+        <v>877200</v>
       </c>
       <c r="H72" s="3">
-        <v>562500</v>
+        <v>571900</v>
       </c>
       <c r="I72" s="3">
-        <v>248900</v>
+        <v>253000</v>
       </c>
       <c r="J72" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K72" s="3">
         <v>-18800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4388100</v>
+        <v>4461600</v>
       </c>
       <c r="E76" s="3">
-        <v>3360900</v>
+        <v>3417300</v>
       </c>
       <c r="F76" s="3">
-        <v>2658000</v>
+        <v>2702500</v>
       </c>
       <c r="G76" s="3">
-        <v>2201100</v>
+        <v>2237900</v>
       </c>
       <c r="H76" s="3">
-        <v>882600</v>
+        <v>897400</v>
       </c>
       <c r="I76" s="3">
-        <v>545000</v>
+        <v>554100</v>
       </c>
       <c r="J76" s="3">
-        <v>393300</v>
+        <v>399900</v>
       </c>
       <c r="K76" s="3">
         <v>37000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>909600</v>
+        <v>924800</v>
       </c>
       <c r="E81" s="3">
-        <v>618500</v>
+        <v>628900</v>
       </c>
       <c r="F81" s="3">
-        <v>327800</v>
+        <v>333300</v>
       </c>
       <c r="G81" s="3">
-        <v>300200</v>
+        <v>305200</v>
       </c>
       <c r="H81" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="I81" s="3">
-        <v>244800</v>
+        <v>248900</v>
       </c>
       <c r="J81" s="3">
-        <v>129500</v>
+        <v>131700</v>
       </c>
       <c r="K81" s="3">
         <v>48900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>175400</v>
+        <v>178400</v>
       </c>
       <c r="E83" s="3">
-        <v>146400</v>
+        <v>148800</v>
       </c>
       <c r="F83" s="3">
-        <v>137000</v>
+        <v>139300</v>
       </c>
       <c r="G83" s="3">
-        <v>172000</v>
+        <v>174900</v>
       </c>
       <c r="H83" s="3">
-        <v>155900</v>
+        <v>158500</v>
       </c>
       <c r="I83" s="3">
-        <v>89900</v>
+        <v>91400</v>
       </c>
       <c r="J83" s="3">
-        <v>55600</v>
+        <v>56500</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1820100</v>
+        <v>1850600</v>
       </c>
       <c r="E89" s="3">
-        <v>1892400</v>
+        <v>1924200</v>
       </c>
       <c r="F89" s="3">
-        <v>884700</v>
+        <v>899600</v>
       </c>
       <c r="G89" s="3">
-        <v>151100</v>
+        <v>153600</v>
       </c>
       <c r="H89" s="3">
-        <v>436000</v>
+        <v>443300</v>
       </c>
       <c r="I89" s="3">
-        <v>294900</v>
+        <v>299800</v>
       </c>
       <c r="J89" s="3">
-        <v>502400</v>
+        <v>510800</v>
       </c>
       <c r="K89" s="3">
         <v>66500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-349800</v>
+        <v>-355700</v>
       </c>
       <c r="E91" s="3">
-        <v>-658700</v>
+        <v>-669700</v>
       </c>
       <c r="F91" s="3">
-        <v>-553400</v>
+        <v>-562700</v>
       </c>
       <c r="G91" s="3">
-        <v>-381000</v>
+        <v>-387400</v>
       </c>
       <c r="H91" s="3">
-        <v>-334500</v>
+        <v>-340100</v>
       </c>
       <c r="I91" s="3">
-        <v>-355800</v>
+        <v>-361800</v>
       </c>
       <c r="J91" s="3">
-        <v>-261900</v>
+        <v>-266200</v>
       </c>
       <c r="K91" s="3">
         <v>-4200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1030900</v>
+        <v>-1048200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1268900</v>
+        <v>-1290100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1030700</v>
+        <v>-1048000</v>
       </c>
       <c r="G94" s="3">
-        <v>-313000</v>
+        <v>-318200</v>
       </c>
       <c r="H94" s="3">
-        <v>-257000</v>
+        <v>-261300</v>
       </c>
       <c r="I94" s="3">
-        <v>-452300</v>
+        <v>-459900</v>
       </c>
       <c r="J94" s="3">
-        <v>-654900</v>
+        <v>-665900</v>
       </c>
       <c r="K94" s="3">
         <v>-48800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E100" s="3">
-        <v>-963400</v>
+        <v>-979500</v>
       </c>
       <c r="F100" s="3">
-        <v>90400</v>
+        <v>91900</v>
       </c>
       <c r="G100" s="3">
-        <v>1104000</v>
+        <v>1122500</v>
       </c>
       <c r="H100" s="3">
-        <v>-60500</v>
+        <v>-61500</v>
       </c>
       <c r="I100" s="3">
-        <v>-83000</v>
+        <v>-84400</v>
       </c>
       <c r="J100" s="3">
-        <v>593200</v>
+        <v>603100</v>
       </c>
       <c r="K100" s="3">
         <v>14100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-17300</v>
+        <v>-17600</v>
       </c>
       <c r="F101" s="3">
-        <v>27300</v>
+        <v>27800</v>
       </c>
       <c r="G101" s="3">
         <v>-900</v>
       </c>
       <c r="H101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="J101" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>784100</v>
+        <v>797200</v>
       </c>
       <c r="E102" s="3">
-        <v>-357100</v>
+        <v>-363100</v>
       </c>
       <c r="F102" s="3">
-        <v>-28300</v>
+        <v>-28700</v>
       </c>
       <c r="G102" s="3">
-        <v>941200</v>
+        <v>957000</v>
       </c>
       <c r="H102" s="3">
-        <v>120900</v>
+        <v>122900</v>
       </c>
       <c r="I102" s="3">
-        <v>-225800</v>
+        <v>-229600</v>
       </c>
       <c r="J102" s="3">
-        <v>425700</v>
+        <v>432800</v>
       </c>
       <c r="K102" s="3">
         <v>32000</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15947000</v>
+        <v>18467300</v>
       </c>
       <c r="E8" s="3">
-        <v>14559200</v>
+        <v>16069200</v>
       </c>
       <c r="F8" s="3">
-        <v>13233100</v>
+        <v>14670800</v>
       </c>
       <c r="G8" s="3">
-        <v>11415200</v>
+        <v>13334500</v>
       </c>
       <c r="H8" s="3">
-        <v>8859900</v>
+        <v>11502600</v>
       </c>
       <c r="I8" s="3">
-        <v>6294200</v>
+        <v>8927800</v>
       </c>
       <c r="J8" s="3">
+        <v>6342500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3621100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1585200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12614500</v>
+        <v>14822000</v>
       </c>
       <c r="E9" s="3">
-        <v>11321500</v>
+        <v>12711200</v>
       </c>
       <c r="F9" s="3">
-        <v>10560800</v>
+        <v>11408300</v>
       </c>
       <c r="G9" s="3">
-        <v>8864200</v>
+        <v>10641700</v>
       </c>
       <c r="H9" s="3">
-        <v>6731200</v>
+        <v>8932100</v>
       </c>
       <c r="I9" s="3">
-        <v>4744800</v>
+        <v>6782800</v>
       </c>
       <c r="J9" s="3">
+        <v>4781200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2720700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1204200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3332400</v>
+        <v>3645300</v>
       </c>
       <c r="E10" s="3">
-        <v>3237700</v>
+        <v>3358000</v>
       </c>
       <c r="F10" s="3">
-        <v>2672300</v>
+        <v>3262500</v>
       </c>
       <c r="G10" s="3">
-        <v>2551000</v>
+        <v>2692800</v>
       </c>
       <c r="H10" s="3">
-        <v>2128700</v>
+        <v>2570500</v>
       </c>
       <c r="I10" s="3">
-        <v>1549400</v>
+        <v>2145000</v>
       </c>
       <c r="J10" s="3">
+        <v>1561300</v>
+      </c>
+      <c r="K10" s="3">
         <v>900400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>381000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,15 +880,18 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
-        <v>63500</v>
-      </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>64000</v>
       </c>
       <c r="G14" s="3">
-        <v>20800</v>
+        <v>3200</v>
       </c>
       <c r="H14" s="3">
-        <v>17900</v>
+        <v>21000</v>
       </c>
       <c r="I14" s="3">
-        <v>15600</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>130000</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>120600</v>
+        <v>131000</v>
       </c>
       <c r="G15" s="3">
-        <v>112900</v>
+        <v>121500</v>
       </c>
       <c r="H15" s="3">
-        <v>95700</v>
+        <v>113700</v>
       </c>
       <c r="I15" s="3">
-        <v>45600</v>
+        <v>96400</v>
       </c>
       <c r="J15" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K15" s="3">
         <v>17200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15036300</v>
+        <v>17652100</v>
       </c>
       <c r="E17" s="3">
-        <v>13831900</v>
+        <v>15151500</v>
       </c>
       <c r="F17" s="3">
-        <v>12857200</v>
+        <v>13937900</v>
       </c>
       <c r="G17" s="3">
-        <v>11014800</v>
+        <v>12955700</v>
       </c>
       <c r="H17" s="3">
-        <v>8454000</v>
+        <v>11099200</v>
       </c>
       <c r="I17" s="3">
-        <v>5985700</v>
+        <v>8518800</v>
       </c>
       <c r="J17" s="3">
+        <v>6031500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3491600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1534900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>101400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>910700</v>
+        <v>815200</v>
       </c>
       <c r="E18" s="3">
-        <v>727300</v>
+        <v>917700</v>
       </c>
       <c r="F18" s="3">
-        <v>375900</v>
+        <v>732900</v>
       </c>
       <c r="G18" s="3">
-        <v>400400</v>
+        <v>378800</v>
       </c>
       <c r="H18" s="3">
-        <v>406000</v>
+        <v>403500</v>
       </c>
       <c r="I18" s="3">
-        <v>308500</v>
+        <v>409100</v>
       </c>
       <c r="J18" s="3">
+        <v>310900</v>
+      </c>
+      <c r="K18" s="3">
         <v>129600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>198800</v>
+        <v>113600</v>
       </c>
       <c r="E20" s="3">
-        <v>60000</v>
+        <v>200300</v>
       </c>
       <c r="F20" s="3">
-        <v>79200</v>
+        <v>60400</v>
       </c>
       <c r="G20" s="3">
-        <v>10300</v>
+        <v>79800</v>
       </c>
       <c r="H20" s="3">
-        <v>24800</v>
+        <v>10400</v>
       </c>
       <c r="I20" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="J20" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K20" s="3">
         <v>48200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1287700</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>936000</v>
+        <v>1298300</v>
       </c>
       <c r="F21" s="3">
+        <v>943800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>599400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>590700</v>
+      </c>
+      <c r="I21" s="3">
         <v>594300</v>
       </c>
-      <c r="G21" s="3">
-        <v>585500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>589200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>425800</v>
-      </c>
       <c r="J21" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K21" s="3">
         <v>234200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10500</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>10600</v>
       </c>
       <c r="F22" s="3">
-        <v>25000</v>
+        <v>13600</v>
       </c>
       <c r="G22" s="3">
-        <v>12900</v>
+        <v>25200</v>
       </c>
       <c r="H22" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
         <v>13400</v>
       </c>
       <c r="J22" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K22" s="3">
         <v>11800</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1099000</v>
+        <v>926600</v>
       </c>
       <c r="E23" s="3">
-        <v>773800</v>
+        <v>1107400</v>
       </c>
       <c r="F23" s="3">
-        <v>430100</v>
+        <v>779800</v>
       </c>
       <c r="G23" s="3">
-        <v>397800</v>
+        <v>433400</v>
       </c>
       <c r="H23" s="3">
-        <v>417400</v>
+        <v>400800</v>
       </c>
       <c r="I23" s="3">
-        <v>321000</v>
+        <v>420600</v>
       </c>
       <c r="J23" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K23" s="3">
         <v>166000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176900</v>
+        <v>192900</v>
       </c>
       <c r="E24" s="3">
-        <v>154000</v>
+        <v>178300</v>
       </c>
       <c r="F24" s="3">
-        <v>88700</v>
+        <v>155200</v>
       </c>
       <c r="G24" s="3">
-        <v>98000</v>
+        <v>89400</v>
       </c>
       <c r="H24" s="3">
-        <v>94200</v>
+        <v>98800</v>
       </c>
       <c r="I24" s="3">
-        <v>71700</v>
+        <v>94900</v>
       </c>
       <c r="J24" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K24" s="3">
         <v>38400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>922000</v>
+        <v>733700</v>
       </c>
       <c r="E26" s="3">
-        <v>619900</v>
+        <v>929100</v>
       </c>
       <c r="F26" s="3">
-        <v>341400</v>
+        <v>624600</v>
       </c>
       <c r="G26" s="3">
-        <v>299800</v>
+        <v>344000</v>
       </c>
       <c r="H26" s="3">
-        <v>323200</v>
+        <v>302100</v>
       </c>
       <c r="I26" s="3">
-        <v>249400</v>
+        <v>325700</v>
       </c>
       <c r="J26" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K26" s="3">
         <v>127600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>924800</v>
+        <v>738500</v>
       </c>
       <c r="E27" s="3">
-        <v>628900</v>
+        <v>931900</v>
       </c>
       <c r="F27" s="3">
-        <v>333300</v>
+        <v>633700</v>
       </c>
       <c r="G27" s="3">
-        <v>305200</v>
+        <v>335800</v>
       </c>
       <c r="H27" s="3">
-        <v>318900</v>
+        <v>307600</v>
       </c>
       <c r="I27" s="3">
-        <v>248900</v>
+        <v>321300</v>
       </c>
       <c r="J27" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K27" s="3">
         <v>131700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-198800</v>
+        <v>-113600</v>
       </c>
       <c r="E32" s="3">
-        <v>-60000</v>
+        <v>-200300</v>
       </c>
       <c r="F32" s="3">
-        <v>-79200</v>
+        <v>-60400</v>
       </c>
       <c r="G32" s="3">
-        <v>-10300</v>
+        <v>-79800</v>
       </c>
       <c r="H32" s="3">
-        <v>-24800</v>
+        <v>-10400</v>
       </c>
       <c r="I32" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="J32" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-48200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>924800</v>
+        <v>738500</v>
       </c>
       <c r="E33" s="3">
-        <v>628900</v>
+        <v>931900</v>
       </c>
       <c r="F33" s="3">
-        <v>333300</v>
+        <v>633700</v>
       </c>
       <c r="G33" s="3">
-        <v>305200</v>
+        <v>335800</v>
       </c>
       <c r="H33" s="3">
-        <v>318900</v>
+        <v>307600</v>
       </c>
       <c r="I33" s="3">
-        <v>248900</v>
+        <v>321300</v>
       </c>
       <c r="J33" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K33" s="3">
         <v>131700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>924800</v>
+        <v>738500</v>
       </c>
       <c r="E35" s="3">
-        <v>628900</v>
+        <v>931900</v>
       </c>
       <c r="F35" s="3">
-        <v>333300</v>
+        <v>633700</v>
       </c>
       <c r="G35" s="3">
-        <v>305200</v>
+        <v>335800</v>
       </c>
       <c r="H35" s="3">
-        <v>318900</v>
+        <v>307600</v>
       </c>
       <c r="I35" s="3">
-        <v>248900</v>
+        <v>321300</v>
       </c>
       <c r="J35" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K35" s="3">
         <v>131700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,250 +1817,269 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1878000</v>
+        <v>2571100</v>
       </c>
       <c r="E41" s="3">
-        <v>1029200</v>
+        <v>1892400</v>
       </c>
       <c r="F41" s="3">
-        <v>1493700</v>
+        <v>1037100</v>
       </c>
       <c r="G41" s="3">
-        <v>1561500</v>
+        <v>1505100</v>
       </c>
       <c r="H41" s="3">
-        <v>643400</v>
+        <v>1573500</v>
       </c>
       <c r="I41" s="3">
-        <v>520500</v>
+        <v>648300</v>
       </c>
       <c r="J41" s="3">
+        <v>524500</v>
+      </c>
+      <c r="K41" s="3">
         <v>750000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1147400</v>
+        <v>849000</v>
       </c>
       <c r="E42" s="3">
-        <v>477900</v>
+        <v>1156200</v>
       </c>
       <c r="F42" s="3">
-        <v>363400</v>
+        <v>481600</v>
       </c>
       <c r="G42" s="3">
-        <v>38500</v>
+        <v>366200</v>
       </c>
       <c r="H42" s="3">
-        <v>105200</v>
+        <v>38800</v>
       </c>
       <c r="I42" s="3">
-        <v>283000</v>
+        <v>106000</v>
       </c>
       <c r="J42" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K42" s="3">
         <v>590000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12400</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>466800</v>
+        <v>540200</v>
       </c>
       <c r="E43" s="3">
-        <v>712000</v>
+        <v>470400</v>
       </c>
       <c r="F43" s="3">
-        <v>1502600</v>
+        <v>717500</v>
       </c>
       <c r="G43" s="3">
-        <v>1328900</v>
+        <v>1514200</v>
       </c>
       <c r="H43" s="3">
-        <v>711400</v>
+        <v>1339100</v>
       </c>
       <c r="I43" s="3">
-        <v>344500</v>
+        <v>716800</v>
       </c>
       <c r="J43" s="3">
+        <v>347100</v>
+      </c>
+      <c r="K43" s="3">
         <v>155700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1196500</v>
+        <v>1083000</v>
       </c>
       <c r="E44" s="3">
-        <v>1206800</v>
+        <v>1205700</v>
       </c>
       <c r="F44" s="3">
-        <v>840400</v>
+        <v>1216100</v>
       </c>
       <c r="G44" s="3">
-        <v>1089700</v>
+        <v>846900</v>
       </c>
       <c r="H44" s="3">
-        <v>774800</v>
+        <v>1098000</v>
       </c>
       <c r="I44" s="3">
-        <v>715000</v>
+        <v>780700</v>
       </c>
       <c r="J44" s="3">
+        <v>720400</v>
+      </c>
+      <c r="K44" s="3">
         <v>561800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>191700</v>
+        <v>137900</v>
       </c>
       <c r="E45" s="3">
-        <v>179300</v>
+        <v>193200</v>
       </c>
       <c r="F45" s="3">
-        <v>78000</v>
+        <v>180700</v>
       </c>
       <c r="G45" s="3">
-        <v>38800</v>
+        <v>78600</v>
       </c>
       <c r="H45" s="3">
-        <v>48100</v>
+        <v>39100</v>
       </c>
       <c r="I45" s="3">
-        <v>39800</v>
+        <v>48500</v>
       </c>
       <c r="J45" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K45" s="3">
         <v>52700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4880400</v>
+        <v>5181100</v>
       </c>
       <c r="E46" s="3">
-        <v>3605300</v>
+        <v>4917800</v>
       </c>
       <c r="F46" s="3">
-        <v>4278100</v>
+        <v>3632900</v>
       </c>
       <c r="G46" s="3">
-        <v>4057400</v>
+        <v>4310900</v>
       </c>
       <c r="H46" s="3">
-        <v>2282800</v>
+        <v>4088500</v>
       </c>
       <c r="I46" s="3">
-        <v>1902700</v>
+        <v>2300300</v>
       </c>
       <c r="J46" s="3">
+        <v>1917300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2069800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>157700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>753200</v>
+        <v>782500</v>
       </c>
       <c r="E47" s="3">
-        <v>816900</v>
+        <v>759000</v>
       </c>
       <c r="F47" s="3">
-        <v>334700</v>
+        <v>823100</v>
       </c>
       <c r="G47" s="3">
-        <v>94000</v>
+        <v>337300</v>
       </c>
       <c r="H47" s="3">
-        <v>157200</v>
+        <v>94700</v>
       </c>
       <c r="I47" s="3">
-        <v>158500</v>
+        <v>158400</v>
       </c>
       <c r="J47" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K47" s="3">
         <v>61100</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -1983,81 +2087,90 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2374300</v>
+        <v>2449200</v>
       </c>
       <c r="E48" s="3">
-        <v>2031000</v>
+        <v>2392500</v>
       </c>
       <c r="F48" s="3">
-        <v>1335700</v>
+        <v>2046500</v>
       </c>
       <c r="G48" s="3">
-        <v>1042800</v>
+        <v>1345900</v>
       </c>
       <c r="H48" s="3">
-        <v>699400</v>
+        <v>1050800</v>
       </c>
       <c r="I48" s="3">
-        <v>461800</v>
+        <v>704800</v>
       </c>
       <c r="J48" s="3">
+        <v>465300</v>
+      </c>
+      <c r="K48" s="3">
         <v>598500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145100</v>
+        <v>143600</v>
       </c>
       <c r="E49" s="3">
-        <v>89900</v>
+        <v>146200</v>
       </c>
       <c r="F49" s="3">
-        <v>112800</v>
+        <v>90600</v>
       </c>
       <c r="G49" s="3">
-        <v>120300</v>
+        <v>113600</v>
       </c>
       <c r="H49" s="3">
-        <v>171000</v>
+        <v>121200</v>
       </c>
       <c r="I49" s="3">
-        <v>133600</v>
+        <v>172300</v>
       </c>
       <c r="J49" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K49" s="3">
         <v>172100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1074800</v>
+        <v>1270100</v>
       </c>
       <c r="E52" s="3">
-        <v>1063100</v>
+        <v>1083000</v>
       </c>
       <c r="F52" s="3">
-        <v>758900</v>
+        <v>1071300</v>
       </c>
       <c r="G52" s="3">
-        <v>632100</v>
+        <v>764700</v>
       </c>
       <c r="H52" s="3">
-        <v>618400</v>
+        <v>637000</v>
       </c>
       <c r="I52" s="3">
-        <v>480200</v>
+        <v>623100</v>
       </c>
       <c r="J52" s="3">
+        <v>483900</v>
+      </c>
+      <c r="K52" s="3">
         <v>64500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9227800</v>
+        <v>9826500</v>
       </c>
       <c r="E54" s="3">
-        <v>7606100</v>
+        <v>9298500</v>
       </c>
       <c r="F54" s="3">
-        <v>6820200</v>
+        <v>7664400</v>
       </c>
       <c r="G54" s="3">
-        <v>5946600</v>
+        <v>6872400</v>
       </c>
       <c r="H54" s="3">
-        <v>3928800</v>
+        <v>5992200</v>
       </c>
       <c r="I54" s="3">
-        <v>3136800</v>
+        <v>3958900</v>
       </c>
       <c r="J54" s="3">
+        <v>3160800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2653900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,152 +2397,165 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2378400</v>
+        <v>2073700</v>
       </c>
       <c r="E57" s="3">
-        <v>2159300</v>
+        <v>2396600</v>
       </c>
       <c r="F57" s="3">
-        <v>1820800</v>
+        <v>2175900</v>
       </c>
       <c r="G57" s="3">
-        <v>1791800</v>
+        <v>1834800</v>
       </c>
       <c r="H57" s="3">
-        <v>1304700</v>
+        <v>1805600</v>
       </c>
       <c r="I57" s="3">
-        <v>1040400</v>
+        <v>1314700</v>
       </c>
       <c r="J57" s="3">
+        <v>1048400</v>
+      </c>
+      <c r="K57" s="3">
         <v>958300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>163400</v>
+        <v>311600</v>
       </c>
       <c r="E58" s="3">
-        <v>171200</v>
+        <v>164600</v>
       </c>
       <c r="F58" s="3">
-        <v>1039500</v>
+        <v>172500</v>
       </c>
       <c r="G58" s="3">
-        <v>261000</v>
+        <v>1047400</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>263000</v>
       </c>
       <c r="I58" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1617900</v>
+        <v>1680300</v>
       </c>
       <c r="E59" s="3">
-        <v>1415300</v>
+        <v>1630300</v>
       </c>
       <c r="F59" s="3">
-        <v>1201800</v>
+        <v>1426100</v>
       </c>
       <c r="G59" s="3">
-        <v>962100</v>
+        <v>1211000</v>
       </c>
       <c r="H59" s="3">
-        <v>978500</v>
+        <v>969500</v>
       </c>
       <c r="I59" s="3">
-        <v>849400</v>
+        <v>986000</v>
       </c>
       <c r="J59" s="3">
+        <v>856000</v>
+      </c>
+      <c r="K59" s="3">
         <v>998000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4159600</v>
+        <v>4065600</v>
       </c>
       <c r="E60" s="3">
-        <v>3745800</v>
+        <v>4191500</v>
       </c>
       <c r="F60" s="3">
-        <v>4062100</v>
+        <v>3774500</v>
       </c>
       <c r="G60" s="3">
-        <v>3015000</v>
+        <v>4093200</v>
       </c>
       <c r="H60" s="3">
-        <v>2283200</v>
+        <v>3038100</v>
       </c>
       <c r="I60" s="3">
-        <v>1904700</v>
+        <v>2300700</v>
       </c>
       <c r="J60" s="3">
+        <v>1919300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1589900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2421,61 +2563,64 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="G61" s="3">
-        <v>641100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>686000</v>
+        <v>646000</v>
       </c>
       <c r="I61" s="3">
-        <v>635300</v>
+        <v>691300</v>
       </c>
       <c r="J61" s="3">
+        <v>640200</v>
+      </c>
+      <c r="K61" s="3">
         <v>603500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>467500</v>
+        <v>424100</v>
       </c>
       <c r="E62" s="3">
-        <v>366800</v>
+        <v>471100</v>
       </c>
       <c r="F62" s="3">
-        <v>63500</v>
+        <v>369600</v>
       </c>
       <c r="G62" s="3">
-        <v>59400</v>
+        <v>64000</v>
       </c>
       <c r="H62" s="3">
-        <v>54400</v>
+        <v>59900</v>
       </c>
       <c r="I62" s="3">
-        <v>31000</v>
+        <v>54800</v>
       </c>
       <c r="J62" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K62" s="3">
         <v>38000</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2483,9 +2628,12 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4766200</v>
+        <v>4678300</v>
       </c>
       <c r="E66" s="3">
-        <v>4188800</v>
+        <v>4802700</v>
       </c>
       <c r="F66" s="3">
-        <v>4117700</v>
+        <v>4221000</v>
       </c>
       <c r="G66" s="3">
-        <v>3708600</v>
+        <v>4149200</v>
       </c>
       <c r="H66" s="3">
-        <v>3031400</v>
+        <v>3737100</v>
       </c>
       <c r="I66" s="3">
-        <v>2582700</v>
+        <v>3054600</v>
       </c>
       <c r="J66" s="3">
+        <v>2602500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2254000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2749,11 +2916,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>8900</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2777400</v>
+        <v>3537200</v>
       </c>
       <c r="E72" s="3">
-        <v>1866900</v>
+        <v>2798700</v>
       </c>
       <c r="F72" s="3">
-        <v>1238000</v>
+        <v>1881200</v>
       </c>
       <c r="G72" s="3">
-        <v>877200</v>
+        <v>1247500</v>
       </c>
       <c r="H72" s="3">
-        <v>571900</v>
+        <v>883900</v>
       </c>
       <c r="I72" s="3">
-        <v>253000</v>
+        <v>576300</v>
       </c>
       <c r="J72" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4461600</v>
+        <v>5148200</v>
       </c>
       <c r="E76" s="3">
-        <v>3417300</v>
+        <v>4495800</v>
       </c>
       <c r="F76" s="3">
-        <v>2702500</v>
+        <v>3443500</v>
       </c>
       <c r="G76" s="3">
-        <v>2237900</v>
+        <v>2723200</v>
       </c>
       <c r="H76" s="3">
-        <v>897400</v>
+        <v>2255100</v>
       </c>
       <c r="I76" s="3">
-        <v>554100</v>
+        <v>904300</v>
       </c>
       <c r="J76" s="3">
+        <v>558300</v>
+      </c>
+      <c r="K76" s="3">
         <v>399900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>924800</v>
+        <v>738500</v>
       </c>
       <c r="E81" s="3">
-        <v>628900</v>
+        <v>931900</v>
       </c>
       <c r="F81" s="3">
-        <v>333300</v>
+        <v>633700</v>
       </c>
       <c r="G81" s="3">
-        <v>305200</v>
+        <v>335800</v>
       </c>
       <c r="H81" s="3">
-        <v>318900</v>
+        <v>307600</v>
       </c>
       <c r="I81" s="3">
-        <v>248900</v>
+        <v>321300</v>
       </c>
       <c r="J81" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K81" s="3">
         <v>131700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>178400</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>148800</v>
+        <v>179700</v>
       </c>
       <c r="F83" s="3">
-        <v>139300</v>
+        <v>150000</v>
       </c>
       <c r="G83" s="3">
-        <v>174900</v>
+        <v>140400</v>
       </c>
       <c r="H83" s="3">
-        <v>158500</v>
+        <v>176200</v>
       </c>
       <c r="I83" s="3">
-        <v>91400</v>
+        <v>159700</v>
       </c>
       <c r="J83" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K83" s="3">
         <v>56500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1850600</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>1924200</v>
+        <v>1864800</v>
       </c>
       <c r="F89" s="3">
-        <v>899600</v>
+        <v>1938900</v>
       </c>
       <c r="G89" s="3">
-        <v>153600</v>
+        <v>906400</v>
       </c>
       <c r="H89" s="3">
-        <v>443300</v>
+        <v>154800</v>
       </c>
       <c r="I89" s="3">
-        <v>299800</v>
+        <v>446700</v>
       </c>
       <c r="J89" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K89" s="3">
         <v>510800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-355700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-669700</v>
+        <v>-358400</v>
       </c>
       <c r="F91" s="3">
-        <v>-562700</v>
+        <v>-674800</v>
       </c>
       <c r="G91" s="3">
-        <v>-387400</v>
+        <v>-567000</v>
       </c>
       <c r="H91" s="3">
-        <v>-340100</v>
+        <v>-390400</v>
       </c>
       <c r="I91" s="3">
-        <v>-361800</v>
+        <v>-342700</v>
       </c>
       <c r="J91" s="3">
+        <v>-364600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-266200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1048200</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-1290100</v>
+        <v>-1056200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1048000</v>
+        <v>-1300000</v>
       </c>
       <c r="G94" s="3">
-        <v>-318200</v>
+        <v>-1056000</v>
       </c>
       <c r="H94" s="3">
-        <v>-261300</v>
+        <v>-320700</v>
       </c>
       <c r="I94" s="3">
-        <v>-459900</v>
+        <v>-263300</v>
       </c>
       <c r="J94" s="3">
+        <v>-463400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-665900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-979500</v>
-      </c>
       <c r="F100" s="3">
-        <v>91900</v>
+        <v>-987100</v>
       </c>
       <c r="G100" s="3">
-        <v>1122500</v>
+        <v>92600</v>
       </c>
       <c r="H100" s="3">
-        <v>-61500</v>
+        <v>1131100</v>
       </c>
       <c r="I100" s="3">
-        <v>-84400</v>
+        <v>-62000</v>
       </c>
       <c r="J100" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="K100" s="3">
         <v>603100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-17600</v>
-      </c>
       <c r="F101" s="3">
-        <v>27800</v>
+        <v>-17700</v>
       </c>
       <c r="G101" s="3">
-        <v>-900</v>
+        <v>28000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
-        <v>14900</v>
-      </c>
       <c r="J101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>797200</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-363100</v>
+        <v>803300</v>
       </c>
       <c r="F102" s="3">
-        <v>-28700</v>
+        <v>-365900</v>
       </c>
       <c r="G102" s="3">
-        <v>957000</v>
+        <v>-29000</v>
       </c>
       <c r="H102" s="3">
-        <v>122900</v>
+        <v>964300</v>
       </c>
       <c r="I102" s="3">
-        <v>-229600</v>
+        <v>123900</v>
       </c>
       <c r="J102" s="3">
+        <v>-231300</v>
+      </c>
+      <c r="K102" s="3">
         <v>432800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18467300</v>
+        <v>17249900</v>
       </c>
       <c r="E8" s="3">
-        <v>16069200</v>
+        <v>15009900</v>
       </c>
       <c r="F8" s="3">
-        <v>14670800</v>
+        <v>13703700</v>
       </c>
       <c r="G8" s="3">
-        <v>13334500</v>
+        <v>12455400</v>
       </c>
       <c r="H8" s="3">
-        <v>11502600</v>
+        <v>10744400</v>
       </c>
       <c r="I8" s="3">
-        <v>8927800</v>
+        <v>8339300</v>
       </c>
       <c r="J8" s="3">
-        <v>6342500</v>
+        <v>5924300</v>
       </c>
       <c r="K8" s="3">
         <v>3621100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14822000</v>
+        <v>13844900</v>
       </c>
       <c r="E9" s="3">
-        <v>12711200</v>
+        <v>11873300</v>
       </c>
       <c r="F9" s="3">
-        <v>11408300</v>
+        <v>10656200</v>
       </c>
       <c r="G9" s="3">
-        <v>10641700</v>
+        <v>9940200</v>
       </c>
       <c r="H9" s="3">
-        <v>8932100</v>
+        <v>8343300</v>
       </c>
       <c r="I9" s="3">
-        <v>6782800</v>
+        <v>6335700</v>
       </c>
       <c r="J9" s="3">
-        <v>4781200</v>
+        <v>4466000</v>
       </c>
       <c r="K9" s="3">
         <v>2720700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3645300</v>
+        <v>3405000</v>
       </c>
       <c r="E10" s="3">
-        <v>3358000</v>
+        <v>3136600</v>
       </c>
       <c r="F10" s="3">
-        <v>3262500</v>
+        <v>3047400</v>
       </c>
       <c r="G10" s="3">
-        <v>2692800</v>
+        <v>2515300</v>
       </c>
       <c r="H10" s="3">
-        <v>2570500</v>
+        <v>2401100</v>
       </c>
       <c r="I10" s="3">
-        <v>2145000</v>
+        <v>2003600</v>
       </c>
       <c r="J10" s="3">
-        <v>1561300</v>
+        <v>1458300</v>
       </c>
       <c r="K10" s="3">
         <v>900400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>65400</v>
+        <v>61100</v>
       </c>
       <c r="E14" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="F14" s="3">
-        <v>64000</v>
+        <v>59800</v>
       </c>
       <c r="G14" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="J14" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="K14" s="3">
         <v>1000</v>
@@ -980,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>131000</v>
+        <v>122400</v>
       </c>
       <c r="G15" s="3">
-        <v>121500</v>
+        <v>113500</v>
       </c>
       <c r="H15" s="3">
-        <v>113700</v>
+        <v>106200</v>
       </c>
       <c r="I15" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="J15" s="3">
-        <v>46000</v>
+        <v>42900</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17652100</v>
+        <v>16488400</v>
       </c>
       <c r="E17" s="3">
-        <v>15151500</v>
+        <v>14152700</v>
       </c>
       <c r="F17" s="3">
-        <v>13937900</v>
+        <v>13019100</v>
       </c>
       <c r="G17" s="3">
-        <v>12955700</v>
+        <v>12101600</v>
       </c>
       <c r="H17" s="3">
-        <v>11099200</v>
+        <v>10367500</v>
       </c>
       <c r="I17" s="3">
-        <v>8518800</v>
+        <v>7957200</v>
       </c>
       <c r="J17" s="3">
-        <v>6031500</v>
+        <v>5633900</v>
       </c>
       <c r="K17" s="3">
         <v>3491600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>815200</v>
+        <v>761500</v>
       </c>
       <c r="E18" s="3">
-        <v>917700</v>
+        <v>857200</v>
       </c>
       <c r="F18" s="3">
-        <v>732900</v>
+        <v>684600</v>
       </c>
       <c r="G18" s="3">
-        <v>378800</v>
+        <v>353800</v>
       </c>
       <c r="H18" s="3">
-        <v>403500</v>
+        <v>376900</v>
       </c>
       <c r="I18" s="3">
-        <v>409100</v>
+        <v>382100</v>
       </c>
       <c r="J18" s="3">
-        <v>310900</v>
+        <v>290400</v>
       </c>
       <c r="K18" s="3">
         <v>129600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>113600</v>
+        <v>106100</v>
       </c>
       <c r="E20" s="3">
-        <v>200300</v>
+        <v>187100</v>
       </c>
       <c r="F20" s="3">
-        <v>60400</v>
+        <v>56400</v>
       </c>
       <c r="G20" s="3">
-        <v>79800</v>
+        <v>74500</v>
       </c>
       <c r="H20" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="I20" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="J20" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="K20" s="3">
         <v>48200</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1055100</v>
       </c>
       <c r="E21" s="3">
-        <v>1298300</v>
+        <v>1213900</v>
       </c>
       <c r="F21" s="3">
-        <v>943800</v>
+        <v>882500</v>
       </c>
       <c r="G21" s="3">
-        <v>599400</v>
+        <v>560800</v>
       </c>
       <c r="H21" s="3">
-        <v>590700</v>
+        <v>552900</v>
       </c>
       <c r="I21" s="3">
-        <v>594300</v>
+        <v>556100</v>
       </c>
       <c r="J21" s="3">
-        <v>429400</v>
+        <v>401700</v>
       </c>
       <c r="K21" s="3">
         <v>234200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="H22" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="I22" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="J22" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>926600</v>
+        <v>865500</v>
       </c>
       <c r="E23" s="3">
-        <v>1107400</v>
+        <v>1034400</v>
       </c>
       <c r="F23" s="3">
-        <v>779800</v>
+        <v>728400</v>
       </c>
       <c r="G23" s="3">
-        <v>433400</v>
+        <v>404800</v>
       </c>
       <c r="H23" s="3">
-        <v>400800</v>
+        <v>374400</v>
       </c>
       <c r="I23" s="3">
-        <v>420600</v>
+        <v>392900</v>
       </c>
       <c r="J23" s="3">
-        <v>323500</v>
+        <v>302200</v>
       </c>
       <c r="K23" s="3">
         <v>166000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>192900</v>
+        <v>180200</v>
       </c>
       <c r="E24" s="3">
-        <v>178300</v>
+        <v>166500</v>
       </c>
       <c r="F24" s="3">
-        <v>155200</v>
+        <v>144900</v>
       </c>
       <c r="G24" s="3">
-        <v>89400</v>
+        <v>83500</v>
       </c>
       <c r="H24" s="3">
-        <v>98800</v>
+        <v>92300</v>
       </c>
       <c r="I24" s="3">
-        <v>94900</v>
+        <v>88700</v>
       </c>
       <c r="J24" s="3">
-        <v>72200</v>
+        <v>67500</v>
       </c>
       <c r="K24" s="3">
         <v>38400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>733700</v>
+        <v>685300</v>
       </c>
       <c r="E26" s="3">
-        <v>929100</v>
+        <v>867900</v>
       </c>
       <c r="F26" s="3">
-        <v>624600</v>
+        <v>583400</v>
       </c>
       <c r="G26" s="3">
-        <v>344000</v>
+        <v>321300</v>
       </c>
       <c r="H26" s="3">
-        <v>302100</v>
+        <v>282200</v>
       </c>
       <c r="I26" s="3">
-        <v>325700</v>
+        <v>304200</v>
       </c>
       <c r="J26" s="3">
-        <v>251300</v>
+        <v>234700</v>
       </c>
       <c r="K26" s="3">
         <v>127600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>738500</v>
+        <v>689800</v>
       </c>
       <c r="E27" s="3">
-        <v>931900</v>
+        <v>870400</v>
       </c>
       <c r="F27" s="3">
-        <v>633700</v>
+        <v>591900</v>
       </c>
       <c r="G27" s="3">
-        <v>335800</v>
+        <v>313700</v>
       </c>
       <c r="H27" s="3">
-        <v>307600</v>
+        <v>287300</v>
       </c>
       <c r="I27" s="3">
-        <v>321300</v>
+        <v>300100</v>
       </c>
       <c r="J27" s="3">
-        <v>250800</v>
+        <v>234300</v>
       </c>
       <c r="K27" s="3">
         <v>131700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-113600</v>
+        <v>-106100</v>
       </c>
       <c r="E32" s="3">
-        <v>-200300</v>
+        <v>-187100</v>
       </c>
       <c r="F32" s="3">
-        <v>-60400</v>
+        <v>-56400</v>
       </c>
       <c r="G32" s="3">
-        <v>-79800</v>
+        <v>-74500</v>
       </c>
       <c r="H32" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="I32" s="3">
-        <v>-24900</v>
+        <v>-23300</v>
       </c>
       <c r="J32" s="3">
-        <v>-26100</v>
+        <v>-24400</v>
       </c>
       <c r="K32" s="3">
         <v>-48200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>738500</v>
+        <v>689800</v>
       </c>
       <c r="E33" s="3">
-        <v>931900</v>
+        <v>870400</v>
       </c>
       <c r="F33" s="3">
-        <v>633700</v>
+        <v>591900</v>
       </c>
       <c r="G33" s="3">
-        <v>335800</v>
+        <v>313700</v>
       </c>
       <c r="H33" s="3">
-        <v>307600</v>
+        <v>287300</v>
       </c>
       <c r="I33" s="3">
-        <v>321300</v>
+        <v>300100</v>
       </c>
       <c r="J33" s="3">
-        <v>250800</v>
+        <v>234300</v>
       </c>
       <c r="K33" s="3">
         <v>131700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>738500</v>
+        <v>689800</v>
       </c>
       <c r="E35" s="3">
-        <v>931900</v>
+        <v>870400</v>
       </c>
       <c r="F35" s="3">
-        <v>633700</v>
+        <v>591900</v>
       </c>
       <c r="G35" s="3">
-        <v>335800</v>
+        <v>313700</v>
       </c>
       <c r="H35" s="3">
-        <v>307600</v>
+        <v>287300</v>
       </c>
       <c r="I35" s="3">
-        <v>321300</v>
+        <v>300100</v>
       </c>
       <c r="J35" s="3">
-        <v>250800</v>
+        <v>234300</v>
       </c>
       <c r="K35" s="3">
         <v>131700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2571100</v>
+        <v>2401600</v>
       </c>
       <c r="E41" s="3">
-        <v>1892400</v>
+        <v>1767600</v>
       </c>
       <c r="F41" s="3">
-        <v>1037100</v>
+        <v>968700</v>
       </c>
       <c r="G41" s="3">
-        <v>1505100</v>
+        <v>1405900</v>
       </c>
       <c r="H41" s="3">
-        <v>1573500</v>
+        <v>1469800</v>
       </c>
       <c r="I41" s="3">
-        <v>648300</v>
+        <v>605600</v>
       </c>
       <c r="J41" s="3">
-        <v>524500</v>
+        <v>489900</v>
       </c>
       <c r="K41" s="3">
         <v>750000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>849000</v>
+        <v>793000</v>
       </c>
       <c r="E42" s="3">
-        <v>1156200</v>
+        <v>1080000</v>
       </c>
       <c r="F42" s="3">
-        <v>481600</v>
+        <v>449800</v>
       </c>
       <c r="G42" s="3">
-        <v>366200</v>
+        <v>342100</v>
       </c>
       <c r="H42" s="3">
-        <v>38800</v>
+        <v>36200</v>
       </c>
       <c r="I42" s="3">
-        <v>106000</v>
+        <v>99000</v>
       </c>
       <c r="J42" s="3">
-        <v>285100</v>
+        <v>266300</v>
       </c>
       <c r="K42" s="3">
         <v>590000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>540200</v>
+        <v>504600</v>
       </c>
       <c r="E43" s="3">
-        <v>470400</v>
+        <v>439400</v>
       </c>
       <c r="F43" s="3">
-        <v>717500</v>
+        <v>670200</v>
       </c>
       <c r="G43" s="3">
-        <v>1514200</v>
+        <v>1414300</v>
       </c>
       <c r="H43" s="3">
-        <v>1339100</v>
+        <v>1250800</v>
       </c>
       <c r="I43" s="3">
-        <v>716800</v>
+        <v>669600</v>
       </c>
       <c r="J43" s="3">
-        <v>347100</v>
+        <v>324200</v>
       </c>
       <c r="K43" s="3">
         <v>155700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1083000</v>
+        <v>1011600</v>
       </c>
       <c r="E44" s="3">
-        <v>1205700</v>
+        <v>1126200</v>
       </c>
       <c r="F44" s="3">
-        <v>1216100</v>
+        <v>1135900</v>
       </c>
       <c r="G44" s="3">
-        <v>846900</v>
+        <v>791000</v>
       </c>
       <c r="H44" s="3">
-        <v>1098000</v>
+        <v>1025700</v>
       </c>
       <c r="I44" s="3">
-        <v>780700</v>
+        <v>729200</v>
       </c>
       <c r="J44" s="3">
-        <v>720400</v>
+        <v>673000</v>
       </c>
       <c r="K44" s="3">
         <v>561800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>137900</v>
+        <v>128800</v>
       </c>
       <c r="E45" s="3">
-        <v>193200</v>
+        <v>180500</v>
       </c>
       <c r="F45" s="3">
-        <v>180700</v>
+        <v>168800</v>
       </c>
       <c r="G45" s="3">
-        <v>78600</v>
+        <v>73400</v>
       </c>
       <c r="H45" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="I45" s="3">
-        <v>48500</v>
+        <v>45300</v>
       </c>
       <c r="J45" s="3">
-        <v>40100</v>
+        <v>37500</v>
       </c>
       <c r="K45" s="3">
         <v>52700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5181100</v>
+        <v>4839600</v>
       </c>
       <c r="E46" s="3">
-        <v>4917800</v>
+        <v>4593700</v>
       </c>
       <c r="F46" s="3">
-        <v>3632900</v>
+        <v>3393400</v>
       </c>
       <c r="G46" s="3">
-        <v>4310900</v>
+        <v>4026700</v>
       </c>
       <c r="H46" s="3">
-        <v>4088500</v>
+        <v>3819000</v>
       </c>
       <c r="I46" s="3">
-        <v>2300300</v>
+        <v>2148600</v>
       </c>
       <c r="J46" s="3">
-        <v>1917300</v>
+        <v>1790900</v>
       </c>
       <c r="K46" s="3">
         <v>2069800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>782500</v>
+        <v>730900</v>
       </c>
       <c r="E47" s="3">
-        <v>759000</v>
+        <v>708900</v>
       </c>
       <c r="F47" s="3">
-        <v>823100</v>
+        <v>768900</v>
       </c>
       <c r="G47" s="3">
-        <v>337300</v>
+        <v>315100</v>
       </c>
       <c r="H47" s="3">
-        <v>94700</v>
+        <v>88500</v>
       </c>
       <c r="I47" s="3">
-        <v>158400</v>
+        <v>148000</v>
       </c>
       <c r="J47" s="3">
-        <v>159700</v>
+        <v>149200</v>
       </c>
       <c r="K47" s="3">
         <v>61100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2449200</v>
+        <v>2287800</v>
       </c>
       <c r="E48" s="3">
-        <v>2392500</v>
+        <v>2234700</v>
       </c>
       <c r="F48" s="3">
-        <v>2046500</v>
+        <v>1911600</v>
       </c>
       <c r="G48" s="3">
-        <v>1345900</v>
+        <v>1257200</v>
       </c>
       <c r="H48" s="3">
-        <v>1050800</v>
+        <v>981500</v>
       </c>
       <c r="I48" s="3">
-        <v>704800</v>
+        <v>658300</v>
       </c>
       <c r="J48" s="3">
-        <v>465300</v>
+        <v>434700</v>
       </c>
       <c r="K48" s="3">
         <v>598500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143600</v>
+        <v>134100</v>
       </c>
       <c r="E49" s="3">
-        <v>146200</v>
+        <v>136600</v>
       </c>
       <c r="F49" s="3">
-        <v>90600</v>
+        <v>84600</v>
       </c>
       <c r="G49" s="3">
-        <v>113600</v>
+        <v>106100</v>
       </c>
       <c r="H49" s="3">
-        <v>121200</v>
+        <v>113200</v>
       </c>
       <c r="I49" s="3">
-        <v>172300</v>
+        <v>161000</v>
       </c>
       <c r="J49" s="3">
-        <v>134600</v>
+        <v>125700</v>
       </c>
       <c r="K49" s="3">
         <v>172100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1270100</v>
+        <v>1186300</v>
       </c>
       <c r="E52" s="3">
-        <v>1083000</v>
+        <v>1011600</v>
       </c>
       <c r="F52" s="3">
-        <v>1071300</v>
+        <v>1000700</v>
       </c>
       <c r="G52" s="3">
-        <v>764700</v>
+        <v>714300</v>
       </c>
       <c r="H52" s="3">
-        <v>637000</v>
+        <v>595000</v>
       </c>
       <c r="I52" s="3">
-        <v>623100</v>
+        <v>582000</v>
       </c>
       <c r="J52" s="3">
-        <v>483900</v>
+        <v>452000</v>
       </c>
       <c r="K52" s="3">
         <v>64500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9826500</v>
+        <v>9178700</v>
       </c>
       <c r="E54" s="3">
-        <v>9298500</v>
+        <v>8685500</v>
       </c>
       <c r="F54" s="3">
-        <v>7664400</v>
+        <v>7159100</v>
       </c>
       <c r="G54" s="3">
-        <v>6872400</v>
+        <v>6419400</v>
       </c>
       <c r="H54" s="3">
-        <v>5992200</v>
+        <v>5597100</v>
       </c>
       <c r="I54" s="3">
-        <v>3958900</v>
+        <v>3697900</v>
       </c>
       <c r="J54" s="3">
-        <v>3160800</v>
+        <v>2952400</v>
       </c>
       <c r="K54" s="3">
         <v>2653900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2073700</v>
+        <v>1937000</v>
       </c>
       <c r="E57" s="3">
-        <v>2396600</v>
+        <v>2238600</v>
       </c>
       <c r="F57" s="3">
-        <v>2175900</v>
+        <v>2032400</v>
       </c>
       <c r="G57" s="3">
-        <v>1834800</v>
+        <v>1713800</v>
       </c>
       <c r="H57" s="3">
-        <v>1805600</v>
+        <v>1686600</v>
       </c>
       <c r="I57" s="3">
-        <v>1314700</v>
+        <v>1228000</v>
       </c>
       <c r="J57" s="3">
-        <v>1048400</v>
+        <v>979200</v>
       </c>
       <c r="K57" s="3">
         <v>958300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>311600</v>
+        <v>291100</v>
       </c>
       <c r="E58" s="3">
-        <v>164600</v>
+        <v>153800</v>
       </c>
       <c r="F58" s="3">
-        <v>172500</v>
+        <v>161200</v>
       </c>
       <c r="G58" s="3">
-        <v>1047400</v>
+        <v>978400</v>
       </c>
       <c r="H58" s="3">
-        <v>263000</v>
+        <v>245700</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1680300</v>
+        <v>1569500</v>
       </c>
       <c r="E59" s="3">
-        <v>1630300</v>
+        <v>1522800</v>
       </c>
       <c r="F59" s="3">
-        <v>1426100</v>
+        <v>1332100</v>
       </c>
       <c r="G59" s="3">
-        <v>1211000</v>
+        <v>1131200</v>
       </c>
       <c r="H59" s="3">
-        <v>969500</v>
+        <v>905600</v>
       </c>
       <c r="I59" s="3">
-        <v>986000</v>
+        <v>921000</v>
       </c>
       <c r="J59" s="3">
-        <v>856000</v>
+        <v>799500</v>
       </c>
       <c r="K59" s="3">
         <v>998000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4065600</v>
+        <v>3797600</v>
       </c>
       <c r="E60" s="3">
-        <v>4191500</v>
+        <v>3915200</v>
       </c>
       <c r="F60" s="3">
-        <v>3774500</v>
+        <v>3525700</v>
       </c>
       <c r="G60" s="3">
-        <v>4093200</v>
+        <v>3823400</v>
       </c>
       <c r="H60" s="3">
-        <v>3038100</v>
+        <v>2837800</v>
       </c>
       <c r="I60" s="3">
-        <v>2300700</v>
+        <v>2149000</v>
       </c>
       <c r="J60" s="3">
-        <v>1919300</v>
+        <v>1792800</v>
       </c>
       <c r="K60" s="3">
         <v>1589900</v>
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>646000</v>
+        <v>603400</v>
       </c>
       <c r="I61" s="3">
-        <v>691300</v>
+        <v>645700</v>
       </c>
       <c r="J61" s="3">
-        <v>640200</v>
+        <v>598000</v>
       </c>
       <c r="K61" s="3">
         <v>603500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>424100</v>
+        <v>396100</v>
       </c>
       <c r="E62" s="3">
-        <v>471100</v>
+        <v>440000</v>
       </c>
       <c r="F62" s="3">
-        <v>369600</v>
+        <v>345200</v>
       </c>
       <c r="G62" s="3">
-        <v>64000</v>
+        <v>59800</v>
       </c>
       <c r="H62" s="3">
-        <v>59900</v>
+        <v>55900</v>
       </c>
       <c r="I62" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="J62" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="K62" s="3">
         <v>38000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4678300</v>
+        <v>4369900</v>
       </c>
       <c r="E66" s="3">
-        <v>4802700</v>
+        <v>4486100</v>
       </c>
       <c r="F66" s="3">
-        <v>4221000</v>
+        <v>3942700</v>
       </c>
       <c r="G66" s="3">
-        <v>4149200</v>
+        <v>3875700</v>
       </c>
       <c r="H66" s="3">
-        <v>3737100</v>
+        <v>3490700</v>
       </c>
       <c r="I66" s="3">
-        <v>3054600</v>
+        <v>2853200</v>
       </c>
       <c r="J66" s="3">
-        <v>2602500</v>
+        <v>2430900</v>
       </c>
       <c r="K66" s="3">
         <v>2254000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3537200</v>
+        <v>3304000</v>
       </c>
       <c r="E72" s="3">
-        <v>2798700</v>
+        <v>2614200</v>
       </c>
       <c r="F72" s="3">
-        <v>1881200</v>
+        <v>1757200</v>
       </c>
       <c r="G72" s="3">
-        <v>1247500</v>
+        <v>1165200</v>
       </c>
       <c r="H72" s="3">
-        <v>883900</v>
+        <v>825600</v>
       </c>
       <c r="I72" s="3">
-        <v>576300</v>
+        <v>538300</v>
       </c>
       <c r="J72" s="3">
-        <v>255000</v>
+        <v>238200</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5148200</v>
+        <v>4808800</v>
       </c>
       <c r="E76" s="3">
-        <v>4495800</v>
+        <v>4199400</v>
       </c>
       <c r="F76" s="3">
-        <v>3443500</v>
+        <v>3216400</v>
       </c>
       <c r="G76" s="3">
-        <v>2723200</v>
+        <v>2543700</v>
       </c>
       <c r="H76" s="3">
-        <v>2255100</v>
+        <v>2106400</v>
       </c>
       <c r="I76" s="3">
-        <v>904300</v>
+        <v>844700</v>
       </c>
       <c r="J76" s="3">
-        <v>558300</v>
+        <v>521500</v>
       </c>
       <c r="K76" s="3">
         <v>399900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>738500</v>
+        <v>689800</v>
       </c>
       <c r="E81" s="3">
-        <v>931900</v>
+        <v>870400</v>
       </c>
       <c r="F81" s="3">
-        <v>633700</v>
+        <v>591900</v>
       </c>
       <c r="G81" s="3">
-        <v>335800</v>
+        <v>313700</v>
       </c>
       <c r="H81" s="3">
-        <v>307600</v>
+        <v>287300</v>
       </c>
       <c r="I81" s="3">
-        <v>321300</v>
+        <v>300100</v>
       </c>
       <c r="J81" s="3">
-        <v>250800</v>
+        <v>234300</v>
       </c>
       <c r="K81" s="3">
         <v>131700</v>
@@ -3300,26 +3300,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>185600</v>
       </c>
       <c r="E83" s="3">
-        <v>179700</v>
+        <v>167900</v>
       </c>
       <c r="F83" s="3">
-        <v>150000</v>
+        <v>140100</v>
       </c>
       <c r="G83" s="3">
-        <v>140400</v>
+        <v>131100</v>
       </c>
       <c r="H83" s="3">
-        <v>176200</v>
+        <v>164600</v>
       </c>
       <c r="I83" s="3">
-        <v>159700</v>
+        <v>149200</v>
       </c>
       <c r="J83" s="3">
-        <v>92100</v>
+        <v>86000</v>
       </c>
       <c r="K83" s="3">
         <v>56500</v>
@@ -3534,26 +3534,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>993900</v>
       </c>
       <c r="E89" s="3">
-        <v>1864800</v>
+        <v>1741900</v>
       </c>
       <c r="F89" s="3">
-        <v>1938900</v>
+        <v>1811100</v>
       </c>
       <c r="G89" s="3">
-        <v>906400</v>
+        <v>846700</v>
       </c>
       <c r="H89" s="3">
-        <v>154800</v>
+        <v>144600</v>
       </c>
       <c r="I89" s="3">
-        <v>446700</v>
+        <v>417200</v>
       </c>
       <c r="J89" s="3">
-        <v>302100</v>
+        <v>282200</v>
       </c>
       <c r="K89" s="3">
         <v>510800</v>
@@ -3590,26 +3590,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-527300</v>
       </c>
       <c r="E91" s="3">
-        <v>-358400</v>
+        <v>-334800</v>
       </c>
       <c r="F91" s="3">
-        <v>-674800</v>
+        <v>-630400</v>
       </c>
       <c r="G91" s="3">
-        <v>-567000</v>
+        <v>-529600</v>
       </c>
       <c r="H91" s="3">
-        <v>-390400</v>
+        <v>-364600</v>
       </c>
       <c r="I91" s="3">
-        <v>-342700</v>
+        <v>-320100</v>
       </c>
       <c r="J91" s="3">
-        <v>-364600</v>
+        <v>-340500</v>
       </c>
       <c r="K91" s="3">
         <v>-266200</v>
@@ -3707,26 +3707,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-342800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1056200</v>
+        <v>-986600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1300000</v>
+        <v>-1214300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1056000</v>
+        <v>-986400</v>
       </c>
       <c r="H94" s="3">
-        <v>-320700</v>
+        <v>-299500</v>
       </c>
       <c r="I94" s="3">
-        <v>-263300</v>
+        <v>-245900</v>
       </c>
       <c r="J94" s="3">
-        <v>-463400</v>
+        <v>-432800</v>
       </c>
       <c r="K94" s="3">
         <v>-665900</v>
@@ -3919,26 +3919,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-8700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F100" s="3">
-        <v>-987100</v>
+        <v>-922000</v>
       </c>
       <c r="G100" s="3">
-        <v>92600</v>
+        <v>86500</v>
       </c>
       <c r="H100" s="3">
-        <v>1131100</v>
+        <v>1056500</v>
       </c>
       <c r="I100" s="3">
-        <v>-62000</v>
+        <v>-57900</v>
       </c>
       <c r="J100" s="3">
-        <v>-85100</v>
+        <v>-79400</v>
       </c>
       <c r="K100" s="3">
         <v>603100</v>
@@ -3958,26 +3958,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="G101" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="K101" s="3">
         <v>-15200</v>
@@ -3997,26 +3997,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>642500</v>
       </c>
       <c r="E102" s="3">
-        <v>803300</v>
+        <v>750400</v>
       </c>
       <c r="F102" s="3">
-        <v>-365900</v>
+        <v>-341800</v>
       </c>
       <c r="G102" s="3">
-        <v>-29000</v>
+        <v>-27000</v>
       </c>
       <c r="H102" s="3">
-        <v>964300</v>
+        <v>900700</v>
       </c>
       <c r="I102" s="3">
-        <v>123900</v>
+        <v>115700</v>
       </c>
       <c r="J102" s="3">
-        <v>-231300</v>
+        <v>-216100</v>
       </c>
       <c r="K102" s="3">
         <v>432800</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17249900</v>
+        <v>17094200</v>
       </c>
       <c r="E8" s="3">
-        <v>15009900</v>
+        <v>14874400</v>
       </c>
       <c r="F8" s="3">
-        <v>13703700</v>
+        <v>13580000</v>
       </c>
       <c r="G8" s="3">
-        <v>12455400</v>
+        <v>12343000</v>
       </c>
       <c r="H8" s="3">
-        <v>10744400</v>
+        <v>10647400</v>
       </c>
       <c r="I8" s="3">
-        <v>8339300</v>
+        <v>8264000</v>
       </c>
       <c r="J8" s="3">
-        <v>5924300</v>
+        <v>5870900</v>
       </c>
       <c r="K8" s="3">
         <v>3621100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13844900</v>
+        <v>13720000</v>
       </c>
       <c r="E9" s="3">
-        <v>11873300</v>
+        <v>11766100</v>
       </c>
       <c r="F9" s="3">
-        <v>10656200</v>
+        <v>10560000</v>
       </c>
       <c r="G9" s="3">
-        <v>9940200</v>
+        <v>9850500</v>
       </c>
       <c r="H9" s="3">
-        <v>8343300</v>
+        <v>8268000</v>
       </c>
       <c r="I9" s="3">
-        <v>6335700</v>
+        <v>6278500</v>
       </c>
       <c r="J9" s="3">
-        <v>4466000</v>
+        <v>4425700</v>
       </c>
       <c r="K9" s="3">
         <v>2720700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3405000</v>
+        <v>3374300</v>
       </c>
       <c r="E10" s="3">
-        <v>3136600</v>
+        <v>3108300</v>
       </c>
       <c r="F10" s="3">
-        <v>3047400</v>
+        <v>3019900</v>
       </c>
       <c r="G10" s="3">
-        <v>2515300</v>
+        <v>2492600</v>
       </c>
       <c r="H10" s="3">
-        <v>2401100</v>
+        <v>2379400</v>
       </c>
       <c r="I10" s="3">
-        <v>2003600</v>
+        <v>1985500</v>
       </c>
       <c r="J10" s="3">
-        <v>1458300</v>
+        <v>1445200</v>
       </c>
       <c r="K10" s="3">
         <v>900400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="E14" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="G14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I14" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="J14" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="K14" s="3">
         <v>1000</v>
@@ -980,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>122400</v>
+        <v>121300</v>
       </c>
       <c r="G15" s="3">
-        <v>113500</v>
+        <v>112500</v>
       </c>
       <c r="H15" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="I15" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="J15" s="3">
-        <v>42900</v>
+        <v>42600</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16488400</v>
+        <v>16339600</v>
       </c>
       <c r="E17" s="3">
-        <v>14152700</v>
+        <v>14024900</v>
       </c>
       <c r="F17" s="3">
-        <v>13019100</v>
+        <v>12901600</v>
       </c>
       <c r="G17" s="3">
-        <v>12101600</v>
+        <v>11992400</v>
       </c>
       <c r="H17" s="3">
-        <v>10367500</v>
+        <v>10273900</v>
       </c>
       <c r="I17" s="3">
-        <v>7957200</v>
+        <v>7885400</v>
       </c>
       <c r="J17" s="3">
-        <v>5633900</v>
+        <v>5583100</v>
       </c>
       <c r="K17" s="3">
         <v>3491600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>761500</v>
+        <v>754600</v>
       </c>
       <c r="E18" s="3">
-        <v>857200</v>
+        <v>849400</v>
       </c>
       <c r="F18" s="3">
-        <v>684600</v>
+        <v>678400</v>
       </c>
       <c r="G18" s="3">
-        <v>353800</v>
+        <v>350600</v>
       </c>
       <c r="H18" s="3">
-        <v>376900</v>
+        <v>373500</v>
       </c>
       <c r="I18" s="3">
-        <v>382100</v>
+        <v>378700</v>
       </c>
       <c r="J18" s="3">
-        <v>290400</v>
+        <v>287800</v>
       </c>
       <c r="K18" s="3">
         <v>129600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106100</v>
+        <v>105200</v>
       </c>
       <c r="E20" s="3">
-        <v>187100</v>
+        <v>185400</v>
       </c>
       <c r="F20" s="3">
-        <v>56400</v>
+        <v>55900</v>
       </c>
       <c r="G20" s="3">
-        <v>74500</v>
+        <v>73900</v>
       </c>
       <c r="H20" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I20" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="J20" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="K20" s="3">
         <v>48200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1055100</v>
+        <v>1043400</v>
       </c>
       <c r="E21" s="3">
-        <v>1213900</v>
+        <v>1201000</v>
       </c>
       <c r="F21" s="3">
-        <v>882500</v>
+        <v>873000</v>
       </c>
       <c r="G21" s="3">
-        <v>560800</v>
+        <v>554200</v>
       </c>
       <c r="H21" s="3">
-        <v>552900</v>
+        <v>546000</v>
       </c>
       <c r="I21" s="3">
-        <v>556100</v>
+        <v>549400</v>
       </c>
       <c r="J21" s="3">
-        <v>401700</v>
+        <v>397100</v>
       </c>
       <c r="K21" s="3">
         <v>234200</v>
@@ -1203,22 +1203,22 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G22" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="H22" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I22" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="J22" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>865500</v>
+        <v>857700</v>
       </c>
       <c r="E23" s="3">
-        <v>1034400</v>
+        <v>1025000</v>
       </c>
       <c r="F23" s="3">
-        <v>728400</v>
+        <v>721800</v>
       </c>
       <c r="G23" s="3">
-        <v>404800</v>
+        <v>401200</v>
       </c>
       <c r="H23" s="3">
-        <v>374400</v>
+        <v>371000</v>
       </c>
       <c r="I23" s="3">
-        <v>392900</v>
+        <v>389300</v>
       </c>
       <c r="J23" s="3">
-        <v>302200</v>
+        <v>299400</v>
       </c>
       <c r="K23" s="3">
         <v>166000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180200</v>
+        <v>178600</v>
       </c>
       <c r="E24" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="F24" s="3">
-        <v>144900</v>
+        <v>143600</v>
       </c>
       <c r="G24" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="H24" s="3">
-        <v>92300</v>
+        <v>91400</v>
       </c>
       <c r="I24" s="3">
-        <v>88700</v>
+        <v>87900</v>
       </c>
       <c r="J24" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="K24" s="3">
         <v>38400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>685300</v>
+        <v>679100</v>
       </c>
       <c r="E26" s="3">
-        <v>867900</v>
+        <v>860000</v>
       </c>
       <c r="F26" s="3">
-        <v>583400</v>
+        <v>578200</v>
       </c>
       <c r="G26" s="3">
-        <v>321300</v>
+        <v>318400</v>
       </c>
       <c r="H26" s="3">
-        <v>282200</v>
+        <v>279600</v>
       </c>
       <c r="I26" s="3">
-        <v>304200</v>
+        <v>301400</v>
       </c>
       <c r="J26" s="3">
-        <v>234700</v>
+        <v>232600</v>
       </c>
       <c r="K26" s="3">
         <v>127600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>689800</v>
+        <v>683600</v>
       </c>
       <c r="E27" s="3">
-        <v>870400</v>
+        <v>862600</v>
       </c>
       <c r="F27" s="3">
-        <v>591900</v>
+        <v>586600</v>
       </c>
       <c r="G27" s="3">
-        <v>313700</v>
+        <v>310900</v>
       </c>
       <c r="H27" s="3">
-        <v>287300</v>
+        <v>284700</v>
       </c>
       <c r="I27" s="3">
-        <v>300100</v>
+        <v>297400</v>
       </c>
       <c r="J27" s="3">
-        <v>234300</v>
+        <v>232100</v>
       </c>
       <c r="K27" s="3">
         <v>131700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106100</v>
+        <v>-105200</v>
       </c>
       <c r="E32" s="3">
-        <v>-187100</v>
+        <v>-185400</v>
       </c>
       <c r="F32" s="3">
-        <v>-56400</v>
+        <v>-55900</v>
       </c>
       <c r="G32" s="3">
-        <v>-74500</v>
+        <v>-73900</v>
       </c>
       <c r="H32" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I32" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J32" s="3">
-        <v>-24400</v>
+        <v>-24200</v>
       </c>
       <c r="K32" s="3">
         <v>-48200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>689800</v>
+        <v>683600</v>
       </c>
       <c r="E33" s="3">
-        <v>870400</v>
+        <v>862600</v>
       </c>
       <c r="F33" s="3">
-        <v>591900</v>
+        <v>586600</v>
       </c>
       <c r="G33" s="3">
-        <v>313700</v>
+        <v>310900</v>
       </c>
       <c r="H33" s="3">
-        <v>287300</v>
+        <v>284700</v>
       </c>
       <c r="I33" s="3">
-        <v>300100</v>
+        <v>297400</v>
       </c>
       <c r="J33" s="3">
-        <v>234300</v>
+        <v>232100</v>
       </c>
       <c r="K33" s="3">
         <v>131700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>689800</v>
+        <v>683600</v>
       </c>
       <c r="E35" s="3">
-        <v>870400</v>
+        <v>862600</v>
       </c>
       <c r="F35" s="3">
-        <v>591900</v>
+        <v>586600</v>
       </c>
       <c r="G35" s="3">
-        <v>313700</v>
+        <v>310900</v>
       </c>
       <c r="H35" s="3">
-        <v>287300</v>
+        <v>284700</v>
       </c>
       <c r="I35" s="3">
-        <v>300100</v>
+        <v>297400</v>
       </c>
       <c r="J35" s="3">
-        <v>234300</v>
+        <v>232100</v>
       </c>
       <c r="K35" s="3">
         <v>131700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2401600</v>
+        <v>2379900</v>
       </c>
       <c r="E41" s="3">
-        <v>1767600</v>
+        <v>1751700</v>
       </c>
       <c r="F41" s="3">
-        <v>968700</v>
+        <v>960000</v>
       </c>
       <c r="G41" s="3">
-        <v>1405900</v>
+        <v>1393200</v>
       </c>
       <c r="H41" s="3">
-        <v>1469800</v>
+        <v>1456500</v>
       </c>
       <c r="I41" s="3">
-        <v>605600</v>
+        <v>600100</v>
       </c>
       <c r="J41" s="3">
-        <v>489900</v>
+        <v>485500</v>
       </c>
       <c r="K41" s="3">
         <v>750000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>793000</v>
+        <v>785900</v>
       </c>
       <c r="E42" s="3">
-        <v>1080000</v>
+        <v>1070200</v>
       </c>
       <c r="F42" s="3">
-        <v>449800</v>
+        <v>445800</v>
       </c>
       <c r="G42" s="3">
-        <v>342100</v>
+        <v>339000</v>
       </c>
       <c r="H42" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="I42" s="3">
-        <v>99000</v>
+        <v>98100</v>
       </c>
       <c r="J42" s="3">
-        <v>266300</v>
+        <v>263900</v>
       </c>
       <c r="K42" s="3">
         <v>590000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>504600</v>
+        <v>500000</v>
       </c>
       <c r="E43" s="3">
-        <v>439400</v>
+        <v>435400</v>
       </c>
       <c r="F43" s="3">
-        <v>670200</v>
+        <v>664100</v>
       </c>
       <c r="G43" s="3">
-        <v>1414300</v>
+        <v>1401600</v>
       </c>
       <c r="H43" s="3">
-        <v>1250800</v>
+        <v>1239500</v>
       </c>
       <c r="I43" s="3">
-        <v>669600</v>
+        <v>663500</v>
       </c>
       <c r="J43" s="3">
-        <v>324200</v>
+        <v>321300</v>
       </c>
       <c r="K43" s="3">
         <v>155700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1011600</v>
+        <v>1002500</v>
       </c>
       <c r="E44" s="3">
-        <v>1126200</v>
+        <v>1116000</v>
       </c>
       <c r="F44" s="3">
-        <v>1135900</v>
+        <v>1125600</v>
       </c>
       <c r="G44" s="3">
-        <v>791000</v>
+        <v>783900</v>
       </c>
       <c r="H44" s="3">
-        <v>1025700</v>
+        <v>1016400</v>
       </c>
       <c r="I44" s="3">
-        <v>729200</v>
+        <v>722600</v>
       </c>
       <c r="J44" s="3">
-        <v>673000</v>
+        <v>666900</v>
       </c>
       <c r="K44" s="3">
         <v>561800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128800</v>
+        <v>127600</v>
       </c>
       <c r="E45" s="3">
-        <v>180500</v>
+        <v>178800</v>
       </c>
       <c r="F45" s="3">
-        <v>168800</v>
+        <v>167300</v>
       </c>
       <c r="G45" s="3">
-        <v>73400</v>
+        <v>72700</v>
       </c>
       <c r="H45" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="I45" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="J45" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="K45" s="3">
         <v>52700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4839600</v>
+        <v>4795900</v>
       </c>
       <c r="E46" s="3">
-        <v>4593700</v>
+        <v>4552200</v>
       </c>
       <c r="F46" s="3">
-        <v>3393400</v>
+        <v>3362800</v>
       </c>
       <c r="G46" s="3">
-        <v>4026700</v>
+        <v>3990400</v>
       </c>
       <c r="H46" s="3">
-        <v>3819000</v>
+        <v>3784500</v>
       </c>
       <c r="I46" s="3">
-        <v>2148600</v>
+        <v>2129200</v>
       </c>
       <c r="J46" s="3">
-        <v>1790900</v>
+        <v>1774700</v>
       </c>
       <c r="K46" s="3">
         <v>2069800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>730900</v>
+        <v>724300</v>
       </c>
       <c r="E47" s="3">
-        <v>708900</v>
+        <v>702500</v>
       </c>
       <c r="F47" s="3">
-        <v>768900</v>
+        <v>761900</v>
       </c>
       <c r="G47" s="3">
-        <v>315100</v>
+        <v>312200</v>
       </c>
       <c r="H47" s="3">
-        <v>88500</v>
+        <v>87700</v>
       </c>
       <c r="I47" s="3">
-        <v>148000</v>
+        <v>146600</v>
       </c>
       <c r="J47" s="3">
-        <v>149200</v>
+        <v>147800</v>
       </c>
       <c r="K47" s="3">
         <v>61100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2287800</v>
+        <v>2267100</v>
       </c>
       <c r="E48" s="3">
-        <v>2234700</v>
+        <v>2214600</v>
       </c>
       <c r="F48" s="3">
-        <v>1911600</v>
+        <v>1894400</v>
       </c>
       <c r="G48" s="3">
-        <v>1257200</v>
+        <v>1245900</v>
       </c>
       <c r="H48" s="3">
-        <v>981500</v>
+        <v>972700</v>
       </c>
       <c r="I48" s="3">
-        <v>658300</v>
+        <v>652400</v>
       </c>
       <c r="J48" s="3">
-        <v>434700</v>
+        <v>430700</v>
       </c>
       <c r="K48" s="3">
         <v>598500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>134100</v>
+        <v>132900</v>
       </c>
       <c r="E49" s="3">
-        <v>136600</v>
+        <v>135300</v>
       </c>
       <c r="F49" s="3">
-        <v>84600</v>
+        <v>83800</v>
       </c>
       <c r="G49" s="3">
-        <v>106100</v>
+        <v>105200</v>
       </c>
       <c r="H49" s="3">
-        <v>113200</v>
+        <v>112200</v>
       </c>
       <c r="I49" s="3">
-        <v>161000</v>
+        <v>159500</v>
       </c>
       <c r="J49" s="3">
-        <v>125700</v>
+        <v>124600</v>
       </c>
       <c r="K49" s="3">
         <v>172100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1186300</v>
+        <v>1175600</v>
       </c>
       <c r="E52" s="3">
-        <v>1011600</v>
+        <v>1002500</v>
       </c>
       <c r="F52" s="3">
-        <v>1000700</v>
+        <v>991600</v>
       </c>
       <c r="G52" s="3">
-        <v>714300</v>
+        <v>707900</v>
       </c>
       <c r="H52" s="3">
-        <v>595000</v>
+        <v>589600</v>
       </c>
       <c r="I52" s="3">
-        <v>582000</v>
+        <v>576800</v>
       </c>
       <c r="J52" s="3">
-        <v>452000</v>
+        <v>447900</v>
       </c>
       <c r="K52" s="3">
         <v>64500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9178700</v>
+        <v>9095800</v>
       </c>
       <c r="E54" s="3">
-        <v>8685500</v>
+        <v>8607100</v>
       </c>
       <c r="F54" s="3">
-        <v>7159100</v>
+        <v>7094500</v>
       </c>
       <c r="G54" s="3">
-        <v>6419400</v>
+        <v>6361500</v>
       </c>
       <c r="H54" s="3">
-        <v>5597100</v>
+        <v>5546600</v>
       </c>
       <c r="I54" s="3">
-        <v>3697900</v>
+        <v>3664500</v>
       </c>
       <c r="J54" s="3">
-        <v>2952400</v>
+        <v>2925800</v>
       </c>
       <c r="K54" s="3">
         <v>2653900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1937000</v>
+        <v>1919600</v>
       </c>
       <c r="E57" s="3">
-        <v>2238600</v>
+        <v>2218400</v>
       </c>
       <c r="F57" s="3">
-        <v>2032400</v>
+        <v>2014100</v>
       </c>
       <c r="G57" s="3">
-        <v>1713800</v>
+        <v>1698400</v>
       </c>
       <c r="H57" s="3">
-        <v>1686600</v>
+        <v>1671300</v>
       </c>
       <c r="I57" s="3">
-        <v>1228000</v>
+        <v>1217000</v>
       </c>
       <c r="J57" s="3">
-        <v>979200</v>
+        <v>970400</v>
       </c>
       <c r="K57" s="3">
         <v>958300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>291100</v>
+        <v>288400</v>
       </c>
       <c r="E58" s="3">
-        <v>153800</v>
+        <v>152400</v>
       </c>
       <c r="F58" s="3">
-        <v>161200</v>
+        <v>159700</v>
       </c>
       <c r="G58" s="3">
-        <v>978400</v>
+        <v>969600</v>
       </c>
       <c r="H58" s="3">
-        <v>245700</v>
+        <v>243500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1569500</v>
+        <v>1555400</v>
       </c>
       <c r="E59" s="3">
-        <v>1522800</v>
+        <v>1509100</v>
       </c>
       <c r="F59" s="3">
-        <v>1332100</v>
+        <v>1320100</v>
       </c>
       <c r="G59" s="3">
-        <v>1131200</v>
+        <v>1121000</v>
       </c>
       <c r="H59" s="3">
-        <v>905600</v>
+        <v>897400</v>
       </c>
       <c r="I59" s="3">
-        <v>921000</v>
+        <v>912700</v>
       </c>
       <c r="J59" s="3">
-        <v>799500</v>
+        <v>792300</v>
       </c>
       <c r="K59" s="3">
         <v>998000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3797600</v>
+        <v>3763300</v>
       </c>
       <c r="E60" s="3">
-        <v>3915200</v>
+        <v>3879900</v>
       </c>
       <c r="F60" s="3">
-        <v>3525700</v>
+        <v>3493900</v>
       </c>
       <c r="G60" s="3">
-        <v>3823400</v>
+        <v>3788900</v>
       </c>
       <c r="H60" s="3">
-        <v>2837800</v>
+        <v>2812200</v>
       </c>
       <c r="I60" s="3">
-        <v>2149000</v>
+        <v>2129600</v>
       </c>
       <c r="J60" s="3">
-        <v>1792800</v>
+        <v>1776600</v>
       </c>
       <c r="K60" s="3">
         <v>1589900</v>
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>603400</v>
+        <v>598000</v>
       </c>
       <c r="I61" s="3">
-        <v>645700</v>
+        <v>639900</v>
       </c>
       <c r="J61" s="3">
-        <v>598000</v>
+        <v>592600</v>
       </c>
       <c r="K61" s="3">
         <v>603500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396100</v>
+        <v>392600</v>
       </c>
       <c r="E62" s="3">
-        <v>440000</v>
+        <v>436100</v>
       </c>
       <c r="F62" s="3">
-        <v>345200</v>
+        <v>342100</v>
       </c>
       <c r="G62" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="H62" s="3">
-        <v>55900</v>
+        <v>55400</v>
       </c>
       <c r="I62" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="J62" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="K62" s="3">
         <v>38000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4369900</v>
+        <v>4330500</v>
       </c>
       <c r="E66" s="3">
-        <v>4486100</v>
+        <v>4445600</v>
       </c>
       <c r="F66" s="3">
-        <v>3942700</v>
+        <v>3907100</v>
       </c>
       <c r="G66" s="3">
-        <v>3875700</v>
+        <v>3840700</v>
       </c>
       <c r="H66" s="3">
-        <v>3490700</v>
+        <v>3459200</v>
       </c>
       <c r="I66" s="3">
-        <v>2853200</v>
+        <v>2827500</v>
       </c>
       <c r="J66" s="3">
-        <v>2430900</v>
+        <v>2409000</v>
       </c>
       <c r="K66" s="3">
         <v>2254000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3304000</v>
+        <v>3274200</v>
       </c>
       <c r="E72" s="3">
-        <v>2614200</v>
+        <v>2590600</v>
       </c>
       <c r="F72" s="3">
-        <v>1757200</v>
+        <v>1741300</v>
       </c>
       <c r="G72" s="3">
-        <v>1165200</v>
+        <v>1154700</v>
       </c>
       <c r="H72" s="3">
-        <v>825600</v>
+        <v>818200</v>
       </c>
       <c r="I72" s="3">
-        <v>538300</v>
+        <v>533500</v>
       </c>
       <c r="J72" s="3">
-        <v>238200</v>
+        <v>236000</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4808800</v>
+        <v>4765400</v>
       </c>
       <c r="E76" s="3">
-        <v>4199400</v>
+        <v>4161500</v>
       </c>
       <c r="F76" s="3">
-        <v>3216400</v>
+        <v>3187400</v>
       </c>
       <c r="G76" s="3">
-        <v>2543700</v>
+        <v>2520700</v>
       </c>
       <c r="H76" s="3">
-        <v>2106400</v>
+        <v>2087400</v>
       </c>
       <c r="I76" s="3">
-        <v>844700</v>
+        <v>837100</v>
       </c>
       <c r="J76" s="3">
-        <v>521500</v>
+        <v>516800</v>
       </c>
       <c r="K76" s="3">
         <v>399900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>689800</v>
+        <v>683600</v>
       </c>
       <c r="E81" s="3">
-        <v>870400</v>
+        <v>862600</v>
       </c>
       <c r="F81" s="3">
-        <v>591900</v>
+        <v>586600</v>
       </c>
       <c r="G81" s="3">
-        <v>313700</v>
+        <v>310900</v>
       </c>
       <c r="H81" s="3">
-        <v>287300</v>
+        <v>284700</v>
       </c>
       <c r="I81" s="3">
-        <v>300100</v>
+        <v>297400</v>
       </c>
       <c r="J81" s="3">
-        <v>234300</v>
+        <v>232100</v>
       </c>
       <c r="K81" s="3">
         <v>131700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185600</v>
+        <v>183900</v>
       </c>
       <c r="E83" s="3">
-        <v>167900</v>
+        <v>166400</v>
       </c>
       <c r="F83" s="3">
-        <v>140100</v>
+        <v>138800</v>
       </c>
       <c r="G83" s="3">
-        <v>131100</v>
+        <v>129900</v>
       </c>
       <c r="H83" s="3">
-        <v>164600</v>
+        <v>163100</v>
       </c>
       <c r="I83" s="3">
-        <v>149200</v>
+        <v>147900</v>
       </c>
       <c r="J83" s="3">
-        <v>86000</v>
+        <v>85300</v>
       </c>
       <c r="K83" s="3">
         <v>56500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>993900</v>
+        <v>984900</v>
       </c>
       <c r="E89" s="3">
-        <v>1741900</v>
+        <v>1726100</v>
       </c>
       <c r="F89" s="3">
-        <v>1811100</v>
+        <v>1794700</v>
       </c>
       <c r="G89" s="3">
-        <v>846700</v>
+        <v>839100</v>
       </c>
       <c r="H89" s="3">
-        <v>144600</v>
+        <v>143300</v>
       </c>
       <c r="I89" s="3">
-        <v>417200</v>
+        <v>413500</v>
       </c>
       <c r="J89" s="3">
-        <v>282200</v>
+        <v>279700</v>
       </c>
       <c r="K89" s="3">
         <v>510800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-527300</v>
+        <v>-522600</v>
       </c>
       <c r="E91" s="3">
-        <v>-334800</v>
+        <v>-331800</v>
       </c>
       <c r="F91" s="3">
-        <v>-630400</v>
+        <v>-624700</v>
       </c>
       <c r="G91" s="3">
-        <v>-529600</v>
+        <v>-524800</v>
       </c>
       <c r="H91" s="3">
-        <v>-364600</v>
+        <v>-361300</v>
       </c>
       <c r="I91" s="3">
-        <v>-320100</v>
+        <v>-317200</v>
       </c>
       <c r="J91" s="3">
-        <v>-340500</v>
+        <v>-337500</v>
       </c>
       <c r="K91" s="3">
         <v>-266200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342800</v>
+        <v>-339700</v>
       </c>
       <c r="E94" s="3">
-        <v>-986600</v>
+        <v>-977700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1214300</v>
+        <v>-1203400</v>
       </c>
       <c r="G94" s="3">
-        <v>-986400</v>
+        <v>-977500</v>
       </c>
       <c r="H94" s="3">
-        <v>-299500</v>
+        <v>-296800</v>
       </c>
       <c r="I94" s="3">
-        <v>-245900</v>
+        <v>-243700</v>
       </c>
       <c r="J94" s="3">
-        <v>-432800</v>
+        <v>-428900</v>
       </c>
       <c r="K94" s="3">
         <v>-665900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F100" s="3">
-        <v>-922000</v>
+        <v>-913700</v>
       </c>
       <c r="G100" s="3">
-        <v>86500</v>
+        <v>85700</v>
       </c>
       <c r="H100" s="3">
-        <v>1056500</v>
+        <v>1047000</v>
       </c>
       <c r="I100" s="3">
-        <v>-57900</v>
+        <v>-57400</v>
       </c>
       <c r="J100" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="K100" s="3">
         <v>603100</v>
@@ -3965,10 +3965,10 @@
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="G101" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="H101" s="3">
         <v>-900</v>
@@ -3977,7 +3977,7 @@
         <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K101" s="3">
         <v>-15200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>642500</v>
+        <v>636700</v>
       </c>
       <c r="E102" s="3">
-        <v>750400</v>
+        <v>743600</v>
       </c>
       <c r="F102" s="3">
-        <v>-341800</v>
+        <v>-338700</v>
       </c>
       <c r="G102" s="3">
-        <v>-27000</v>
+        <v>-26800</v>
       </c>
       <c r="H102" s="3">
-        <v>900700</v>
+        <v>892600</v>
       </c>
       <c r="I102" s="3">
-        <v>115700</v>
+        <v>114700</v>
       </c>
       <c r="J102" s="3">
-        <v>-216100</v>
+        <v>-214100</v>
       </c>
       <c r="K102" s="3">
         <v>432800</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17094200</v>
+        <v>16294700</v>
       </c>
       <c r="E8" s="3">
-        <v>14874400</v>
+        <v>14178700</v>
       </c>
       <c r="F8" s="3">
-        <v>13580000</v>
+        <v>12944800</v>
       </c>
       <c r="G8" s="3">
-        <v>12343000</v>
+        <v>11765700</v>
       </c>
       <c r="H8" s="3">
-        <v>10647400</v>
+        <v>10149400</v>
       </c>
       <c r="I8" s="3">
-        <v>8264000</v>
+        <v>7877500</v>
       </c>
       <c r="J8" s="3">
-        <v>5870900</v>
+        <v>5596300</v>
       </c>
       <c r="K8" s="3">
         <v>3621100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13720000</v>
+        <v>13078300</v>
       </c>
       <c r="E9" s="3">
-        <v>11766100</v>
+        <v>11215800</v>
       </c>
       <c r="F9" s="3">
-        <v>10560000</v>
+        <v>10066100</v>
       </c>
       <c r="G9" s="3">
-        <v>9850500</v>
+        <v>9389700</v>
       </c>
       <c r="H9" s="3">
-        <v>8268000</v>
+        <v>7881300</v>
       </c>
       <c r="I9" s="3">
-        <v>6278500</v>
+        <v>5984900</v>
       </c>
       <c r="J9" s="3">
-        <v>4425700</v>
+        <v>4218700</v>
       </c>
       <c r="K9" s="3">
         <v>2720700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3374300</v>
+        <v>3216400</v>
       </c>
       <c r="E10" s="3">
-        <v>3108300</v>
+        <v>2962900</v>
       </c>
       <c r="F10" s="3">
-        <v>3019900</v>
+        <v>2878700</v>
       </c>
       <c r="G10" s="3">
-        <v>2492600</v>
+        <v>2376000</v>
       </c>
       <c r="H10" s="3">
-        <v>2379400</v>
+        <v>2268100</v>
       </c>
       <c r="I10" s="3">
-        <v>1985500</v>
+        <v>1892600</v>
       </c>
       <c r="J10" s="3">
-        <v>1445200</v>
+        <v>1377600</v>
       </c>
       <c r="K10" s="3">
         <v>900400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60600</v>
+        <v>57700</v>
       </c>
       <c r="E14" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H14" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="I14" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="J14" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="K14" s="3">
         <v>1000</v>
@@ -980,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>121300</v>
+        <v>115600</v>
       </c>
       <c r="G15" s="3">
-        <v>112500</v>
+        <v>107200</v>
       </c>
       <c r="H15" s="3">
-        <v>105300</v>
+        <v>100300</v>
       </c>
       <c r="I15" s="3">
-        <v>89200</v>
+        <v>85000</v>
       </c>
       <c r="J15" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16339600</v>
+        <v>15575400</v>
       </c>
       <c r="E17" s="3">
-        <v>14024900</v>
+        <v>13369000</v>
       </c>
       <c r="F17" s="3">
-        <v>12901600</v>
+        <v>12298100</v>
       </c>
       <c r="G17" s="3">
-        <v>11992400</v>
+        <v>11431500</v>
       </c>
       <c r="H17" s="3">
-        <v>10273900</v>
+        <v>9793400</v>
       </c>
       <c r="I17" s="3">
-        <v>7885400</v>
+        <v>7516500</v>
       </c>
       <c r="J17" s="3">
-        <v>5583100</v>
+        <v>5322000</v>
       </c>
       <c r="K17" s="3">
         <v>3491600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>754600</v>
+        <v>719300</v>
       </c>
       <c r="E18" s="3">
-        <v>849400</v>
+        <v>809700</v>
       </c>
       <c r="F18" s="3">
-        <v>678400</v>
+        <v>646700</v>
       </c>
       <c r="G18" s="3">
-        <v>350600</v>
+        <v>334200</v>
       </c>
       <c r="H18" s="3">
-        <v>373500</v>
+        <v>356000</v>
       </c>
       <c r="I18" s="3">
-        <v>378700</v>
+        <v>361000</v>
       </c>
       <c r="J18" s="3">
-        <v>287800</v>
+        <v>274300</v>
       </c>
       <c r="K18" s="3">
         <v>129600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105200</v>
+        <v>100200</v>
       </c>
       <c r="E20" s="3">
-        <v>185400</v>
+        <v>176800</v>
       </c>
       <c r="F20" s="3">
-        <v>55900</v>
+        <v>53300</v>
       </c>
       <c r="G20" s="3">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="H20" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="I20" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="J20" s="3">
-        <v>24200</v>
+        <v>23000</v>
       </c>
       <c r="K20" s="3">
         <v>48200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1043400</v>
+        <v>993500</v>
       </c>
       <c r="E21" s="3">
-        <v>1201000</v>
+        <v>1143800</v>
       </c>
       <c r="F21" s="3">
-        <v>873000</v>
+        <v>831300</v>
       </c>
       <c r="G21" s="3">
-        <v>554200</v>
+        <v>527500</v>
       </c>
       <c r="H21" s="3">
-        <v>546000</v>
+        <v>519500</v>
       </c>
       <c r="I21" s="3">
-        <v>549400</v>
+        <v>522800</v>
       </c>
       <c r="J21" s="3">
-        <v>397100</v>
+        <v>378000</v>
       </c>
       <c r="K21" s="3">
         <v>234200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F22" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="H22" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="I22" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="J22" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>857700</v>
+        <v>817600</v>
       </c>
       <c r="E23" s="3">
-        <v>1025000</v>
+        <v>977100</v>
       </c>
       <c r="F23" s="3">
-        <v>721800</v>
+        <v>688000</v>
       </c>
       <c r="G23" s="3">
-        <v>401200</v>
+        <v>382400</v>
       </c>
       <c r="H23" s="3">
-        <v>371000</v>
+        <v>353700</v>
       </c>
       <c r="I23" s="3">
-        <v>389300</v>
+        <v>371100</v>
       </c>
       <c r="J23" s="3">
-        <v>299400</v>
+        <v>285400</v>
       </c>
       <c r="K23" s="3">
         <v>166000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178600</v>
+        <v>170200</v>
       </c>
       <c r="E24" s="3">
-        <v>165000</v>
+        <v>157300</v>
       </c>
       <c r="F24" s="3">
-        <v>143600</v>
+        <v>136900</v>
       </c>
       <c r="G24" s="3">
-        <v>82700</v>
+        <v>78900</v>
       </c>
       <c r="H24" s="3">
-        <v>91400</v>
+        <v>87200</v>
       </c>
       <c r="I24" s="3">
-        <v>87900</v>
+        <v>83800</v>
       </c>
       <c r="J24" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="K24" s="3">
         <v>38400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>679100</v>
+        <v>647400</v>
       </c>
       <c r="E26" s="3">
-        <v>860000</v>
+        <v>819800</v>
       </c>
       <c r="F26" s="3">
-        <v>578200</v>
+        <v>551100</v>
       </c>
       <c r="G26" s="3">
-        <v>318400</v>
+        <v>303500</v>
       </c>
       <c r="H26" s="3">
-        <v>279600</v>
+        <v>266500</v>
       </c>
       <c r="I26" s="3">
-        <v>301400</v>
+        <v>287300</v>
       </c>
       <c r="J26" s="3">
-        <v>232600</v>
+        <v>221700</v>
       </c>
       <c r="K26" s="3">
         <v>127600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>683600</v>
+        <v>651600</v>
       </c>
       <c r="E27" s="3">
-        <v>862600</v>
+        <v>822200</v>
       </c>
       <c r="F27" s="3">
-        <v>586600</v>
+        <v>559100</v>
       </c>
       <c r="G27" s="3">
-        <v>310900</v>
+        <v>296300</v>
       </c>
       <c r="H27" s="3">
-        <v>284700</v>
+        <v>271400</v>
       </c>
       <c r="I27" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="J27" s="3">
-        <v>232100</v>
+        <v>221300</v>
       </c>
       <c r="K27" s="3">
         <v>131700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105200</v>
+        <v>-100200</v>
       </c>
       <c r="E32" s="3">
-        <v>-185400</v>
+        <v>-176800</v>
       </c>
       <c r="F32" s="3">
-        <v>-55900</v>
+        <v>-53300</v>
       </c>
       <c r="G32" s="3">
-        <v>-73900</v>
+        <v>-70400</v>
       </c>
       <c r="H32" s="3">
-        <v>-9600</v>
+        <v>-9200</v>
       </c>
       <c r="I32" s="3">
-        <v>-23100</v>
+        <v>-22000</v>
       </c>
       <c r="J32" s="3">
-        <v>-24200</v>
+        <v>-23000</v>
       </c>
       <c r="K32" s="3">
         <v>-48200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>683600</v>
+        <v>651600</v>
       </c>
       <c r="E33" s="3">
-        <v>862600</v>
+        <v>822200</v>
       </c>
       <c r="F33" s="3">
-        <v>586600</v>
+        <v>559100</v>
       </c>
       <c r="G33" s="3">
-        <v>310900</v>
+        <v>296300</v>
       </c>
       <c r="H33" s="3">
-        <v>284700</v>
+        <v>271400</v>
       </c>
       <c r="I33" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="J33" s="3">
-        <v>232100</v>
+        <v>221300</v>
       </c>
       <c r="K33" s="3">
         <v>131700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>683600</v>
+        <v>651600</v>
       </c>
       <c r="E35" s="3">
-        <v>862600</v>
+        <v>822200</v>
       </c>
       <c r="F35" s="3">
-        <v>586600</v>
+        <v>559100</v>
       </c>
       <c r="G35" s="3">
-        <v>310900</v>
+        <v>296300</v>
       </c>
       <c r="H35" s="3">
-        <v>284700</v>
+        <v>271400</v>
       </c>
       <c r="I35" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="J35" s="3">
-        <v>232100</v>
+        <v>221300</v>
       </c>
       <c r="K35" s="3">
         <v>131700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2379900</v>
+        <v>2268600</v>
       </c>
       <c r="E41" s="3">
-        <v>1751700</v>
+        <v>1669800</v>
       </c>
       <c r="F41" s="3">
-        <v>960000</v>
+        <v>915100</v>
       </c>
       <c r="G41" s="3">
-        <v>1393200</v>
+        <v>1328000</v>
       </c>
       <c r="H41" s="3">
-        <v>1456500</v>
+        <v>1388400</v>
       </c>
       <c r="I41" s="3">
-        <v>600100</v>
+        <v>572100</v>
       </c>
       <c r="J41" s="3">
-        <v>485500</v>
+        <v>462800</v>
       </c>
       <c r="K41" s="3">
         <v>750000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>785900</v>
+        <v>749100</v>
       </c>
       <c r="E42" s="3">
-        <v>1070200</v>
+        <v>1020200</v>
       </c>
       <c r="F42" s="3">
-        <v>445800</v>
+        <v>424900</v>
       </c>
       <c r="G42" s="3">
-        <v>339000</v>
+        <v>323100</v>
       </c>
       <c r="H42" s="3">
-        <v>35900</v>
+        <v>34200</v>
       </c>
       <c r="I42" s="3">
-        <v>98100</v>
+        <v>93500</v>
       </c>
       <c r="J42" s="3">
-        <v>263900</v>
+        <v>251600</v>
       </c>
       <c r="K42" s="3">
         <v>590000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500000</v>
+        <v>476600</v>
       </c>
       <c r="E43" s="3">
-        <v>435400</v>
+        <v>415100</v>
       </c>
       <c r="F43" s="3">
-        <v>664100</v>
+        <v>633000</v>
       </c>
       <c r="G43" s="3">
-        <v>1401600</v>
+        <v>1336000</v>
       </c>
       <c r="H43" s="3">
-        <v>1239500</v>
+        <v>1181500</v>
       </c>
       <c r="I43" s="3">
-        <v>663500</v>
+        <v>632500</v>
       </c>
       <c r="J43" s="3">
-        <v>321300</v>
+        <v>306300</v>
       </c>
       <c r="K43" s="3">
         <v>155700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1002500</v>
+        <v>955600</v>
       </c>
       <c r="E44" s="3">
-        <v>1116000</v>
+        <v>1063800</v>
       </c>
       <c r="F44" s="3">
-        <v>1125600</v>
+        <v>1073000</v>
       </c>
       <c r="G44" s="3">
-        <v>783900</v>
+        <v>747200</v>
       </c>
       <c r="H44" s="3">
-        <v>1016400</v>
+        <v>968900</v>
       </c>
       <c r="I44" s="3">
-        <v>722600</v>
+        <v>688800</v>
       </c>
       <c r="J44" s="3">
-        <v>666900</v>
+        <v>635700</v>
       </c>
       <c r="K44" s="3">
         <v>561800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>127600</v>
+        <v>121600</v>
       </c>
       <c r="E45" s="3">
-        <v>178800</v>
+        <v>170500</v>
       </c>
       <c r="F45" s="3">
-        <v>167300</v>
+        <v>159500</v>
       </c>
       <c r="G45" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="H45" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="I45" s="3">
-        <v>44900</v>
+        <v>42800</v>
       </c>
       <c r="J45" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="K45" s="3">
         <v>52700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4795900</v>
+        <v>4571600</v>
       </c>
       <c r="E46" s="3">
-        <v>4552200</v>
+        <v>4339300</v>
       </c>
       <c r="F46" s="3">
-        <v>3362800</v>
+        <v>3205500</v>
       </c>
       <c r="G46" s="3">
-        <v>3990400</v>
+        <v>3803700</v>
       </c>
       <c r="H46" s="3">
-        <v>3784500</v>
+        <v>3607500</v>
       </c>
       <c r="I46" s="3">
-        <v>2129200</v>
+        <v>2029700</v>
       </c>
       <c r="J46" s="3">
-        <v>1774700</v>
+        <v>1691700</v>
       </c>
       <c r="K46" s="3">
         <v>2069800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>724300</v>
+        <v>690400</v>
       </c>
       <c r="E47" s="3">
-        <v>702500</v>
+        <v>669700</v>
       </c>
       <c r="F47" s="3">
-        <v>761900</v>
+        <v>726300</v>
       </c>
       <c r="G47" s="3">
-        <v>312200</v>
+        <v>297600</v>
       </c>
       <c r="H47" s="3">
-        <v>87700</v>
+        <v>83600</v>
       </c>
       <c r="I47" s="3">
-        <v>146600</v>
+        <v>139800</v>
       </c>
       <c r="J47" s="3">
-        <v>147800</v>
+        <v>140900</v>
       </c>
       <c r="K47" s="3">
         <v>61100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2267100</v>
+        <v>2161100</v>
       </c>
       <c r="E48" s="3">
-        <v>2214600</v>
+        <v>2111000</v>
       </c>
       <c r="F48" s="3">
-        <v>1894400</v>
+        <v>1805800</v>
       </c>
       <c r="G48" s="3">
-        <v>1245900</v>
+        <v>1187600</v>
       </c>
       <c r="H48" s="3">
-        <v>972700</v>
+        <v>927200</v>
       </c>
       <c r="I48" s="3">
-        <v>652400</v>
+        <v>621900</v>
       </c>
       <c r="J48" s="3">
-        <v>430700</v>
+        <v>410600</v>
       </c>
       <c r="K48" s="3">
         <v>598500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132900</v>
+        <v>126700</v>
       </c>
       <c r="E49" s="3">
-        <v>135300</v>
+        <v>129000</v>
       </c>
       <c r="F49" s="3">
-        <v>83800</v>
+        <v>79900</v>
       </c>
       <c r="G49" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="H49" s="3">
-        <v>112200</v>
+        <v>106900</v>
       </c>
       <c r="I49" s="3">
-        <v>159500</v>
+        <v>152000</v>
       </c>
       <c r="J49" s="3">
-        <v>124600</v>
+        <v>118800</v>
       </c>
       <c r="K49" s="3">
         <v>172100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1175600</v>
+        <v>1120700</v>
       </c>
       <c r="E52" s="3">
-        <v>1002500</v>
+        <v>955600</v>
       </c>
       <c r="F52" s="3">
-        <v>991600</v>
+        <v>945200</v>
       </c>
       <c r="G52" s="3">
-        <v>707900</v>
+        <v>674800</v>
       </c>
       <c r="H52" s="3">
-        <v>589600</v>
+        <v>562000</v>
       </c>
       <c r="I52" s="3">
-        <v>576800</v>
+        <v>549800</v>
       </c>
       <c r="J52" s="3">
-        <v>447900</v>
+        <v>427000</v>
       </c>
       <c r="K52" s="3">
         <v>64500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9095800</v>
+        <v>8670400</v>
       </c>
       <c r="E54" s="3">
-        <v>8607100</v>
+        <v>8204600</v>
       </c>
       <c r="F54" s="3">
-        <v>7094500</v>
+        <v>6762700</v>
       </c>
       <c r="G54" s="3">
-        <v>6361500</v>
+        <v>6063900</v>
       </c>
       <c r="H54" s="3">
-        <v>5546600</v>
+        <v>5287200</v>
       </c>
       <c r="I54" s="3">
-        <v>3664500</v>
+        <v>3493100</v>
       </c>
       <c r="J54" s="3">
-        <v>2925800</v>
+        <v>2788900</v>
       </c>
       <c r="K54" s="3">
         <v>2653900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1919600</v>
+        <v>1829800</v>
       </c>
       <c r="E57" s="3">
-        <v>2218400</v>
+        <v>2114600</v>
       </c>
       <c r="F57" s="3">
-        <v>2014100</v>
+        <v>1919900</v>
       </c>
       <c r="G57" s="3">
-        <v>1698400</v>
+        <v>1618900</v>
       </c>
       <c r="H57" s="3">
-        <v>1671300</v>
+        <v>1593200</v>
       </c>
       <c r="I57" s="3">
-        <v>1217000</v>
+        <v>1160000</v>
       </c>
       <c r="J57" s="3">
-        <v>970400</v>
+        <v>925000</v>
       </c>
       <c r="K57" s="3">
         <v>958300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>288400</v>
+        <v>274900</v>
       </c>
       <c r="E58" s="3">
-        <v>152400</v>
+        <v>145200</v>
       </c>
       <c r="F58" s="3">
-        <v>159700</v>
+        <v>152200</v>
       </c>
       <c r="G58" s="3">
-        <v>969600</v>
+        <v>924200</v>
       </c>
       <c r="H58" s="3">
-        <v>243500</v>
+        <v>232100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1555400</v>
+        <v>1482600</v>
       </c>
       <c r="E59" s="3">
-        <v>1509100</v>
+        <v>1438500</v>
       </c>
       <c r="F59" s="3">
-        <v>1320100</v>
+        <v>1258300</v>
       </c>
       <c r="G59" s="3">
-        <v>1121000</v>
+        <v>1068500</v>
       </c>
       <c r="H59" s="3">
-        <v>897400</v>
+        <v>855400</v>
       </c>
       <c r="I59" s="3">
-        <v>912700</v>
+        <v>870000</v>
       </c>
       <c r="J59" s="3">
-        <v>792300</v>
+        <v>755300</v>
       </c>
       <c r="K59" s="3">
         <v>998000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3763300</v>
+        <v>3587300</v>
       </c>
       <c r="E60" s="3">
-        <v>3879900</v>
+        <v>3698400</v>
       </c>
       <c r="F60" s="3">
-        <v>3493900</v>
+        <v>3330400</v>
       </c>
       <c r="G60" s="3">
-        <v>3788900</v>
+        <v>3611700</v>
       </c>
       <c r="H60" s="3">
-        <v>2812200</v>
+        <v>2680700</v>
       </c>
       <c r="I60" s="3">
-        <v>2129600</v>
+        <v>2030000</v>
       </c>
       <c r="J60" s="3">
-        <v>1776600</v>
+        <v>1693500</v>
       </c>
       <c r="K60" s="3">
         <v>1589900</v>
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>598000</v>
+        <v>570000</v>
       </c>
       <c r="I61" s="3">
-        <v>639900</v>
+        <v>609900</v>
       </c>
       <c r="J61" s="3">
-        <v>592600</v>
+        <v>564900</v>
       </c>
       <c r="K61" s="3">
         <v>603500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>392600</v>
+        <v>374200</v>
       </c>
       <c r="E62" s="3">
-        <v>436100</v>
+        <v>415700</v>
       </c>
       <c r="F62" s="3">
-        <v>342100</v>
+        <v>326100</v>
       </c>
       <c r="G62" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="H62" s="3">
-        <v>55400</v>
+        <v>52800</v>
       </c>
       <c r="I62" s="3">
-        <v>50700</v>
+        <v>48400</v>
       </c>
       <c r="J62" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="K62" s="3">
         <v>38000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4330500</v>
+        <v>4127900</v>
       </c>
       <c r="E66" s="3">
-        <v>4445600</v>
+        <v>4237700</v>
       </c>
       <c r="F66" s="3">
-        <v>3907100</v>
+        <v>3724400</v>
       </c>
       <c r="G66" s="3">
-        <v>3840700</v>
+        <v>3661100</v>
       </c>
       <c r="H66" s="3">
-        <v>3459200</v>
+        <v>3297400</v>
       </c>
       <c r="I66" s="3">
-        <v>2827500</v>
+        <v>2695200</v>
       </c>
       <c r="J66" s="3">
-        <v>2409000</v>
+        <v>2296300</v>
       </c>
       <c r="K66" s="3">
         <v>2254000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3274200</v>
+        <v>3121100</v>
       </c>
       <c r="E72" s="3">
-        <v>2590600</v>
+        <v>2469500</v>
       </c>
       <c r="F72" s="3">
-        <v>1741300</v>
+        <v>1659900</v>
       </c>
       <c r="G72" s="3">
-        <v>1154700</v>
+        <v>1100700</v>
       </c>
       <c r="H72" s="3">
-        <v>818200</v>
+        <v>779900</v>
       </c>
       <c r="I72" s="3">
-        <v>533500</v>
+        <v>508500</v>
       </c>
       <c r="J72" s="3">
-        <v>236000</v>
+        <v>225000</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4765400</v>
+        <v>4542500</v>
       </c>
       <c r="E76" s="3">
-        <v>4161500</v>
+        <v>3966900</v>
       </c>
       <c r="F76" s="3">
-        <v>3187400</v>
+        <v>3038300</v>
       </c>
       <c r="G76" s="3">
-        <v>2520700</v>
+        <v>2402800</v>
       </c>
       <c r="H76" s="3">
-        <v>2087400</v>
+        <v>1989800</v>
       </c>
       <c r="I76" s="3">
-        <v>837100</v>
+        <v>797900</v>
       </c>
       <c r="J76" s="3">
-        <v>516800</v>
+        <v>492700</v>
       </c>
       <c r="K76" s="3">
         <v>399900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>683600</v>
+        <v>651600</v>
       </c>
       <c r="E81" s="3">
-        <v>862600</v>
+        <v>822200</v>
       </c>
       <c r="F81" s="3">
-        <v>586600</v>
+        <v>559100</v>
       </c>
       <c r="G81" s="3">
-        <v>310900</v>
+        <v>296300</v>
       </c>
       <c r="H81" s="3">
-        <v>284700</v>
+        <v>271400</v>
       </c>
       <c r="I81" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="J81" s="3">
-        <v>232100</v>
+        <v>221300</v>
       </c>
       <c r="K81" s="3">
         <v>131700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>183900</v>
+        <v>175300</v>
       </c>
       <c r="E83" s="3">
-        <v>166400</v>
+        <v>158600</v>
       </c>
       <c r="F83" s="3">
-        <v>138800</v>
+        <v>132300</v>
       </c>
       <c r="G83" s="3">
-        <v>129900</v>
+        <v>123900</v>
       </c>
       <c r="H83" s="3">
-        <v>163100</v>
+        <v>155500</v>
       </c>
       <c r="I83" s="3">
-        <v>147900</v>
+        <v>141000</v>
       </c>
       <c r="J83" s="3">
-        <v>85300</v>
+        <v>81300</v>
       </c>
       <c r="K83" s="3">
         <v>56500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>984900</v>
+        <v>938900</v>
       </c>
       <c r="E89" s="3">
-        <v>1726100</v>
+        <v>1645400</v>
       </c>
       <c r="F89" s="3">
-        <v>1794700</v>
+        <v>1710800</v>
       </c>
       <c r="G89" s="3">
-        <v>839100</v>
+        <v>799800</v>
       </c>
       <c r="H89" s="3">
-        <v>143300</v>
+        <v>136600</v>
       </c>
       <c r="I89" s="3">
-        <v>413500</v>
+        <v>394100</v>
       </c>
       <c r="J89" s="3">
-        <v>279700</v>
+        <v>266600</v>
       </c>
       <c r="K89" s="3">
         <v>510800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-522600</v>
+        <v>-498100</v>
       </c>
       <c r="E91" s="3">
-        <v>-331800</v>
+        <v>-316200</v>
       </c>
       <c r="F91" s="3">
-        <v>-624700</v>
+        <v>-595500</v>
       </c>
       <c r="G91" s="3">
-        <v>-524800</v>
+        <v>-500300</v>
       </c>
       <c r="H91" s="3">
-        <v>-361300</v>
+        <v>-344400</v>
       </c>
       <c r="I91" s="3">
-        <v>-317200</v>
+        <v>-302400</v>
       </c>
       <c r="J91" s="3">
-        <v>-337500</v>
+        <v>-321700</v>
       </c>
       <c r="K91" s="3">
         <v>-266200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-339700</v>
+        <v>-323800</v>
       </c>
       <c r="E94" s="3">
-        <v>-977700</v>
+        <v>-931900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1203400</v>
+        <v>-1147100</v>
       </c>
       <c r="G94" s="3">
-        <v>-977500</v>
+        <v>-931800</v>
       </c>
       <c r="H94" s="3">
-        <v>-296800</v>
+        <v>-282900</v>
       </c>
       <c r="I94" s="3">
-        <v>-243700</v>
+        <v>-232300</v>
       </c>
       <c r="J94" s="3">
-        <v>-428900</v>
+        <v>-408900</v>
       </c>
       <c r="K94" s="3">
         <v>-665900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F100" s="3">
-        <v>-913700</v>
+        <v>-870900</v>
       </c>
       <c r="G100" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="H100" s="3">
-        <v>1047000</v>
+        <v>998000</v>
       </c>
       <c r="I100" s="3">
-        <v>-57400</v>
+        <v>-54700</v>
       </c>
       <c r="J100" s="3">
-        <v>-78700</v>
+        <v>-75000</v>
       </c>
       <c r="K100" s="3">
         <v>603100</v>
@@ -3962,22 +3962,22 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="G101" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="K101" s="3">
         <v>-15200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>636700</v>
+        <v>606900</v>
       </c>
       <c r="E102" s="3">
-        <v>743600</v>
+        <v>708800</v>
       </c>
       <c r="F102" s="3">
-        <v>-338700</v>
+        <v>-322800</v>
       </c>
       <c r="G102" s="3">
-        <v>-26800</v>
+        <v>-25500</v>
       </c>
       <c r="H102" s="3">
-        <v>892600</v>
+        <v>850800</v>
       </c>
       <c r="I102" s="3">
-        <v>114700</v>
+        <v>109300</v>
       </c>
       <c r="J102" s="3">
-        <v>-214100</v>
+        <v>-204100</v>
       </c>
       <c r="K102" s="3">
         <v>432800</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16294700</v>
+        <v>14814800</v>
       </c>
       <c r="E8" s="3">
-        <v>14178700</v>
+        <v>16812100</v>
       </c>
       <c r="F8" s="3">
-        <v>12944800</v>
+        <v>14628900</v>
       </c>
       <c r="G8" s="3">
-        <v>11765700</v>
+        <v>13355900</v>
       </c>
       <c r="H8" s="3">
-        <v>10149400</v>
+        <v>12139300</v>
       </c>
       <c r="I8" s="3">
-        <v>7877500</v>
+        <v>10471700</v>
       </c>
       <c r="J8" s="3">
+        <v>8127600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5596300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3621100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1585200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13078300</v>
+        <v>11710300</v>
       </c>
       <c r="E9" s="3">
-        <v>11215800</v>
+        <v>13493500</v>
       </c>
       <c r="F9" s="3">
-        <v>10066100</v>
+        <v>11571900</v>
       </c>
       <c r="G9" s="3">
-        <v>9389700</v>
+        <v>10385800</v>
       </c>
       <c r="H9" s="3">
-        <v>7881300</v>
+        <v>9687900</v>
       </c>
       <c r="I9" s="3">
-        <v>5984900</v>
+        <v>8131500</v>
       </c>
       <c r="J9" s="3">
+        <v>6174900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4218700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2720700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1204200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3216400</v>
+        <v>3104500</v>
       </c>
       <c r="E10" s="3">
-        <v>2962900</v>
+        <v>3318600</v>
       </c>
       <c r="F10" s="3">
-        <v>2878700</v>
+        <v>3057000</v>
       </c>
       <c r="G10" s="3">
-        <v>2376000</v>
+        <v>2970100</v>
       </c>
       <c r="H10" s="3">
-        <v>2268100</v>
+        <v>2451400</v>
       </c>
       <c r="I10" s="3">
-        <v>1892600</v>
+        <v>2340100</v>
       </c>
       <c r="J10" s="3">
+        <v>1952700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1377600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>381000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,15 +896,18 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>57700</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>59600</v>
       </c>
       <c r="F14" s="3">
-        <v>56500</v>
+        <v>6200</v>
       </c>
       <c r="G14" s="3">
-        <v>2800</v>
+        <v>58300</v>
       </c>
       <c r="H14" s="3">
-        <v>18500</v>
+        <v>2900</v>
       </c>
       <c r="I14" s="3">
-        <v>15900</v>
+        <v>19100</v>
       </c>
       <c r="J14" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K14" s="3">
         <v>13900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,36 +1001,39 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>115600</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>107200</v>
+        <v>119300</v>
       </c>
       <c r="H15" s="3">
-        <v>100300</v>
+        <v>110600</v>
       </c>
       <c r="I15" s="3">
-        <v>85000</v>
+        <v>103500</v>
       </c>
       <c r="J15" s="3">
+        <v>87700</v>
+      </c>
+      <c r="K15" s="3">
         <v>40600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15575400</v>
+        <v>13938200</v>
       </c>
       <c r="E17" s="3">
-        <v>13369000</v>
+        <v>16069900</v>
       </c>
       <c r="F17" s="3">
-        <v>12298100</v>
+        <v>13793500</v>
       </c>
       <c r="G17" s="3">
-        <v>11431500</v>
+        <v>12688600</v>
       </c>
       <c r="H17" s="3">
-        <v>9793400</v>
+        <v>11794500</v>
       </c>
       <c r="I17" s="3">
-        <v>7516500</v>
+        <v>10104400</v>
       </c>
       <c r="J17" s="3">
+        <v>7755200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5322000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3491600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1534900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>101400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>719300</v>
+        <v>876600</v>
       </c>
       <c r="E18" s="3">
-        <v>809700</v>
+        <v>742200</v>
       </c>
       <c r="F18" s="3">
-        <v>646700</v>
+        <v>835400</v>
       </c>
       <c r="G18" s="3">
-        <v>334200</v>
+        <v>667200</v>
       </c>
       <c r="H18" s="3">
-        <v>356000</v>
+        <v>344800</v>
       </c>
       <c r="I18" s="3">
-        <v>361000</v>
+        <v>367300</v>
       </c>
       <c r="J18" s="3">
+        <v>372400</v>
+      </c>
+      <c r="K18" s="3">
         <v>274300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>129600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100200</v>
+        <v>286900</v>
       </c>
       <c r="E20" s="3">
-        <v>176800</v>
+        <v>103400</v>
       </c>
       <c r="F20" s="3">
-        <v>53300</v>
+        <v>182400</v>
       </c>
       <c r="G20" s="3">
-        <v>70400</v>
+        <v>55000</v>
       </c>
       <c r="H20" s="3">
-        <v>9200</v>
+        <v>72600</v>
       </c>
       <c r="I20" s="3">
-        <v>22000</v>
+        <v>9500</v>
       </c>
       <c r="J20" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K20" s="3">
         <v>23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>993500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1143800</v>
+        <v>1026800</v>
       </c>
       <c r="F21" s="3">
-        <v>831300</v>
+        <v>1181700</v>
       </c>
       <c r="G21" s="3">
-        <v>527500</v>
+        <v>859000</v>
       </c>
       <c r="H21" s="3">
-        <v>519500</v>
+        <v>545500</v>
       </c>
       <c r="I21" s="3">
-        <v>522800</v>
+        <v>537500</v>
       </c>
       <c r="J21" s="3">
+        <v>540800</v>
+      </c>
+      <c r="K21" s="3">
         <v>378000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>234200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>9700</v>
       </c>
       <c r="G22" s="3">
-        <v>22200</v>
+        <v>12400</v>
       </c>
       <c r="H22" s="3">
-        <v>11500</v>
+        <v>22900</v>
       </c>
       <c r="I22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K22" s="3">
         <v>11900</v>
       </c>
-      <c r="J22" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11800</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>817600</v>
+        <v>1160000</v>
       </c>
       <c r="E23" s="3">
-        <v>977100</v>
+        <v>843500</v>
       </c>
       <c r="F23" s="3">
-        <v>688000</v>
+        <v>1008100</v>
       </c>
       <c r="G23" s="3">
-        <v>382400</v>
+        <v>709900</v>
       </c>
       <c r="H23" s="3">
-        <v>353700</v>
+        <v>394500</v>
       </c>
       <c r="I23" s="3">
-        <v>371100</v>
+        <v>364900</v>
       </c>
       <c r="J23" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K23" s="3">
         <v>285400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>166000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>170200</v>
+        <v>252600</v>
       </c>
       <c r="E24" s="3">
-        <v>157300</v>
+        <v>175600</v>
       </c>
       <c r="F24" s="3">
-        <v>136900</v>
+        <v>162300</v>
       </c>
       <c r="G24" s="3">
-        <v>78900</v>
+        <v>141300</v>
       </c>
       <c r="H24" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="I24" s="3">
-        <v>83800</v>
+        <v>89900</v>
       </c>
       <c r="J24" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K24" s="3">
         <v>63700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>647400</v>
+        <v>907400</v>
       </c>
       <c r="E26" s="3">
-        <v>819800</v>
+        <v>667900</v>
       </c>
       <c r="F26" s="3">
-        <v>551100</v>
+        <v>845800</v>
       </c>
       <c r="G26" s="3">
-        <v>303500</v>
+        <v>568600</v>
       </c>
       <c r="H26" s="3">
-        <v>266500</v>
+        <v>313200</v>
       </c>
       <c r="I26" s="3">
-        <v>287300</v>
+        <v>275000</v>
       </c>
       <c r="J26" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K26" s="3">
         <v>221700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>127600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>651600</v>
+        <v>904600</v>
       </c>
       <c r="E27" s="3">
-        <v>822200</v>
+        <v>672300</v>
       </c>
       <c r="F27" s="3">
-        <v>559100</v>
+        <v>848400</v>
       </c>
       <c r="G27" s="3">
-        <v>296300</v>
+        <v>576900</v>
       </c>
       <c r="H27" s="3">
-        <v>271400</v>
+        <v>305700</v>
       </c>
       <c r="I27" s="3">
-        <v>283500</v>
+        <v>280000</v>
       </c>
       <c r="J27" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K27" s="3">
         <v>221300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100200</v>
+        <v>-286900</v>
       </c>
       <c r="E32" s="3">
-        <v>-176800</v>
+        <v>-103400</v>
       </c>
       <c r="F32" s="3">
-        <v>-53300</v>
+        <v>-182400</v>
       </c>
       <c r="G32" s="3">
-        <v>-70400</v>
+        <v>-55000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9200</v>
+        <v>-72600</v>
       </c>
       <c r="I32" s="3">
-        <v>-22000</v>
+        <v>-9500</v>
       </c>
       <c r="J32" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>651600</v>
+        <v>904600</v>
       </c>
       <c r="E33" s="3">
-        <v>822200</v>
+        <v>672300</v>
       </c>
       <c r="F33" s="3">
-        <v>559100</v>
+        <v>848400</v>
       </c>
       <c r="G33" s="3">
-        <v>296300</v>
+        <v>576900</v>
       </c>
       <c r="H33" s="3">
-        <v>271400</v>
+        <v>305700</v>
       </c>
       <c r="I33" s="3">
-        <v>283500</v>
+        <v>280000</v>
       </c>
       <c r="J33" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K33" s="3">
         <v>221300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>651600</v>
+        <v>904600</v>
       </c>
       <c r="E35" s="3">
-        <v>822200</v>
+        <v>672300</v>
       </c>
       <c r="F35" s="3">
-        <v>559100</v>
+        <v>848400</v>
       </c>
       <c r="G35" s="3">
-        <v>296300</v>
+        <v>576900</v>
       </c>
       <c r="H35" s="3">
-        <v>271400</v>
+        <v>305700</v>
       </c>
       <c r="I35" s="3">
-        <v>283500</v>
+        <v>280000</v>
       </c>
       <c r="J35" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K35" s="3">
         <v>221300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,271 +1903,290 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2268600</v>
+        <v>3150800</v>
       </c>
       <c r="E41" s="3">
-        <v>1669800</v>
+        <v>2340600</v>
       </c>
       <c r="F41" s="3">
-        <v>915100</v>
+        <v>1722800</v>
       </c>
       <c r="G41" s="3">
-        <v>1328000</v>
+        <v>944100</v>
       </c>
       <c r="H41" s="3">
-        <v>1388400</v>
+        <v>1370200</v>
       </c>
       <c r="I41" s="3">
-        <v>572100</v>
+        <v>1432500</v>
       </c>
       <c r="J41" s="3">
+        <v>590200</v>
+      </c>
+      <c r="K41" s="3">
         <v>462800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>750000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>749100</v>
+        <v>229200</v>
       </c>
       <c r="E42" s="3">
-        <v>1020200</v>
+        <v>772900</v>
       </c>
       <c r="F42" s="3">
-        <v>424900</v>
+        <v>1052600</v>
       </c>
       <c r="G42" s="3">
-        <v>323100</v>
+        <v>438400</v>
       </c>
       <c r="H42" s="3">
-        <v>34200</v>
+        <v>333400</v>
       </c>
       <c r="I42" s="3">
-        <v>93500</v>
+        <v>35300</v>
       </c>
       <c r="J42" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K42" s="3">
         <v>251600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>590000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12400</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>476600</v>
+        <v>505400</v>
       </c>
       <c r="E43" s="3">
-        <v>415100</v>
+        <v>491700</v>
       </c>
       <c r="F43" s="3">
-        <v>633000</v>
+        <v>428200</v>
       </c>
       <c r="G43" s="3">
-        <v>1336000</v>
+        <v>653100</v>
       </c>
       <c r="H43" s="3">
-        <v>1181500</v>
+        <v>1378400</v>
       </c>
       <c r="I43" s="3">
-        <v>632500</v>
+        <v>1219000</v>
       </c>
       <c r="J43" s="3">
+        <v>652600</v>
+      </c>
+      <c r="K43" s="3">
         <v>306300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>155700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>955600</v>
+        <v>792200</v>
       </c>
       <c r="E44" s="3">
-        <v>1063800</v>
+        <v>986000</v>
       </c>
       <c r="F44" s="3">
-        <v>1073000</v>
+        <v>1097600</v>
       </c>
       <c r="G44" s="3">
-        <v>747200</v>
+        <v>1107100</v>
       </c>
       <c r="H44" s="3">
-        <v>968900</v>
+        <v>771000</v>
       </c>
       <c r="I44" s="3">
-        <v>688800</v>
+        <v>999600</v>
       </c>
       <c r="J44" s="3">
+        <v>710700</v>
+      </c>
+      <c r="K44" s="3">
         <v>635700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>561800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121600</v>
+        <v>167300</v>
       </c>
       <c r="E45" s="3">
-        <v>170500</v>
+        <v>125500</v>
       </c>
       <c r="F45" s="3">
-        <v>159500</v>
+        <v>175900</v>
       </c>
       <c r="G45" s="3">
-        <v>69300</v>
+        <v>164500</v>
       </c>
       <c r="H45" s="3">
-        <v>34500</v>
+        <v>71500</v>
       </c>
       <c r="I45" s="3">
-        <v>42800</v>
+        <v>35600</v>
       </c>
       <c r="J45" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4571600</v>
+        <v>4844900</v>
       </c>
       <c r="E46" s="3">
-        <v>4339300</v>
+        <v>4716800</v>
       </c>
       <c r="F46" s="3">
-        <v>3205500</v>
+        <v>4477100</v>
       </c>
       <c r="G46" s="3">
-        <v>3803700</v>
+        <v>3307300</v>
       </c>
       <c r="H46" s="3">
-        <v>3607500</v>
+        <v>3924500</v>
       </c>
       <c r="I46" s="3">
-        <v>2029700</v>
+        <v>3722100</v>
       </c>
       <c r="J46" s="3">
+        <v>2094100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1691700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2069800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>157700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>690400</v>
+        <v>692700</v>
       </c>
       <c r="E47" s="3">
-        <v>669700</v>
+        <v>712300</v>
       </c>
       <c r="F47" s="3">
-        <v>726300</v>
+        <v>690900</v>
       </c>
       <c r="G47" s="3">
-        <v>297600</v>
+        <v>749400</v>
       </c>
       <c r="H47" s="3">
-        <v>83600</v>
+        <v>307100</v>
       </c>
       <c r="I47" s="3">
-        <v>139800</v>
+        <v>86200</v>
       </c>
       <c r="J47" s="3">
+        <v>144200</v>
+      </c>
+      <c r="K47" s="3">
         <v>140900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61100</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2090,87 +2194,96 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2161100</v>
+        <v>2458400</v>
       </c>
       <c r="E48" s="3">
-        <v>2111000</v>
+        <v>2229700</v>
       </c>
       <c r="F48" s="3">
-        <v>1805800</v>
+        <v>2178000</v>
       </c>
       <c r="G48" s="3">
-        <v>1187600</v>
+        <v>1863100</v>
       </c>
       <c r="H48" s="3">
-        <v>927200</v>
+        <v>1225300</v>
       </c>
       <c r="I48" s="3">
-        <v>621900</v>
+        <v>956600</v>
       </c>
       <c r="J48" s="3">
+        <v>641600</v>
+      </c>
+      <c r="K48" s="3">
         <v>410600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>598500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126700</v>
+        <v>156800</v>
       </c>
       <c r="E49" s="3">
-        <v>129000</v>
+        <v>130700</v>
       </c>
       <c r="F49" s="3">
-        <v>79900</v>
+        <v>133100</v>
       </c>
       <c r="G49" s="3">
-        <v>100300</v>
+        <v>82400</v>
       </c>
       <c r="H49" s="3">
-        <v>106900</v>
+        <v>103400</v>
       </c>
       <c r="I49" s="3">
-        <v>152000</v>
+        <v>110300</v>
       </c>
       <c r="J49" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K49" s="3">
         <v>118800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1120700</v>
+        <v>1250800</v>
       </c>
       <c r="E52" s="3">
-        <v>955600</v>
+        <v>1156200</v>
       </c>
       <c r="F52" s="3">
-        <v>945200</v>
+        <v>986000</v>
       </c>
       <c r="G52" s="3">
-        <v>674800</v>
+        <v>975300</v>
       </c>
       <c r="H52" s="3">
-        <v>562000</v>
+        <v>696200</v>
       </c>
       <c r="I52" s="3">
-        <v>549800</v>
+        <v>579900</v>
       </c>
       <c r="J52" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K52" s="3">
         <v>427000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8670400</v>
+        <v>9403600</v>
       </c>
       <c r="E54" s="3">
-        <v>8204600</v>
+        <v>8945700</v>
       </c>
       <c r="F54" s="3">
-        <v>6762700</v>
+        <v>8465100</v>
       </c>
       <c r="G54" s="3">
-        <v>6063900</v>
+        <v>6977400</v>
       </c>
       <c r="H54" s="3">
-        <v>5287200</v>
+        <v>6256500</v>
       </c>
       <c r="I54" s="3">
-        <v>3493100</v>
+        <v>5455100</v>
       </c>
       <c r="J54" s="3">
+        <v>3604100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2788900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2653900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,164 +2527,177 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1829800</v>
+        <v>2156900</v>
       </c>
       <c r="E57" s="3">
-        <v>2114600</v>
+        <v>1887900</v>
       </c>
       <c r="F57" s="3">
-        <v>1919900</v>
+        <v>2181800</v>
       </c>
       <c r="G57" s="3">
-        <v>1618900</v>
+        <v>1980800</v>
       </c>
       <c r="H57" s="3">
-        <v>1593200</v>
+        <v>1670300</v>
       </c>
       <c r="I57" s="3">
-        <v>1160000</v>
+        <v>1643700</v>
       </c>
       <c r="J57" s="3">
+        <v>1196900</v>
+      </c>
+      <c r="K57" s="3">
         <v>925000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>958300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>274900</v>
+        <v>386000</v>
       </c>
       <c r="E58" s="3">
-        <v>145200</v>
+        <v>283700</v>
       </c>
       <c r="F58" s="3">
-        <v>152200</v>
+        <v>149900</v>
       </c>
       <c r="G58" s="3">
-        <v>924200</v>
+        <v>157100</v>
       </c>
       <c r="H58" s="3">
-        <v>232100</v>
+        <v>953600</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>239500</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>13200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1482600</v>
+        <v>1554000</v>
       </c>
       <c r="E59" s="3">
-        <v>1438500</v>
+        <v>1529700</v>
       </c>
       <c r="F59" s="3">
-        <v>1258300</v>
+        <v>1484200</v>
       </c>
       <c r="G59" s="3">
-        <v>1068500</v>
+        <v>1298300</v>
       </c>
       <c r="H59" s="3">
-        <v>855400</v>
+        <v>1102500</v>
       </c>
       <c r="I59" s="3">
-        <v>870000</v>
+        <v>882600</v>
       </c>
       <c r="J59" s="3">
+        <v>897600</v>
+      </c>
+      <c r="K59" s="3">
         <v>755300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>998000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3587300</v>
+        <v>4096900</v>
       </c>
       <c r="E60" s="3">
-        <v>3698400</v>
+        <v>3701200</v>
       </c>
       <c r="F60" s="3">
-        <v>3330400</v>
+        <v>3815800</v>
       </c>
       <c r="G60" s="3">
-        <v>3611700</v>
+        <v>3436200</v>
       </c>
       <c r="H60" s="3">
-        <v>2680700</v>
+        <v>3726400</v>
       </c>
       <c r="I60" s="3">
-        <v>2030000</v>
+        <v>2765800</v>
       </c>
       <c r="J60" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1693500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1589900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2566,64 +2708,67 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="H61" s="3">
-        <v>570000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>609900</v>
+        <v>588100</v>
       </c>
       <c r="J61" s="3">
+        <v>629300</v>
+      </c>
+      <c r="K61" s="3">
         <v>564900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>603500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>374200</v>
+        <v>413100</v>
       </c>
       <c r="E62" s="3">
-        <v>415700</v>
+        <v>386100</v>
       </c>
       <c r="F62" s="3">
-        <v>326100</v>
+        <v>428900</v>
       </c>
       <c r="G62" s="3">
-        <v>56500</v>
+        <v>336500</v>
       </c>
       <c r="H62" s="3">
-        <v>52800</v>
+        <v>58300</v>
       </c>
       <c r="I62" s="3">
-        <v>48400</v>
+        <v>54500</v>
       </c>
       <c r="J62" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K62" s="3">
         <v>27600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38000</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -2631,9 +2776,12 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4127900</v>
+        <v>4699700</v>
       </c>
       <c r="E66" s="3">
-        <v>4237700</v>
+        <v>4259000</v>
       </c>
       <c r="F66" s="3">
-        <v>3724400</v>
+        <v>4372200</v>
       </c>
       <c r="G66" s="3">
-        <v>3661100</v>
+        <v>3842600</v>
       </c>
       <c r="H66" s="3">
-        <v>3297400</v>
+        <v>3777300</v>
       </c>
       <c r="I66" s="3">
-        <v>2695200</v>
+        <v>3402100</v>
       </c>
       <c r="J66" s="3">
+        <v>2780800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2296300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2254000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2919,11 +3086,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>8900</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3121100</v>
+        <v>4124800</v>
       </c>
       <c r="E72" s="3">
-        <v>2469500</v>
+        <v>3220200</v>
       </c>
       <c r="F72" s="3">
-        <v>1659900</v>
+        <v>2547900</v>
       </c>
       <c r="G72" s="3">
-        <v>1100700</v>
+        <v>1712600</v>
       </c>
       <c r="H72" s="3">
-        <v>779900</v>
+        <v>1135700</v>
       </c>
       <c r="I72" s="3">
-        <v>508500</v>
+        <v>804700</v>
       </c>
       <c r="J72" s="3">
+        <v>524600</v>
+      </c>
+      <c r="K72" s="3">
         <v>225000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4542500</v>
+        <v>4703800</v>
       </c>
       <c r="E76" s="3">
-        <v>3966900</v>
+        <v>4686700</v>
       </c>
       <c r="F76" s="3">
-        <v>3038300</v>
+        <v>4092800</v>
       </c>
       <c r="G76" s="3">
-        <v>2402800</v>
+        <v>3134800</v>
       </c>
       <c r="H76" s="3">
-        <v>1989800</v>
+        <v>2479100</v>
       </c>
       <c r="I76" s="3">
-        <v>797900</v>
+        <v>2053000</v>
       </c>
       <c r="J76" s="3">
+        <v>823300</v>
+      </c>
+      <c r="K76" s="3">
         <v>492700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>399900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>651600</v>
+        <v>904600</v>
       </c>
       <c r="E81" s="3">
-        <v>822200</v>
+        <v>672300</v>
       </c>
       <c r="F81" s="3">
-        <v>559100</v>
+        <v>848400</v>
       </c>
       <c r="G81" s="3">
-        <v>296300</v>
+        <v>576900</v>
       </c>
       <c r="H81" s="3">
-        <v>271400</v>
+        <v>305700</v>
       </c>
       <c r="I81" s="3">
-        <v>283500</v>
+        <v>280000</v>
       </c>
       <c r="J81" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K81" s="3">
         <v>221300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>175300</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>158600</v>
+        <v>180900</v>
       </c>
       <c r="F83" s="3">
-        <v>132300</v>
+        <v>163600</v>
       </c>
       <c r="G83" s="3">
-        <v>123900</v>
+        <v>136500</v>
       </c>
       <c r="H83" s="3">
-        <v>155500</v>
+        <v>127800</v>
       </c>
       <c r="I83" s="3">
-        <v>141000</v>
+        <v>160500</v>
       </c>
       <c r="J83" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K83" s="3">
         <v>81300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>938900</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>1645400</v>
+        <v>968700</v>
       </c>
       <c r="F89" s="3">
-        <v>1710800</v>
+        <v>1697700</v>
       </c>
       <c r="G89" s="3">
-        <v>799800</v>
+        <v>1765100</v>
       </c>
       <c r="H89" s="3">
-        <v>136600</v>
+        <v>825200</v>
       </c>
       <c r="I89" s="3">
-        <v>394100</v>
+        <v>140900</v>
       </c>
       <c r="J89" s="3">
+        <v>406600</v>
+      </c>
+      <c r="K89" s="3">
         <v>266600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>510800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-498100</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-316200</v>
+        <v>-514000</v>
       </c>
       <c r="F91" s="3">
-        <v>-595500</v>
+        <v>-326300</v>
       </c>
       <c r="G91" s="3">
-        <v>-500300</v>
+        <v>-614400</v>
       </c>
       <c r="H91" s="3">
-        <v>-344400</v>
+        <v>-516200</v>
       </c>
       <c r="I91" s="3">
-        <v>-302400</v>
+        <v>-355400</v>
       </c>
       <c r="J91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-321700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-266200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-323800</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-931900</v>
+        <v>-334100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1147100</v>
+        <v>-961500</v>
       </c>
       <c r="G94" s="3">
-        <v>-931800</v>
+        <v>-1183500</v>
       </c>
       <c r="H94" s="3">
-        <v>-282900</v>
+        <v>-961400</v>
       </c>
       <c r="I94" s="3">
-        <v>-232300</v>
+        <v>-291900</v>
       </c>
       <c r="J94" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-408900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-665900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-8200</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>-2900</v>
+        <v>-8400</v>
       </c>
       <c r="F100" s="3">
-        <v>-870900</v>
+        <v>-3000</v>
       </c>
       <c r="G100" s="3">
-        <v>81700</v>
+        <v>-898600</v>
       </c>
       <c r="H100" s="3">
-        <v>998000</v>
+        <v>84300</v>
       </c>
       <c r="I100" s="3">
-        <v>-54700</v>
+        <v>1029700</v>
       </c>
       <c r="J100" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-75000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>603100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-15600</v>
+        <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>24700</v>
+        <v>-16100</v>
       </c>
       <c r="H101" s="3">
-        <v>-800</v>
+        <v>25500</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>-900</v>
       </c>
       <c r="J101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>606900</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>708800</v>
+        <v>626200</v>
       </c>
       <c r="F102" s="3">
-        <v>-322800</v>
+        <v>731300</v>
       </c>
       <c r="G102" s="3">
-        <v>-25500</v>
+        <v>-333100</v>
       </c>
       <c r="H102" s="3">
-        <v>850800</v>
+        <v>-26400</v>
       </c>
       <c r="I102" s="3">
-        <v>109300</v>
+        <v>877900</v>
       </c>
       <c r="J102" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-204100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>432800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14814800</v>
+        <v>14663100</v>
       </c>
       <c r="E8" s="3">
-        <v>16812100</v>
+        <v>16640000</v>
       </c>
       <c r="F8" s="3">
-        <v>14628900</v>
+        <v>14479200</v>
       </c>
       <c r="G8" s="3">
-        <v>13355900</v>
+        <v>13219200</v>
       </c>
       <c r="H8" s="3">
-        <v>12139300</v>
+        <v>12015100</v>
       </c>
       <c r="I8" s="3">
-        <v>10471700</v>
+        <v>10364500</v>
       </c>
       <c r="J8" s="3">
-        <v>8127600</v>
+        <v>8044500</v>
       </c>
       <c r="K8" s="3">
         <v>5596300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11710300</v>
+        <v>11590400</v>
       </c>
       <c r="E9" s="3">
-        <v>13493500</v>
+        <v>13355400</v>
       </c>
       <c r="F9" s="3">
-        <v>11571900</v>
+        <v>11453500</v>
       </c>
       <c r="G9" s="3">
-        <v>10385800</v>
+        <v>10279500</v>
       </c>
       <c r="H9" s="3">
-        <v>9687900</v>
+        <v>9588700</v>
       </c>
       <c r="I9" s="3">
-        <v>8131500</v>
+        <v>8048300</v>
       </c>
       <c r="J9" s="3">
-        <v>6174900</v>
+        <v>6111700</v>
       </c>
       <c r="K9" s="3">
         <v>4218700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3104500</v>
+        <v>3072700</v>
       </c>
       <c r="E10" s="3">
-        <v>3318600</v>
+        <v>3284600</v>
       </c>
       <c r="F10" s="3">
-        <v>3057000</v>
+        <v>3025700</v>
       </c>
       <c r="G10" s="3">
-        <v>2970100</v>
+        <v>2939700</v>
       </c>
       <c r="H10" s="3">
-        <v>2451400</v>
+        <v>2426400</v>
       </c>
       <c r="I10" s="3">
-        <v>2340100</v>
+        <v>2316200</v>
       </c>
       <c r="J10" s="3">
-        <v>1952700</v>
+        <v>1932800</v>
       </c>
       <c r="K10" s="3">
         <v>1377600</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13500</v>
+        <v>47400</v>
       </c>
       <c r="E14" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="F14" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="H14" s="3">
         <v>2900</v>
       </c>
       <c r="I14" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="J14" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K14" s="3">
         <v>13900</v>
@@ -1005,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>119300</v>
+        <v>118000</v>
       </c>
       <c r="H15" s="3">
-        <v>110600</v>
+        <v>109500</v>
       </c>
       <c r="I15" s="3">
-        <v>103500</v>
+        <v>102500</v>
       </c>
       <c r="J15" s="3">
-        <v>87700</v>
+        <v>86900</v>
       </c>
       <c r="K15" s="3">
         <v>40600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13938200</v>
+        <v>13795500</v>
       </c>
       <c r="E17" s="3">
-        <v>16069900</v>
+        <v>15905500</v>
       </c>
       <c r="F17" s="3">
-        <v>13793500</v>
+        <v>13652300</v>
       </c>
       <c r="G17" s="3">
-        <v>12688600</v>
+        <v>12558800</v>
       </c>
       <c r="H17" s="3">
-        <v>11794500</v>
+        <v>11673800</v>
       </c>
       <c r="I17" s="3">
-        <v>10104400</v>
+        <v>10000900</v>
       </c>
       <c r="J17" s="3">
-        <v>7755200</v>
+        <v>7675800</v>
       </c>
       <c r="K17" s="3">
         <v>5322000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>876600</v>
+        <v>867600</v>
       </c>
       <c r="E18" s="3">
-        <v>742200</v>
+        <v>734600</v>
       </c>
       <c r="F18" s="3">
-        <v>835400</v>
+        <v>826900</v>
       </c>
       <c r="G18" s="3">
-        <v>667200</v>
+        <v>660400</v>
       </c>
       <c r="H18" s="3">
-        <v>344800</v>
+        <v>341300</v>
       </c>
       <c r="I18" s="3">
-        <v>367300</v>
+        <v>363500</v>
       </c>
       <c r="J18" s="3">
-        <v>372400</v>
+        <v>368600</v>
       </c>
       <c r="K18" s="3">
         <v>274300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>286900</v>
+        <v>284000</v>
       </c>
       <c r="E20" s="3">
-        <v>103400</v>
+        <v>102400</v>
       </c>
       <c r="F20" s="3">
-        <v>182400</v>
+        <v>180500</v>
       </c>
       <c r="G20" s="3">
-        <v>55000</v>
+        <v>54400</v>
       </c>
       <c r="H20" s="3">
-        <v>72600</v>
+        <v>71900</v>
       </c>
       <c r="I20" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J20" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="K20" s="3">
         <v>23000</v>
@@ -1196,26 +1196,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1353600</v>
       </c>
       <c r="E21" s="3">
-        <v>1026800</v>
+        <v>1016900</v>
       </c>
       <c r="F21" s="3">
-        <v>1181700</v>
+        <v>1170200</v>
       </c>
       <c r="G21" s="3">
-        <v>859000</v>
+        <v>850700</v>
       </c>
       <c r="H21" s="3">
-        <v>545500</v>
+        <v>540300</v>
       </c>
       <c r="I21" s="3">
-        <v>537500</v>
+        <v>532500</v>
       </c>
       <c r="J21" s="3">
-        <v>540800</v>
+        <v>535800</v>
       </c>
       <c r="K21" s="3">
         <v>378000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
         <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="H22" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="I22" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="J22" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1160000</v>
+        <v>1148200</v>
       </c>
       <c r="E23" s="3">
-        <v>843500</v>
+        <v>834900</v>
       </c>
       <c r="F23" s="3">
-        <v>1008100</v>
+        <v>997800</v>
       </c>
       <c r="G23" s="3">
-        <v>709900</v>
+        <v>702600</v>
       </c>
       <c r="H23" s="3">
-        <v>394500</v>
+        <v>390500</v>
       </c>
       <c r="I23" s="3">
-        <v>364900</v>
+        <v>361200</v>
       </c>
       <c r="J23" s="3">
-        <v>382900</v>
+        <v>379000</v>
       </c>
       <c r="K23" s="3">
         <v>285400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>252600</v>
+        <v>250000</v>
       </c>
       <c r="E24" s="3">
-        <v>175600</v>
+        <v>173800</v>
       </c>
       <c r="F24" s="3">
-        <v>162300</v>
+        <v>160600</v>
       </c>
       <c r="G24" s="3">
-        <v>141300</v>
+        <v>139800</v>
       </c>
       <c r="H24" s="3">
-        <v>81400</v>
+        <v>80500</v>
       </c>
       <c r="I24" s="3">
-        <v>89900</v>
+        <v>89000</v>
       </c>
       <c r="J24" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="K24" s="3">
         <v>63700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>907400</v>
+        <v>898200</v>
       </c>
       <c r="E26" s="3">
-        <v>667900</v>
+        <v>661100</v>
       </c>
       <c r="F26" s="3">
-        <v>845800</v>
+        <v>837200</v>
       </c>
       <c r="G26" s="3">
-        <v>568600</v>
+        <v>562800</v>
       </c>
       <c r="H26" s="3">
-        <v>313200</v>
+        <v>310000</v>
       </c>
       <c r="I26" s="3">
-        <v>275000</v>
+        <v>272200</v>
       </c>
       <c r="J26" s="3">
-        <v>296500</v>
+        <v>293400</v>
       </c>
       <c r="K26" s="3">
         <v>221700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>904600</v>
+        <v>895400</v>
       </c>
       <c r="E27" s="3">
-        <v>672300</v>
+        <v>665400</v>
       </c>
       <c r="F27" s="3">
-        <v>848400</v>
+        <v>839700</v>
       </c>
       <c r="G27" s="3">
-        <v>576900</v>
+        <v>571000</v>
       </c>
       <c r="H27" s="3">
-        <v>305700</v>
+        <v>302600</v>
       </c>
       <c r="I27" s="3">
-        <v>280000</v>
+        <v>277100</v>
       </c>
       <c r="J27" s="3">
-        <v>292500</v>
+        <v>289500</v>
       </c>
       <c r="K27" s="3">
         <v>221300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-286900</v>
+        <v>-284000</v>
       </c>
       <c r="E32" s="3">
-        <v>-103400</v>
+        <v>-102400</v>
       </c>
       <c r="F32" s="3">
-        <v>-182400</v>
+        <v>-180500</v>
       </c>
       <c r="G32" s="3">
-        <v>-55000</v>
+        <v>-54400</v>
       </c>
       <c r="H32" s="3">
-        <v>-72600</v>
+        <v>-71900</v>
       </c>
       <c r="I32" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="J32" s="3">
-        <v>-22700</v>
+        <v>-22500</v>
       </c>
       <c r="K32" s="3">
         <v>-23000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>904600</v>
+        <v>895400</v>
       </c>
       <c r="E33" s="3">
-        <v>672300</v>
+        <v>665400</v>
       </c>
       <c r="F33" s="3">
-        <v>848400</v>
+        <v>839700</v>
       </c>
       <c r="G33" s="3">
-        <v>576900</v>
+        <v>571000</v>
       </c>
       <c r="H33" s="3">
-        <v>305700</v>
+        <v>302600</v>
       </c>
       <c r="I33" s="3">
-        <v>280000</v>
+        <v>277100</v>
       </c>
       <c r="J33" s="3">
-        <v>292500</v>
+        <v>289500</v>
       </c>
       <c r="K33" s="3">
         <v>221300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>904600</v>
+        <v>895400</v>
       </c>
       <c r="E35" s="3">
-        <v>672300</v>
+        <v>665400</v>
       </c>
       <c r="F35" s="3">
-        <v>848400</v>
+        <v>839700</v>
       </c>
       <c r="G35" s="3">
-        <v>576900</v>
+        <v>571000</v>
       </c>
       <c r="H35" s="3">
-        <v>305700</v>
+        <v>302600</v>
       </c>
       <c r="I35" s="3">
-        <v>280000</v>
+        <v>277100</v>
       </c>
       <c r="J35" s="3">
-        <v>292500</v>
+        <v>289500</v>
       </c>
       <c r="K35" s="3">
         <v>221300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3150800</v>
+        <v>3118600</v>
       </c>
       <c r="E41" s="3">
-        <v>2340600</v>
+        <v>2316700</v>
       </c>
       <c r="F41" s="3">
-        <v>1722800</v>
+        <v>1705100</v>
       </c>
       <c r="G41" s="3">
-        <v>944100</v>
+        <v>934500</v>
       </c>
       <c r="H41" s="3">
-        <v>1370200</v>
+        <v>1356200</v>
       </c>
       <c r="I41" s="3">
-        <v>1432500</v>
+        <v>1417800</v>
       </c>
       <c r="J41" s="3">
-        <v>590200</v>
+        <v>584200</v>
       </c>
       <c r="K41" s="3">
         <v>462800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229200</v>
+        <v>226900</v>
       </c>
       <c r="E42" s="3">
-        <v>772900</v>
+        <v>765000</v>
       </c>
       <c r="F42" s="3">
-        <v>1052600</v>
+        <v>1041800</v>
       </c>
       <c r="G42" s="3">
-        <v>438400</v>
+        <v>433900</v>
       </c>
       <c r="H42" s="3">
-        <v>333400</v>
+        <v>330000</v>
       </c>
       <c r="I42" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="J42" s="3">
-        <v>96500</v>
+        <v>95500</v>
       </c>
       <c r="K42" s="3">
         <v>251600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>505400</v>
+        <v>500300</v>
       </c>
       <c r="E43" s="3">
-        <v>491700</v>
+        <v>486700</v>
       </c>
       <c r="F43" s="3">
-        <v>428200</v>
+        <v>423800</v>
       </c>
       <c r="G43" s="3">
-        <v>653100</v>
+        <v>646500</v>
       </c>
       <c r="H43" s="3">
-        <v>1378400</v>
+        <v>1364300</v>
       </c>
       <c r="I43" s="3">
-        <v>1219000</v>
+        <v>1206600</v>
       </c>
       <c r="J43" s="3">
-        <v>652600</v>
+        <v>645900</v>
       </c>
       <c r="K43" s="3">
         <v>306300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>792200</v>
+        <v>784100</v>
       </c>
       <c r="E44" s="3">
-        <v>986000</v>
+        <v>975900</v>
       </c>
       <c r="F44" s="3">
-        <v>1097600</v>
+        <v>1086400</v>
       </c>
       <c r="G44" s="3">
-        <v>1107100</v>
+        <v>1095700</v>
       </c>
       <c r="H44" s="3">
-        <v>771000</v>
+        <v>763100</v>
       </c>
       <c r="I44" s="3">
-        <v>999600</v>
+        <v>989400</v>
       </c>
       <c r="J44" s="3">
-        <v>710700</v>
+        <v>703400</v>
       </c>
       <c r="K44" s="3">
         <v>635700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>167300</v>
+        <v>165600</v>
       </c>
       <c r="E45" s="3">
-        <v>125500</v>
+        <v>124200</v>
       </c>
       <c r="F45" s="3">
-        <v>175900</v>
+        <v>174100</v>
       </c>
       <c r="G45" s="3">
-        <v>164500</v>
+        <v>162800</v>
       </c>
       <c r="H45" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="I45" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="J45" s="3">
-        <v>44100</v>
+        <v>43700</v>
       </c>
       <c r="K45" s="3">
         <v>35400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4844900</v>
+        <v>4795300</v>
       </c>
       <c r="E46" s="3">
-        <v>4716800</v>
+        <v>4668500</v>
       </c>
       <c r="F46" s="3">
-        <v>4477100</v>
+        <v>4431200</v>
       </c>
       <c r="G46" s="3">
-        <v>3307300</v>
+        <v>3273400</v>
       </c>
       <c r="H46" s="3">
-        <v>3924500</v>
+        <v>3884300</v>
       </c>
       <c r="I46" s="3">
-        <v>3722100</v>
+        <v>3684000</v>
       </c>
       <c r="J46" s="3">
-        <v>2094100</v>
+        <v>2072700</v>
       </c>
       <c r="K46" s="3">
         <v>1691700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>692700</v>
+        <v>685600</v>
       </c>
       <c r="E47" s="3">
-        <v>712300</v>
+        <v>705000</v>
       </c>
       <c r="F47" s="3">
-        <v>690900</v>
+        <v>683900</v>
       </c>
       <c r="G47" s="3">
-        <v>749400</v>
+        <v>741700</v>
       </c>
       <c r="H47" s="3">
-        <v>307100</v>
+        <v>303900</v>
       </c>
       <c r="I47" s="3">
-        <v>86200</v>
+        <v>85300</v>
       </c>
       <c r="J47" s="3">
-        <v>144200</v>
+        <v>142700</v>
       </c>
       <c r="K47" s="3">
         <v>140900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2458400</v>
+        <v>2433200</v>
       </c>
       <c r="E48" s="3">
-        <v>2229700</v>
+        <v>2206900</v>
       </c>
       <c r="F48" s="3">
-        <v>2178000</v>
+        <v>2155700</v>
       </c>
       <c r="G48" s="3">
-        <v>1863100</v>
+        <v>1844000</v>
       </c>
       <c r="H48" s="3">
-        <v>1225300</v>
+        <v>1212800</v>
       </c>
       <c r="I48" s="3">
-        <v>956600</v>
+        <v>946800</v>
       </c>
       <c r="J48" s="3">
-        <v>641600</v>
+        <v>635000</v>
       </c>
       <c r="K48" s="3">
         <v>410600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156800</v>
+        <v>155200</v>
       </c>
       <c r="E49" s="3">
-        <v>130700</v>
+        <v>129400</v>
       </c>
       <c r="F49" s="3">
-        <v>133100</v>
+        <v>131700</v>
       </c>
       <c r="G49" s="3">
-        <v>82400</v>
+        <v>81600</v>
       </c>
       <c r="H49" s="3">
-        <v>103400</v>
+        <v>102400</v>
       </c>
       <c r="I49" s="3">
-        <v>110300</v>
+        <v>109200</v>
       </c>
       <c r="J49" s="3">
-        <v>156900</v>
+        <v>155300</v>
       </c>
       <c r="K49" s="3">
         <v>118800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1250800</v>
+        <v>1237900</v>
       </c>
       <c r="E52" s="3">
-        <v>1156200</v>
+        <v>1144400</v>
       </c>
       <c r="F52" s="3">
-        <v>986000</v>
+        <v>975900</v>
       </c>
       <c r="G52" s="3">
-        <v>975300</v>
+        <v>965300</v>
       </c>
       <c r="H52" s="3">
-        <v>696200</v>
+        <v>689100</v>
       </c>
       <c r="I52" s="3">
-        <v>579900</v>
+        <v>573900</v>
       </c>
       <c r="J52" s="3">
-        <v>567300</v>
+        <v>561400</v>
       </c>
       <c r="K52" s="3">
         <v>427000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9403600</v>
+        <v>9307300</v>
       </c>
       <c r="E54" s="3">
-        <v>8945700</v>
+        <v>8854200</v>
       </c>
       <c r="F54" s="3">
-        <v>8465100</v>
+        <v>8378400</v>
       </c>
       <c r="G54" s="3">
-        <v>6977400</v>
+        <v>6906000</v>
       </c>
       <c r="H54" s="3">
-        <v>6256500</v>
+        <v>6192400</v>
       </c>
       <c r="I54" s="3">
-        <v>5455100</v>
+        <v>5399300</v>
       </c>
       <c r="J54" s="3">
-        <v>3604100</v>
+        <v>3567200</v>
       </c>
       <c r="K54" s="3">
         <v>2788900</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2156900</v>
+        <v>2134800</v>
       </c>
       <c r="E57" s="3">
-        <v>1887900</v>
+        <v>1868600</v>
       </c>
       <c r="F57" s="3">
-        <v>2181800</v>
+        <v>2159400</v>
       </c>
       <c r="G57" s="3">
-        <v>1980800</v>
+        <v>1960600</v>
       </c>
       <c r="H57" s="3">
-        <v>1670300</v>
+        <v>1653200</v>
       </c>
       <c r="I57" s="3">
-        <v>1643700</v>
+        <v>1626900</v>
       </c>
       <c r="J57" s="3">
-        <v>1196900</v>
+        <v>1184600</v>
       </c>
       <c r="K57" s="3">
         <v>925000</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>386000</v>
+        <v>382000</v>
       </c>
       <c r="E58" s="3">
-        <v>283700</v>
+        <v>280800</v>
       </c>
       <c r="F58" s="3">
-        <v>149900</v>
+        <v>148300</v>
       </c>
       <c r="G58" s="3">
-        <v>157100</v>
+        <v>155500</v>
       </c>
       <c r="H58" s="3">
-        <v>953600</v>
+        <v>943800</v>
       </c>
       <c r="I58" s="3">
-        <v>239500</v>
+        <v>237000</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1554000</v>
+        <v>1538100</v>
       </c>
       <c r="E59" s="3">
-        <v>1529700</v>
+        <v>1514000</v>
       </c>
       <c r="F59" s="3">
-        <v>1484200</v>
+        <v>1469000</v>
       </c>
       <c r="G59" s="3">
-        <v>1298300</v>
+        <v>1285000</v>
       </c>
       <c r="H59" s="3">
-        <v>1102500</v>
+        <v>1091200</v>
       </c>
       <c r="I59" s="3">
-        <v>882600</v>
+        <v>873500</v>
       </c>
       <c r="J59" s="3">
-        <v>897600</v>
+        <v>888400</v>
       </c>
       <c r="K59" s="3">
         <v>755300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4096900</v>
+        <v>4055000</v>
       </c>
       <c r="E60" s="3">
-        <v>3701200</v>
+        <v>3663400</v>
       </c>
       <c r="F60" s="3">
-        <v>3815800</v>
+        <v>3776800</v>
       </c>
       <c r="G60" s="3">
-        <v>3436200</v>
+        <v>3401000</v>
       </c>
       <c r="H60" s="3">
-        <v>3726400</v>
+        <v>3688200</v>
       </c>
       <c r="I60" s="3">
-        <v>2765800</v>
+        <v>2737500</v>
       </c>
       <c r="J60" s="3">
-        <v>2094500</v>
+        <v>2073000</v>
       </c>
       <c r="K60" s="3">
         <v>1693500</v>
@@ -2711,16 +2711,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>588100</v>
+        <v>582100</v>
       </c>
       <c r="J61" s="3">
-        <v>629300</v>
+        <v>622900</v>
       </c>
       <c r="K61" s="3">
         <v>564900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413100</v>
+        <v>408900</v>
       </c>
       <c r="E62" s="3">
-        <v>386100</v>
+        <v>382100</v>
       </c>
       <c r="F62" s="3">
-        <v>428900</v>
+        <v>424500</v>
       </c>
       <c r="G62" s="3">
-        <v>336500</v>
+        <v>333000</v>
       </c>
       <c r="H62" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="I62" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="J62" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="K62" s="3">
         <v>27600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4699700</v>
+        <v>4651600</v>
       </c>
       <c r="E66" s="3">
-        <v>4259000</v>
+        <v>4215400</v>
       </c>
       <c r="F66" s="3">
-        <v>4372200</v>
+        <v>4327500</v>
       </c>
       <c r="G66" s="3">
-        <v>3842600</v>
+        <v>3803300</v>
       </c>
       <c r="H66" s="3">
-        <v>3777300</v>
+        <v>3738700</v>
       </c>
       <c r="I66" s="3">
-        <v>3402100</v>
+        <v>3367300</v>
       </c>
       <c r="J66" s="3">
-        <v>2780800</v>
+        <v>2752300</v>
       </c>
       <c r="K66" s="3">
         <v>2296300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4124800</v>
+        <v>4082600</v>
       </c>
       <c r="E72" s="3">
-        <v>3220200</v>
+        <v>3187200</v>
       </c>
       <c r="F72" s="3">
-        <v>2547900</v>
+        <v>2521800</v>
       </c>
       <c r="G72" s="3">
-        <v>1712600</v>
+        <v>1695000</v>
       </c>
       <c r="H72" s="3">
-        <v>1135700</v>
+        <v>1124000</v>
       </c>
       <c r="I72" s="3">
-        <v>804700</v>
+        <v>796400</v>
       </c>
       <c r="J72" s="3">
-        <v>524600</v>
+        <v>519300</v>
       </c>
       <c r="K72" s="3">
         <v>225000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4703800</v>
+        <v>4655700</v>
       </c>
       <c r="E76" s="3">
-        <v>4686700</v>
+        <v>4638800</v>
       </c>
       <c r="F76" s="3">
-        <v>4092800</v>
+        <v>4051000</v>
       </c>
       <c r="G76" s="3">
-        <v>3134800</v>
+        <v>3102700</v>
       </c>
       <c r="H76" s="3">
-        <v>2479100</v>
+        <v>2453800</v>
       </c>
       <c r="I76" s="3">
-        <v>2053000</v>
+        <v>2032000</v>
       </c>
       <c r="J76" s="3">
-        <v>823300</v>
+        <v>814800</v>
       </c>
       <c r="K76" s="3">
         <v>492700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>904600</v>
+        <v>895400</v>
       </c>
       <c r="E81" s="3">
-        <v>672300</v>
+        <v>665400</v>
       </c>
       <c r="F81" s="3">
-        <v>848400</v>
+        <v>839700</v>
       </c>
       <c r="G81" s="3">
-        <v>576900</v>
+        <v>571000</v>
       </c>
       <c r="H81" s="3">
-        <v>305700</v>
+        <v>302600</v>
       </c>
       <c r="I81" s="3">
-        <v>280000</v>
+        <v>277100</v>
       </c>
       <c r="J81" s="3">
-        <v>292500</v>
+        <v>289500</v>
       </c>
       <c r="K81" s="3">
         <v>221300</v>
@@ -3498,26 +3498,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>200900</v>
       </c>
       <c r="E83" s="3">
-        <v>180900</v>
+        <v>179000</v>
       </c>
       <c r="F83" s="3">
-        <v>163600</v>
+        <v>161900</v>
       </c>
       <c r="G83" s="3">
-        <v>136500</v>
+        <v>135100</v>
       </c>
       <c r="H83" s="3">
-        <v>127800</v>
+        <v>126500</v>
       </c>
       <c r="I83" s="3">
-        <v>160500</v>
+        <v>158800</v>
       </c>
       <c r="J83" s="3">
-        <v>145400</v>
+        <v>143900</v>
       </c>
       <c r="K83" s="3">
         <v>81300</v>
@@ -3750,26 +3750,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>1495400</v>
       </c>
       <c r="E89" s="3">
-        <v>968700</v>
+        <v>958800</v>
       </c>
       <c r="F89" s="3">
-        <v>1697700</v>
+        <v>1680300</v>
       </c>
       <c r="G89" s="3">
-        <v>1765100</v>
+        <v>1747000</v>
       </c>
       <c r="H89" s="3">
-        <v>825200</v>
+        <v>816800</v>
       </c>
       <c r="I89" s="3">
-        <v>140900</v>
+        <v>139500</v>
       </c>
       <c r="J89" s="3">
-        <v>406600</v>
+        <v>402500</v>
       </c>
       <c r="K89" s="3">
         <v>266600</v>
@@ -3810,26 +3810,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-441000</v>
       </c>
       <c r="E91" s="3">
-        <v>-514000</v>
+        <v>-508700</v>
       </c>
       <c r="F91" s="3">
-        <v>-326300</v>
+        <v>-322900</v>
       </c>
       <c r="G91" s="3">
-        <v>-614400</v>
+        <v>-608100</v>
       </c>
       <c r="H91" s="3">
-        <v>-516200</v>
+        <v>-510900</v>
       </c>
       <c r="I91" s="3">
-        <v>-355400</v>
+        <v>-351700</v>
       </c>
       <c r="J91" s="3">
-        <v>-312000</v>
+        <v>-308800</v>
       </c>
       <c r="K91" s="3">
         <v>-321700</v>
@@ -3936,26 +3936,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>149100</v>
       </c>
       <c r="E94" s="3">
-        <v>-334100</v>
+        <v>-330700</v>
       </c>
       <c r="F94" s="3">
-        <v>-961500</v>
+        <v>-951700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1183500</v>
+        <v>-1171400</v>
       </c>
       <c r="H94" s="3">
-        <v>-961400</v>
+        <v>-951500</v>
       </c>
       <c r="I94" s="3">
-        <v>-291900</v>
+        <v>-288900</v>
       </c>
       <c r="J94" s="3">
-        <v>-239700</v>
+        <v>-237200</v>
       </c>
       <c r="K94" s="3">
         <v>-408900</v>
@@ -4164,8 +4164,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-792300</v>
       </c>
       <c r="E100" s="3">
         <v>-8400</v>
@@ -4174,16 +4174,16 @@
         <v>-3000</v>
       </c>
       <c r="G100" s="3">
-        <v>-898600</v>
+        <v>-889400</v>
       </c>
       <c r="H100" s="3">
-        <v>84300</v>
+        <v>83400</v>
       </c>
       <c r="I100" s="3">
-        <v>1029700</v>
+        <v>1019200</v>
       </c>
       <c r="J100" s="3">
-        <v>-56500</v>
+        <v>-55900</v>
       </c>
       <c r="K100" s="3">
         <v>-75000</v>
@@ -4206,8 +4206,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -4216,10 +4216,10 @@
         <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="H101" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="I101" s="3">
         <v>-900</v>
@@ -4248,26 +4248,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>843300</v>
       </c>
       <c r="E102" s="3">
-        <v>626200</v>
+        <v>619800</v>
       </c>
       <c r="F102" s="3">
-        <v>731300</v>
+        <v>723800</v>
       </c>
       <c r="G102" s="3">
-        <v>-333100</v>
+        <v>-329700</v>
       </c>
       <c r="H102" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I102" s="3">
-        <v>877900</v>
+        <v>868900</v>
       </c>
       <c r="J102" s="3">
-        <v>112800</v>
+        <v>111600</v>
       </c>
       <c r="K102" s="3">
         <v>-204100</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14663100</v>
+        <v>14212300</v>
       </c>
       <c r="E8" s="3">
-        <v>16640000</v>
+        <v>16128500</v>
       </c>
       <c r="F8" s="3">
-        <v>14479200</v>
+        <v>14034100</v>
       </c>
       <c r="G8" s="3">
-        <v>13219200</v>
+        <v>12812800</v>
       </c>
       <c r="H8" s="3">
-        <v>12015100</v>
+        <v>11645700</v>
       </c>
       <c r="I8" s="3">
-        <v>10364500</v>
+        <v>10045900</v>
       </c>
       <c r="J8" s="3">
-        <v>8044500</v>
+        <v>7797100</v>
       </c>
       <c r="K8" s="3">
         <v>5596300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11590400</v>
+        <v>11234100</v>
       </c>
       <c r="E9" s="3">
-        <v>13355400</v>
+        <v>12944900</v>
       </c>
       <c r="F9" s="3">
-        <v>11453500</v>
+        <v>11101400</v>
       </c>
       <c r="G9" s="3">
-        <v>10279500</v>
+        <v>9963400</v>
       </c>
       <c r="H9" s="3">
-        <v>9588700</v>
+        <v>9293900</v>
       </c>
       <c r="I9" s="3">
-        <v>8048300</v>
+        <v>7800900</v>
       </c>
       <c r="J9" s="3">
-        <v>6111700</v>
+        <v>5923800</v>
       </c>
       <c r="K9" s="3">
         <v>4218700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3072700</v>
+        <v>2978300</v>
       </c>
       <c r="E10" s="3">
-        <v>3284600</v>
+        <v>3183600</v>
       </c>
       <c r="F10" s="3">
-        <v>3025700</v>
+        <v>2932700</v>
       </c>
       <c r="G10" s="3">
-        <v>2939700</v>
+        <v>2849300</v>
       </c>
       <c r="H10" s="3">
-        <v>2426400</v>
+        <v>2351800</v>
       </c>
       <c r="I10" s="3">
-        <v>2316200</v>
+        <v>2245000</v>
       </c>
       <c r="J10" s="3">
-        <v>1932800</v>
+        <v>1873300</v>
       </c>
       <c r="K10" s="3">
         <v>1377600</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>47400</v>
+        <v>45900</v>
       </c>
       <c r="E14" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="H14" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I14" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="J14" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="K14" s="3">
         <v>13900</v>
@@ -1005,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>118000</v>
+        <v>114400</v>
       </c>
       <c r="H15" s="3">
-        <v>109500</v>
+        <v>106100</v>
       </c>
       <c r="I15" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="J15" s="3">
-        <v>86900</v>
+        <v>84200</v>
       </c>
       <c r="K15" s="3">
         <v>40600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13795500</v>
+        <v>13371400</v>
       </c>
       <c r="E17" s="3">
-        <v>15905500</v>
+        <v>15416500</v>
       </c>
       <c r="F17" s="3">
-        <v>13652300</v>
+        <v>13232600</v>
       </c>
       <c r="G17" s="3">
-        <v>12558800</v>
+        <v>12172700</v>
       </c>
       <c r="H17" s="3">
-        <v>11673800</v>
+        <v>11314900</v>
       </c>
       <c r="I17" s="3">
-        <v>10000900</v>
+        <v>9693500</v>
       </c>
       <c r="J17" s="3">
-        <v>7675800</v>
+        <v>7439900</v>
       </c>
       <c r="K17" s="3">
         <v>5322000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>867600</v>
+        <v>840900</v>
       </c>
       <c r="E18" s="3">
-        <v>734600</v>
+        <v>712000</v>
       </c>
       <c r="F18" s="3">
-        <v>826900</v>
+        <v>801500</v>
       </c>
       <c r="G18" s="3">
-        <v>660400</v>
+        <v>640100</v>
       </c>
       <c r="H18" s="3">
-        <v>341300</v>
+        <v>330800</v>
       </c>
       <c r="I18" s="3">
-        <v>363500</v>
+        <v>352400</v>
       </c>
       <c r="J18" s="3">
-        <v>368600</v>
+        <v>357300</v>
       </c>
       <c r="K18" s="3">
         <v>274300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>284000</v>
+        <v>275300</v>
       </c>
       <c r="E20" s="3">
-        <v>102400</v>
+        <v>99200</v>
       </c>
       <c r="F20" s="3">
-        <v>180500</v>
+        <v>175000</v>
       </c>
       <c r="G20" s="3">
-        <v>54400</v>
+        <v>52800</v>
       </c>
       <c r="H20" s="3">
-        <v>71900</v>
+        <v>69700</v>
       </c>
       <c r="I20" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="J20" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="K20" s="3">
         <v>23000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1353600</v>
+        <v>1311000</v>
       </c>
       <c r="E21" s="3">
-        <v>1016900</v>
+        <v>984800</v>
       </c>
       <c r="F21" s="3">
-        <v>1170200</v>
+        <v>1133400</v>
       </c>
       <c r="G21" s="3">
-        <v>850700</v>
+        <v>823800</v>
       </c>
       <c r="H21" s="3">
-        <v>540300</v>
+        <v>523100</v>
       </c>
       <c r="I21" s="3">
-        <v>532500</v>
+        <v>515400</v>
       </c>
       <c r="J21" s="3">
-        <v>535800</v>
+        <v>518600</v>
       </c>
       <c r="K21" s="3">
         <v>378000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G22" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="H22" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="I22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J22" s="3">
         <v>11700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12100</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1148200</v>
+        <v>1112900</v>
       </c>
       <c r="E23" s="3">
-        <v>834900</v>
+        <v>809200</v>
       </c>
       <c r="F23" s="3">
-        <v>997800</v>
+        <v>967100</v>
       </c>
       <c r="G23" s="3">
-        <v>702600</v>
+        <v>681000</v>
       </c>
       <c r="H23" s="3">
-        <v>390500</v>
+        <v>378500</v>
       </c>
       <c r="I23" s="3">
-        <v>361200</v>
+        <v>350100</v>
       </c>
       <c r="J23" s="3">
-        <v>379000</v>
+        <v>367300</v>
       </c>
       <c r="K23" s="3">
         <v>285400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>250000</v>
+        <v>242300</v>
       </c>
       <c r="E24" s="3">
-        <v>173800</v>
+        <v>168500</v>
       </c>
       <c r="F24" s="3">
-        <v>160600</v>
+        <v>155700</v>
       </c>
       <c r="G24" s="3">
-        <v>139800</v>
+        <v>135500</v>
       </c>
       <c r="H24" s="3">
-        <v>80500</v>
+        <v>78100</v>
       </c>
       <c r="I24" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="J24" s="3">
-        <v>85500</v>
+        <v>82900</v>
       </c>
       <c r="K24" s="3">
         <v>63700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>898200</v>
+        <v>870500</v>
       </c>
       <c r="E26" s="3">
-        <v>661100</v>
+        <v>640800</v>
       </c>
       <c r="F26" s="3">
-        <v>837200</v>
+        <v>811400</v>
       </c>
       <c r="G26" s="3">
-        <v>562800</v>
+        <v>545500</v>
       </c>
       <c r="H26" s="3">
-        <v>310000</v>
+        <v>300400</v>
       </c>
       <c r="I26" s="3">
-        <v>272200</v>
+        <v>263800</v>
       </c>
       <c r="J26" s="3">
-        <v>293400</v>
+        <v>284400</v>
       </c>
       <c r="K26" s="3">
         <v>221700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>895400</v>
+        <v>867900</v>
       </c>
       <c r="E27" s="3">
-        <v>665400</v>
+        <v>645000</v>
       </c>
       <c r="F27" s="3">
-        <v>839700</v>
+        <v>813900</v>
       </c>
       <c r="G27" s="3">
-        <v>571000</v>
+        <v>553400</v>
       </c>
       <c r="H27" s="3">
-        <v>302600</v>
+        <v>293300</v>
       </c>
       <c r="I27" s="3">
-        <v>277100</v>
+        <v>268600</v>
       </c>
       <c r="J27" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="K27" s="3">
         <v>221300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-284000</v>
+        <v>-275300</v>
       </c>
       <c r="E32" s="3">
-        <v>-102400</v>
+        <v>-99200</v>
       </c>
       <c r="F32" s="3">
-        <v>-180500</v>
+        <v>-175000</v>
       </c>
       <c r="G32" s="3">
-        <v>-54400</v>
+        <v>-52800</v>
       </c>
       <c r="H32" s="3">
-        <v>-71900</v>
+        <v>-69700</v>
       </c>
       <c r="I32" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="J32" s="3">
-        <v>-22500</v>
+        <v>-21800</v>
       </c>
       <c r="K32" s="3">
         <v>-23000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>895400</v>
+        <v>867900</v>
       </c>
       <c r="E33" s="3">
-        <v>665400</v>
+        <v>645000</v>
       </c>
       <c r="F33" s="3">
-        <v>839700</v>
+        <v>813900</v>
       </c>
       <c r="G33" s="3">
-        <v>571000</v>
+        <v>553400</v>
       </c>
       <c r="H33" s="3">
-        <v>302600</v>
+        <v>293300</v>
       </c>
       <c r="I33" s="3">
-        <v>277100</v>
+        <v>268600</v>
       </c>
       <c r="J33" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="K33" s="3">
         <v>221300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>895400</v>
+        <v>867900</v>
       </c>
       <c r="E35" s="3">
-        <v>665400</v>
+        <v>645000</v>
       </c>
       <c r="F35" s="3">
-        <v>839700</v>
+        <v>813900</v>
       </c>
       <c r="G35" s="3">
-        <v>571000</v>
+        <v>553400</v>
       </c>
       <c r="H35" s="3">
-        <v>302600</v>
+        <v>293300</v>
       </c>
       <c r="I35" s="3">
-        <v>277100</v>
+        <v>268600</v>
       </c>
       <c r="J35" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="K35" s="3">
         <v>221300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3118600</v>
+        <v>3022700</v>
       </c>
       <c r="E41" s="3">
-        <v>2316700</v>
+        <v>2245500</v>
       </c>
       <c r="F41" s="3">
-        <v>1705100</v>
+        <v>1652700</v>
       </c>
       <c r="G41" s="3">
-        <v>934500</v>
+        <v>905700</v>
       </c>
       <c r="H41" s="3">
-        <v>1356200</v>
+        <v>1314500</v>
       </c>
       <c r="I41" s="3">
-        <v>1417800</v>
+        <v>1374200</v>
       </c>
       <c r="J41" s="3">
-        <v>584200</v>
+        <v>566200</v>
       </c>
       <c r="K41" s="3">
         <v>462800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226900</v>
+        <v>219900</v>
       </c>
       <c r="E42" s="3">
-        <v>765000</v>
+        <v>741500</v>
       </c>
       <c r="F42" s="3">
-        <v>1041800</v>
+        <v>1009800</v>
       </c>
       <c r="G42" s="3">
-        <v>433900</v>
+        <v>420600</v>
       </c>
       <c r="H42" s="3">
-        <v>330000</v>
+        <v>319800</v>
       </c>
       <c r="I42" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="J42" s="3">
-        <v>95500</v>
+        <v>92600</v>
       </c>
       <c r="K42" s="3">
         <v>251600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500300</v>
+        <v>484900</v>
       </c>
       <c r="E43" s="3">
-        <v>486700</v>
+        <v>471800</v>
       </c>
       <c r="F43" s="3">
-        <v>423800</v>
+        <v>410800</v>
       </c>
       <c r="G43" s="3">
-        <v>646500</v>
+        <v>626600</v>
       </c>
       <c r="H43" s="3">
-        <v>1364300</v>
+        <v>1322400</v>
       </c>
       <c r="I43" s="3">
-        <v>1206600</v>
+        <v>1169500</v>
       </c>
       <c r="J43" s="3">
-        <v>645900</v>
+        <v>626000</v>
       </c>
       <c r="K43" s="3">
         <v>306300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>784100</v>
+        <v>760000</v>
       </c>
       <c r="E44" s="3">
-        <v>975900</v>
+        <v>945900</v>
       </c>
       <c r="F44" s="3">
-        <v>1086400</v>
+        <v>1053000</v>
       </c>
       <c r="G44" s="3">
-        <v>1095700</v>
+        <v>1062000</v>
       </c>
       <c r="H44" s="3">
-        <v>763100</v>
+        <v>739600</v>
       </c>
       <c r="I44" s="3">
-        <v>989400</v>
+        <v>959000</v>
       </c>
       <c r="J44" s="3">
-        <v>703400</v>
+        <v>681800</v>
       </c>
       <c r="K44" s="3">
         <v>635700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165600</v>
+        <v>160500</v>
       </c>
       <c r="E45" s="3">
-        <v>124200</v>
+        <v>120400</v>
       </c>
       <c r="F45" s="3">
-        <v>174100</v>
+        <v>168700</v>
       </c>
       <c r="G45" s="3">
-        <v>162800</v>
+        <v>157800</v>
       </c>
       <c r="H45" s="3">
-        <v>70800</v>
+        <v>68600</v>
       </c>
       <c r="I45" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="J45" s="3">
-        <v>43700</v>
+        <v>42300</v>
       </c>
       <c r="K45" s="3">
         <v>35400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4795300</v>
+        <v>4647900</v>
       </c>
       <c r="E46" s="3">
-        <v>4668500</v>
+        <v>4525000</v>
       </c>
       <c r="F46" s="3">
-        <v>4431200</v>
+        <v>4295000</v>
       </c>
       <c r="G46" s="3">
-        <v>3273400</v>
+        <v>3172800</v>
       </c>
       <c r="H46" s="3">
-        <v>3884300</v>
+        <v>3764900</v>
       </c>
       <c r="I46" s="3">
-        <v>3684000</v>
+        <v>3570700</v>
       </c>
       <c r="J46" s="3">
-        <v>2072700</v>
+        <v>2009000</v>
       </c>
       <c r="K46" s="3">
         <v>1691700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>685600</v>
+        <v>664500</v>
       </c>
       <c r="E47" s="3">
-        <v>705000</v>
+        <v>683400</v>
       </c>
       <c r="F47" s="3">
-        <v>683900</v>
+        <v>662800</v>
       </c>
       <c r="G47" s="3">
-        <v>741700</v>
+        <v>718900</v>
       </c>
       <c r="H47" s="3">
-        <v>303900</v>
+        <v>294600</v>
       </c>
       <c r="I47" s="3">
-        <v>85300</v>
+        <v>82700</v>
       </c>
       <c r="J47" s="3">
-        <v>142700</v>
+        <v>138400</v>
       </c>
       <c r="K47" s="3">
         <v>140900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2433200</v>
+        <v>2358400</v>
       </c>
       <c r="E48" s="3">
-        <v>2206900</v>
+        <v>2139000</v>
       </c>
       <c r="F48" s="3">
-        <v>2155700</v>
+        <v>2089500</v>
       </c>
       <c r="G48" s="3">
-        <v>1844000</v>
+        <v>1787300</v>
       </c>
       <c r="H48" s="3">
-        <v>1212800</v>
+        <v>1175500</v>
       </c>
       <c r="I48" s="3">
-        <v>946800</v>
+        <v>917700</v>
       </c>
       <c r="J48" s="3">
-        <v>635000</v>
+        <v>615500</v>
       </c>
       <c r="K48" s="3">
         <v>410600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>155200</v>
+        <v>150400</v>
       </c>
       <c r="E49" s="3">
-        <v>129400</v>
+        <v>125400</v>
       </c>
       <c r="F49" s="3">
-        <v>131700</v>
+        <v>127700</v>
       </c>
       <c r="G49" s="3">
-        <v>81600</v>
+        <v>79100</v>
       </c>
       <c r="H49" s="3">
-        <v>102400</v>
+        <v>99200</v>
       </c>
       <c r="I49" s="3">
-        <v>109200</v>
+        <v>105800</v>
       </c>
       <c r="J49" s="3">
-        <v>155300</v>
+        <v>150500</v>
       </c>
       <c r="K49" s="3">
         <v>118800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1237900</v>
+        <v>1199900</v>
       </c>
       <c r="E52" s="3">
-        <v>1144400</v>
+        <v>1109200</v>
       </c>
       <c r="F52" s="3">
-        <v>975900</v>
+        <v>945900</v>
       </c>
       <c r="G52" s="3">
-        <v>965300</v>
+        <v>935600</v>
       </c>
       <c r="H52" s="3">
-        <v>689100</v>
+        <v>667900</v>
       </c>
       <c r="I52" s="3">
-        <v>573900</v>
+        <v>556300</v>
       </c>
       <c r="J52" s="3">
-        <v>561400</v>
+        <v>544200</v>
       </c>
       <c r="K52" s="3">
         <v>427000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9307300</v>
+        <v>9021200</v>
       </c>
       <c r="E54" s="3">
-        <v>8854200</v>
+        <v>8582000</v>
       </c>
       <c r="F54" s="3">
-        <v>8378400</v>
+        <v>8120900</v>
       </c>
       <c r="G54" s="3">
-        <v>6906000</v>
+        <v>6693700</v>
       </c>
       <c r="H54" s="3">
-        <v>6192400</v>
+        <v>6002100</v>
       </c>
       <c r="I54" s="3">
-        <v>5399300</v>
+        <v>5233300</v>
       </c>
       <c r="J54" s="3">
-        <v>3567200</v>
+        <v>3457500</v>
       </c>
       <c r="K54" s="3">
         <v>2788900</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2134800</v>
+        <v>2069200</v>
       </c>
       <c r="E57" s="3">
-        <v>1868600</v>
+        <v>1811100</v>
       </c>
       <c r="F57" s="3">
-        <v>2159400</v>
+        <v>2093100</v>
       </c>
       <c r="G57" s="3">
-        <v>1960600</v>
+        <v>1900300</v>
       </c>
       <c r="H57" s="3">
-        <v>1653200</v>
+        <v>1602400</v>
       </c>
       <c r="I57" s="3">
-        <v>1626900</v>
+        <v>1576900</v>
       </c>
       <c r="J57" s="3">
-        <v>1184600</v>
+        <v>1148200</v>
       </c>
       <c r="K57" s="3">
         <v>925000</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>382000</v>
+        <v>370300</v>
       </c>
       <c r="E58" s="3">
-        <v>280800</v>
+        <v>272100</v>
       </c>
       <c r="F58" s="3">
-        <v>148300</v>
+        <v>143800</v>
       </c>
       <c r="G58" s="3">
-        <v>155500</v>
+        <v>150700</v>
       </c>
       <c r="H58" s="3">
-        <v>943800</v>
+        <v>914800</v>
       </c>
       <c r="I58" s="3">
-        <v>237000</v>
+        <v>229700</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1538100</v>
+        <v>1490900</v>
       </c>
       <c r="E59" s="3">
-        <v>1514000</v>
+        <v>1467500</v>
       </c>
       <c r="F59" s="3">
-        <v>1469000</v>
+        <v>1423800</v>
       </c>
       <c r="G59" s="3">
-        <v>1285000</v>
+        <v>1245500</v>
       </c>
       <c r="H59" s="3">
-        <v>1091200</v>
+        <v>1057600</v>
       </c>
       <c r="I59" s="3">
-        <v>873500</v>
+        <v>846700</v>
       </c>
       <c r="J59" s="3">
-        <v>888400</v>
+        <v>861100</v>
       </c>
       <c r="K59" s="3">
         <v>755300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4055000</v>
+        <v>3930300</v>
       </c>
       <c r="E60" s="3">
-        <v>3663400</v>
+        <v>3550700</v>
       </c>
       <c r="F60" s="3">
-        <v>3776800</v>
+        <v>3660700</v>
       </c>
       <c r="G60" s="3">
-        <v>3401000</v>
+        <v>3296500</v>
       </c>
       <c r="H60" s="3">
-        <v>3688200</v>
+        <v>3574800</v>
       </c>
       <c r="I60" s="3">
-        <v>2737500</v>
+        <v>2653300</v>
       </c>
       <c r="J60" s="3">
-        <v>2073000</v>
+        <v>2009300</v>
       </c>
       <c r="K60" s="3">
         <v>1693500</v>
@@ -2711,16 +2711,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>582100</v>
+        <v>564200</v>
       </c>
       <c r="J61" s="3">
-        <v>622900</v>
+        <v>603700</v>
       </c>
       <c r="K61" s="3">
         <v>564900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408900</v>
+        <v>396300</v>
       </c>
       <c r="E62" s="3">
-        <v>382100</v>
+        <v>370400</v>
       </c>
       <c r="F62" s="3">
-        <v>424500</v>
+        <v>411400</v>
       </c>
       <c r="G62" s="3">
-        <v>333000</v>
+        <v>322800</v>
       </c>
       <c r="H62" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="I62" s="3">
-        <v>54000</v>
+        <v>52300</v>
       </c>
       <c r="J62" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="K62" s="3">
         <v>27600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4651600</v>
+        <v>4508600</v>
       </c>
       <c r="E66" s="3">
-        <v>4215400</v>
+        <v>4085800</v>
       </c>
       <c r="F66" s="3">
-        <v>4327500</v>
+        <v>4194400</v>
       </c>
       <c r="G66" s="3">
-        <v>3803300</v>
+        <v>3686400</v>
       </c>
       <c r="H66" s="3">
-        <v>3738700</v>
+        <v>3623700</v>
       </c>
       <c r="I66" s="3">
-        <v>3367300</v>
+        <v>3263800</v>
       </c>
       <c r="J66" s="3">
-        <v>2752300</v>
+        <v>2667700</v>
       </c>
       <c r="K66" s="3">
         <v>2296300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4082600</v>
+        <v>3957100</v>
       </c>
       <c r="E72" s="3">
-        <v>3187200</v>
+        <v>3089200</v>
       </c>
       <c r="F72" s="3">
-        <v>2521800</v>
+        <v>2444300</v>
       </c>
       <c r="G72" s="3">
-        <v>1695000</v>
+        <v>1642900</v>
       </c>
       <c r="H72" s="3">
-        <v>1124000</v>
+        <v>1089500</v>
       </c>
       <c r="I72" s="3">
-        <v>796400</v>
+        <v>771900</v>
       </c>
       <c r="J72" s="3">
-        <v>519300</v>
+        <v>503300</v>
       </c>
       <c r="K72" s="3">
         <v>225000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4655700</v>
+        <v>4512600</v>
       </c>
       <c r="E76" s="3">
-        <v>4638800</v>
+        <v>4496200</v>
       </c>
       <c r="F76" s="3">
-        <v>4051000</v>
+        <v>3926400</v>
       </c>
       <c r="G76" s="3">
-        <v>3102700</v>
+        <v>3007300</v>
       </c>
       <c r="H76" s="3">
-        <v>2453800</v>
+        <v>2378300</v>
       </c>
       <c r="I76" s="3">
-        <v>2032000</v>
+        <v>1969500</v>
       </c>
       <c r="J76" s="3">
-        <v>814800</v>
+        <v>789800</v>
       </c>
       <c r="K76" s="3">
         <v>492700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>895400</v>
+        <v>867900</v>
       </c>
       <c r="E81" s="3">
-        <v>665400</v>
+        <v>645000</v>
       </c>
       <c r="F81" s="3">
-        <v>839700</v>
+        <v>813900</v>
       </c>
       <c r="G81" s="3">
-        <v>571000</v>
+        <v>553400</v>
       </c>
       <c r="H81" s="3">
-        <v>302600</v>
+        <v>293300</v>
       </c>
       <c r="I81" s="3">
-        <v>277100</v>
+        <v>268600</v>
       </c>
       <c r="J81" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="K81" s="3">
         <v>221300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200900</v>
+        <v>194700</v>
       </c>
       <c r="E83" s="3">
-        <v>179000</v>
+        <v>173500</v>
       </c>
       <c r="F83" s="3">
-        <v>161900</v>
+        <v>157000</v>
       </c>
       <c r="G83" s="3">
-        <v>135100</v>
+        <v>131000</v>
       </c>
       <c r="H83" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="I83" s="3">
-        <v>158800</v>
+        <v>153900</v>
       </c>
       <c r="J83" s="3">
-        <v>143900</v>
+        <v>139500</v>
       </c>
       <c r="K83" s="3">
         <v>81300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1495400</v>
+        <v>1449400</v>
       </c>
       <c r="E89" s="3">
-        <v>958800</v>
+        <v>929300</v>
       </c>
       <c r="F89" s="3">
-        <v>1680300</v>
+        <v>1628600</v>
       </c>
       <c r="G89" s="3">
-        <v>1747000</v>
+        <v>1693300</v>
       </c>
       <c r="H89" s="3">
-        <v>816800</v>
+        <v>791600</v>
       </c>
       <c r="I89" s="3">
-        <v>139500</v>
+        <v>135200</v>
       </c>
       <c r="J89" s="3">
-        <v>402500</v>
+        <v>390100</v>
       </c>
       <c r="K89" s="3">
         <v>266600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-441000</v>
+        <v>-427500</v>
       </c>
       <c r="E91" s="3">
-        <v>-508700</v>
+        <v>-493100</v>
       </c>
       <c r="F91" s="3">
-        <v>-322900</v>
+        <v>-313000</v>
       </c>
       <c r="G91" s="3">
-        <v>-608100</v>
+        <v>-589400</v>
       </c>
       <c r="H91" s="3">
-        <v>-510900</v>
+        <v>-495200</v>
       </c>
       <c r="I91" s="3">
-        <v>-351700</v>
+        <v>-340900</v>
       </c>
       <c r="J91" s="3">
-        <v>-308800</v>
+        <v>-299300</v>
       </c>
       <c r="K91" s="3">
         <v>-321700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>149100</v>
+        <v>144600</v>
       </c>
       <c r="E94" s="3">
-        <v>-330700</v>
+        <v>-320500</v>
       </c>
       <c r="F94" s="3">
-        <v>-951700</v>
+        <v>-922400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1171400</v>
+        <v>-1135400</v>
       </c>
       <c r="H94" s="3">
-        <v>-951500</v>
+        <v>-922300</v>
       </c>
       <c r="I94" s="3">
-        <v>-288900</v>
+        <v>-280100</v>
       </c>
       <c r="J94" s="3">
-        <v>-237200</v>
+        <v>-230000</v>
       </c>
       <c r="K94" s="3">
         <v>-408900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-792300</v>
+        <v>-767900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G100" s="3">
-        <v>-889400</v>
+        <v>-862000</v>
       </c>
       <c r="H100" s="3">
-        <v>83400</v>
+        <v>80900</v>
       </c>
       <c r="I100" s="3">
-        <v>1019200</v>
+        <v>987900</v>
       </c>
       <c r="J100" s="3">
-        <v>-55900</v>
+        <v>-54200</v>
       </c>
       <c r="K100" s="3">
         <v>-75000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="H101" s="3">
-        <v>25200</v>
+        <v>24500</v>
       </c>
       <c r="I101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>13200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>843300</v>
+        <v>817300</v>
       </c>
       <c r="E102" s="3">
-        <v>619800</v>
+        <v>600700</v>
       </c>
       <c r="F102" s="3">
-        <v>723800</v>
+        <v>701600</v>
       </c>
       <c r="G102" s="3">
-        <v>-329700</v>
+        <v>-319500</v>
       </c>
       <c r="H102" s="3">
-        <v>-26100</v>
+        <v>-25300</v>
       </c>
       <c r="I102" s="3">
-        <v>868900</v>
+        <v>842200</v>
       </c>
       <c r="J102" s="3">
-        <v>111600</v>
+        <v>108200</v>
       </c>
       <c r="K102" s="3">
         <v>-204100</v>

--- a/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIPS_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14212300</v>
+        <v>14243300</v>
       </c>
       <c r="E8" s="3">
-        <v>16128500</v>
+        <v>16163600</v>
       </c>
       <c r="F8" s="3">
-        <v>14034100</v>
+        <v>14064600</v>
       </c>
       <c r="G8" s="3">
-        <v>12812800</v>
+        <v>12840700</v>
       </c>
       <c r="H8" s="3">
-        <v>11645700</v>
+        <v>11671100</v>
       </c>
       <c r="I8" s="3">
-        <v>10045900</v>
+        <v>10067700</v>
       </c>
       <c r="J8" s="3">
-        <v>7797100</v>
+        <v>7814100</v>
       </c>
       <c r="K8" s="3">
         <v>5596300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11234100</v>
+        <v>11258500</v>
       </c>
       <c r="E9" s="3">
-        <v>12944900</v>
+        <v>12973000</v>
       </c>
       <c r="F9" s="3">
-        <v>11101400</v>
+        <v>11125500</v>
       </c>
       <c r="G9" s="3">
-        <v>9963400</v>
+        <v>9985100</v>
       </c>
       <c r="H9" s="3">
-        <v>9293900</v>
+        <v>9314200</v>
       </c>
       <c r="I9" s="3">
-        <v>7800900</v>
+        <v>7817900</v>
       </c>
       <c r="J9" s="3">
-        <v>5923800</v>
+        <v>5936700</v>
       </c>
       <c r="K9" s="3">
         <v>4218700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2978300</v>
+        <v>2984700</v>
       </c>
       <c r="E10" s="3">
-        <v>3183600</v>
+        <v>3190600</v>
       </c>
       <c r="F10" s="3">
-        <v>2932700</v>
+        <v>2939100</v>
       </c>
       <c r="G10" s="3">
-        <v>2849300</v>
+        <v>2855500</v>
       </c>
       <c r="H10" s="3">
-        <v>2351800</v>
+        <v>2356900</v>
       </c>
       <c r="I10" s="3">
-        <v>2245000</v>
+        <v>2249900</v>
       </c>
       <c r="J10" s="3">
-        <v>1873300</v>
+        <v>1877400</v>
       </c>
       <c r="K10" s="3">
         <v>1377600</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="E14" s="3">
-        <v>57100</v>
+        <v>57300</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G14" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="H14" s="3">
         <v>2800</v>
       </c>
       <c r="I14" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J14" s="3">
         <v>15800</v>
@@ -1005,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>114400</v>
+        <v>114700</v>
       </c>
       <c r="H15" s="3">
-        <v>106100</v>
+        <v>106400</v>
       </c>
       <c r="I15" s="3">
-        <v>99300</v>
+        <v>99500</v>
       </c>
       <c r="J15" s="3">
-        <v>84200</v>
+        <v>84400</v>
       </c>
       <c r="K15" s="3">
         <v>40600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13371400</v>
+        <v>13400500</v>
       </c>
       <c r="E17" s="3">
-        <v>15416500</v>
+        <v>15450100</v>
       </c>
       <c r="F17" s="3">
-        <v>13232600</v>
+        <v>13261400</v>
       </c>
       <c r="G17" s="3">
-        <v>12172700</v>
+        <v>12199200</v>
       </c>
       <c r="H17" s="3">
-        <v>11314900</v>
+        <v>11339500</v>
       </c>
       <c r="I17" s="3">
-        <v>9693500</v>
+        <v>9714600</v>
       </c>
       <c r="J17" s="3">
-        <v>7439900</v>
+        <v>7456100</v>
       </c>
       <c r="K17" s="3">
         <v>5322000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>840900</v>
+        <v>842800</v>
       </c>
       <c r="E18" s="3">
-        <v>712000</v>
+        <v>713500</v>
       </c>
       <c r="F18" s="3">
-        <v>801500</v>
+        <v>803200</v>
       </c>
       <c r="G18" s="3">
-        <v>640100</v>
+        <v>641500</v>
       </c>
       <c r="H18" s="3">
-        <v>330800</v>
+        <v>331500</v>
       </c>
       <c r="I18" s="3">
-        <v>352400</v>
+        <v>353100</v>
       </c>
       <c r="J18" s="3">
-        <v>357300</v>
+        <v>358100</v>
       </c>
       <c r="K18" s="3">
         <v>274300</v>
@@ -1155,19 +1155,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>275300</v>
+        <v>275900</v>
       </c>
       <c r="E20" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="F20" s="3">
-        <v>175000</v>
+        <v>175300</v>
       </c>
       <c r="G20" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="H20" s="3">
-        <v>69700</v>
+        <v>69800</v>
       </c>
       <c r="I20" s="3">
         <v>9100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1311000</v>
+        <v>1313700</v>
       </c>
       <c r="E21" s="3">
-        <v>984800</v>
+        <v>986800</v>
       </c>
       <c r="F21" s="3">
-        <v>1133400</v>
+        <v>1135800</v>
       </c>
       <c r="G21" s="3">
-        <v>823800</v>
+        <v>825500</v>
       </c>
       <c r="H21" s="3">
-        <v>523100</v>
+        <v>524200</v>
       </c>
       <c r="I21" s="3">
-        <v>515400</v>
+        <v>516400</v>
       </c>
       <c r="J21" s="3">
-        <v>518600</v>
+        <v>519600</v>
       </c>
       <c r="K21" s="3">
         <v>378000</v>
@@ -1248,16 +1248,16 @@
         <v>9300</v>
       </c>
       <c r="G22" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H22" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="I22" s="3">
         <v>11400</v>
       </c>
       <c r="J22" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1112900</v>
+        <v>1115300</v>
       </c>
       <c r="E23" s="3">
-        <v>809200</v>
+        <v>811000</v>
       </c>
       <c r="F23" s="3">
-        <v>967100</v>
+        <v>969200</v>
       </c>
       <c r="G23" s="3">
-        <v>681000</v>
+        <v>682500</v>
       </c>
       <c r="H23" s="3">
-        <v>378500</v>
+        <v>379300</v>
       </c>
       <c r="I23" s="3">
-        <v>350100</v>
+        <v>350800</v>
       </c>
       <c r="J23" s="3">
-        <v>367300</v>
+        <v>368100</v>
       </c>
       <c r="K23" s="3">
         <v>285400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>242300</v>
+        <v>242900</v>
       </c>
       <c r="E24" s="3">
-        <v>168500</v>
+        <v>168800</v>
       </c>
       <c r="F24" s="3">
-        <v>155700</v>
+        <v>156000</v>
       </c>
       <c r="G24" s="3">
-        <v>135500</v>
+        <v>135800</v>
       </c>
       <c r="H24" s="3">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="I24" s="3">
-        <v>86300</v>
+        <v>86500</v>
       </c>
       <c r="J24" s="3">
-        <v>82900</v>
+        <v>83100</v>
       </c>
       <c r="K24" s="3">
         <v>63700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>870500</v>
+        <v>872400</v>
       </c>
       <c r="E26" s="3">
-        <v>640800</v>
+        <v>642200</v>
       </c>
       <c r="F26" s="3">
-        <v>811400</v>
+        <v>813200</v>
       </c>
       <c r="G26" s="3">
-        <v>545500</v>
+        <v>546700</v>
       </c>
       <c r="H26" s="3">
-        <v>300400</v>
+        <v>301100</v>
       </c>
       <c r="I26" s="3">
-        <v>263800</v>
+        <v>264400</v>
       </c>
       <c r="J26" s="3">
-        <v>284400</v>
+        <v>285000</v>
       </c>
       <c r="K26" s="3">
         <v>221700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>867900</v>
+        <v>869700</v>
       </c>
       <c r="E27" s="3">
-        <v>645000</v>
+        <v>646400</v>
       </c>
       <c r="F27" s="3">
-        <v>813900</v>
+        <v>815600</v>
       </c>
       <c r="G27" s="3">
-        <v>553400</v>
+        <v>554600</v>
       </c>
       <c r="H27" s="3">
-        <v>293300</v>
+        <v>293900</v>
       </c>
       <c r="I27" s="3">
-        <v>268600</v>
+        <v>269200</v>
       </c>
       <c r="J27" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="K27" s="3">
         <v>221300</v>
@@ -1659,19 +1659,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-275300</v>
+        <v>-275900</v>
       </c>
       <c r="E32" s="3">
-        <v>-99200</v>
+        <v>-99400</v>
       </c>
       <c r="F32" s="3">
-        <v>-175000</v>
+        <v>-175300</v>
       </c>
       <c r="G32" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="H32" s="3">
-        <v>-69700</v>
+        <v>-69800</v>
       </c>
       <c r="I32" s="3">
         <v>-9100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>867900</v>
+        <v>869700</v>
       </c>
       <c r="E33" s="3">
-        <v>645000</v>
+        <v>646400</v>
       </c>
       <c r="F33" s="3">
-        <v>813900</v>
+        <v>815600</v>
       </c>
       <c r="G33" s="3">
-        <v>553400</v>
+        <v>554600</v>
       </c>
       <c r="H33" s="3">
-        <v>293300</v>
+        <v>293900</v>
       </c>
       <c r="I33" s="3">
-        <v>268600</v>
+        <v>269200</v>
       </c>
       <c r="J33" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="K33" s="3">
         <v>221300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>867900</v>
+        <v>869700</v>
       </c>
       <c r="E35" s="3">
-        <v>645000</v>
+        <v>646400</v>
       </c>
       <c r="F35" s="3">
-        <v>813900</v>
+        <v>815600</v>
       </c>
       <c r="G35" s="3">
-        <v>553400</v>
+        <v>554600</v>
       </c>
       <c r="H35" s="3">
-        <v>293300</v>
+        <v>293900</v>
       </c>
       <c r="I35" s="3">
-        <v>268600</v>
+        <v>269200</v>
       </c>
       <c r="J35" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="K35" s="3">
         <v>221300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3022700</v>
+        <v>3029300</v>
       </c>
       <c r="E41" s="3">
-        <v>2245500</v>
+        <v>2250300</v>
       </c>
       <c r="F41" s="3">
-        <v>1652700</v>
+        <v>1656300</v>
       </c>
       <c r="G41" s="3">
-        <v>905700</v>
+        <v>907700</v>
       </c>
       <c r="H41" s="3">
-        <v>1314500</v>
+        <v>1317400</v>
       </c>
       <c r="I41" s="3">
-        <v>1374200</v>
+        <v>1377200</v>
       </c>
       <c r="J41" s="3">
-        <v>566200</v>
+        <v>567500</v>
       </c>
       <c r="K41" s="3">
         <v>462800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>219900</v>
+        <v>220400</v>
       </c>
       <c r="E42" s="3">
-        <v>741500</v>
+        <v>743100</v>
       </c>
       <c r="F42" s="3">
-        <v>1009800</v>
+        <v>1011900</v>
       </c>
       <c r="G42" s="3">
-        <v>420600</v>
+        <v>421500</v>
       </c>
       <c r="H42" s="3">
-        <v>319800</v>
+        <v>320500</v>
       </c>
       <c r="I42" s="3">
-        <v>33900</v>
+        <v>34000</v>
       </c>
       <c r="J42" s="3">
-        <v>92600</v>
+        <v>92800</v>
       </c>
       <c r="K42" s="3">
         <v>251600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>484900</v>
+        <v>485900</v>
       </c>
       <c r="E43" s="3">
-        <v>471800</v>
+        <v>472800</v>
       </c>
       <c r="F43" s="3">
-        <v>410800</v>
+        <v>411700</v>
       </c>
       <c r="G43" s="3">
-        <v>626600</v>
+        <v>628000</v>
       </c>
       <c r="H43" s="3">
-        <v>1322400</v>
+        <v>1325300</v>
       </c>
       <c r="I43" s="3">
-        <v>1169500</v>
+        <v>1172000</v>
       </c>
       <c r="J43" s="3">
-        <v>626000</v>
+        <v>627400</v>
       </c>
       <c r="K43" s="3">
         <v>306300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>760000</v>
+        <v>761600</v>
       </c>
       <c r="E44" s="3">
-        <v>945900</v>
+        <v>947900</v>
       </c>
       <c r="F44" s="3">
-        <v>1053000</v>
+        <v>1055300</v>
       </c>
       <c r="G44" s="3">
-        <v>1062000</v>
+        <v>1064400</v>
       </c>
       <c r="H44" s="3">
-        <v>739600</v>
+        <v>741200</v>
       </c>
       <c r="I44" s="3">
-        <v>959000</v>
+        <v>961100</v>
       </c>
       <c r="J44" s="3">
-        <v>681800</v>
+        <v>683300</v>
       </c>
       <c r="K44" s="3">
         <v>635700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>160500</v>
+        <v>160800</v>
       </c>
       <c r="E45" s="3">
-        <v>120400</v>
+        <v>120700</v>
       </c>
       <c r="F45" s="3">
-        <v>168700</v>
+        <v>169100</v>
       </c>
       <c r="G45" s="3">
-        <v>157800</v>
+        <v>158200</v>
       </c>
       <c r="H45" s="3">
-        <v>68600</v>
+        <v>68800</v>
       </c>
       <c r="I45" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="J45" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="K45" s="3">
         <v>35400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4647900</v>
+        <v>4658100</v>
       </c>
       <c r="E46" s="3">
-        <v>4525000</v>
+        <v>4534800</v>
       </c>
       <c r="F46" s="3">
-        <v>4295000</v>
+        <v>4304400</v>
       </c>
       <c r="G46" s="3">
-        <v>3172800</v>
+        <v>3179700</v>
       </c>
       <c r="H46" s="3">
-        <v>3764900</v>
+        <v>3773100</v>
       </c>
       <c r="I46" s="3">
-        <v>3570700</v>
+        <v>3578500</v>
       </c>
       <c r="J46" s="3">
-        <v>2009000</v>
+        <v>2013300</v>
       </c>
       <c r="K46" s="3">
         <v>1691700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>664500</v>
+        <v>666000</v>
       </c>
       <c r="E47" s="3">
-        <v>683400</v>
+        <v>684800</v>
       </c>
       <c r="F47" s="3">
-        <v>662800</v>
+        <v>664300</v>
       </c>
       <c r="G47" s="3">
-        <v>718900</v>
+        <v>720500</v>
       </c>
       <c r="H47" s="3">
-        <v>294600</v>
+        <v>295200</v>
       </c>
       <c r="I47" s="3">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="J47" s="3">
-        <v>138400</v>
+        <v>138700</v>
       </c>
       <c r="K47" s="3">
         <v>140900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2358400</v>
+        <v>2363600</v>
       </c>
       <c r="E48" s="3">
-        <v>2139000</v>
+        <v>2143700</v>
       </c>
       <c r="F48" s="3">
-        <v>2089500</v>
+        <v>2094000</v>
       </c>
       <c r="G48" s="3">
-        <v>1787300</v>
+        <v>1791200</v>
       </c>
       <c r="H48" s="3">
-        <v>1175500</v>
+        <v>1178000</v>
       </c>
       <c r="I48" s="3">
-        <v>917700</v>
+        <v>919700</v>
       </c>
       <c r="J48" s="3">
-        <v>615500</v>
+        <v>616900</v>
       </c>
       <c r="K48" s="3">
         <v>410600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150400</v>
+        <v>150800</v>
       </c>
       <c r="E49" s="3">
-        <v>125400</v>
+        <v>125700</v>
       </c>
       <c r="F49" s="3">
-        <v>127700</v>
+        <v>128000</v>
       </c>
       <c r="G49" s="3">
-        <v>79100</v>
+        <v>79300</v>
       </c>
       <c r="H49" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="I49" s="3">
-        <v>105800</v>
+        <v>106100</v>
       </c>
       <c r="J49" s="3">
-        <v>150500</v>
+        <v>150800</v>
       </c>
       <c r="K49" s="3">
         <v>118800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1199900</v>
+        <v>1202500</v>
       </c>
       <c r="E52" s="3">
-        <v>1109200</v>
+        <v>1111600</v>
       </c>
       <c r="F52" s="3">
-        <v>945900</v>
+        <v>947900</v>
       </c>
       <c r="G52" s="3">
-        <v>935600</v>
+        <v>937600</v>
       </c>
       <c r="H52" s="3">
-        <v>667900</v>
+        <v>669300</v>
       </c>
       <c r="I52" s="3">
-        <v>556300</v>
+        <v>557500</v>
       </c>
       <c r="J52" s="3">
-        <v>544200</v>
+        <v>545400</v>
       </c>
       <c r="K52" s="3">
         <v>427000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9021200</v>
+        <v>9040900</v>
       </c>
       <c r="E54" s="3">
-        <v>8582000</v>
+        <v>8600700</v>
       </c>
       <c r="F54" s="3">
-        <v>8120900</v>
+        <v>8138500</v>
       </c>
       <c r="G54" s="3">
-        <v>6693700</v>
+        <v>6708300</v>
       </c>
       <c r="H54" s="3">
-        <v>6002100</v>
+        <v>6015100</v>
       </c>
       <c r="I54" s="3">
-        <v>5233300</v>
+        <v>5244700</v>
       </c>
       <c r="J54" s="3">
-        <v>3457500</v>
+        <v>3465000</v>
       </c>
       <c r="K54" s="3">
         <v>2788900</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2069200</v>
+        <v>2073700</v>
       </c>
       <c r="E57" s="3">
-        <v>1811100</v>
+        <v>1815100</v>
       </c>
       <c r="F57" s="3">
-        <v>2093100</v>
+        <v>2097600</v>
       </c>
       <c r="G57" s="3">
-        <v>1900300</v>
+        <v>1904400</v>
       </c>
       <c r="H57" s="3">
-        <v>1602400</v>
+        <v>1605900</v>
       </c>
       <c r="I57" s="3">
-        <v>1576900</v>
+        <v>1580300</v>
       </c>
       <c r="J57" s="3">
-        <v>1148200</v>
+        <v>1150700</v>
       </c>
       <c r="K57" s="3">
         <v>925000</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>370300</v>
+        <v>371100</v>
       </c>
       <c r="E58" s="3">
-        <v>272100</v>
+        <v>272700</v>
       </c>
       <c r="F58" s="3">
-        <v>143800</v>
+        <v>144100</v>
       </c>
       <c r="G58" s="3">
-        <v>150700</v>
+        <v>151000</v>
       </c>
       <c r="H58" s="3">
-        <v>914800</v>
+        <v>916800</v>
       </c>
       <c r="I58" s="3">
-        <v>229700</v>
+        <v>230200</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1490900</v>
+        <v>1494100</v>
       </c>
       <c r="E59" s="3">
-        <v>1467500</v>
+        <v>1470700</v>
       </c>
       <c r="F59" s="3">
-        <v>1423800</v>
+        <v>1426900</v>
       </c>
       <c r="G59" s="3">
-        <v>1245500</v>
+        <v>1248200</v>
       </c>
       <c r="H59" s="3">
-        <v>1057600</v>
+        <v>1060000</v>
       </c>
       <c r="I59" s="3">
-        <v>846700</v>
+        <v>848500</v>
       </c>
       <c r="J59" s="3">
-        <v>861100</v>
+        <v>863000</v>
       </c>
       <c r="K59" s="3">
         <v>755300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3930300</v>
+        <v>3938900</v>
       </c>
       <c r="E60" s="3">
-        <v>3550700</v>
+        <v>3558500</v>
       </c>
       <c r="F60" s="3">
-        <v>3660700</v>
+        <v>3668600</v>
       </c>
       <c r="G60" s="3">
-        <v>3296500</v>
+        <v>3303700</v>
       </c>
       <c r="H60" s="3">
-        <v>3574800</v>
+        <v>3582600</v>
       </c>
       <c r="I60" s="3">
-        <v>2653300</v>
+        <v>2659100</v>
       </c>
       <c r="J60" s="3">
-        <v>2009300</v>
+        <v>2013700</v>
       </c>
       <c r="K60" s="3">
         <v>1693500</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>564200</v>
+        <v>565400</v>
       </c>
       <c r="J61" s="3">
-        <v>603700</v>
+        <v>605000</v>
       </c>
       <c r="K61" s="3">
         <v>564900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396300</v>
+        <v>397200</v>
       </c>
       <c r="E62" s="3">
-        <v>370400</v>
+        <v>371200</v>
       </c>
       <c r="F62" s="3">
-        <v>411400</v>
+        <v>412300</v>
       </c>
       <c r="G62" s="3">
-        <v>322800</v>
+        <v>323500</v>
       </c>
       <c r="H62" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="I62" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="J62" s="3">
-        <v>47900</v>
+        <v>48000</v>
       </c>
       <c r="K62" s="3">
         <v>27600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4508600</v>
+        <v>4518500</v>
       </c>
       <c r="E66" s="3">
-        <v>4085800</v>
+        <v>4094700</v>
       </c>
       <c r="F66" s="3">
-        <v>4194400</v>
+        <v>4203600</v>
       </c>
       <c r="G66" s="3">
-        <v>3686400</v>
+        <v>3694400</v>
       </c>
       <c r="H66" s="3">
-        <v>3623700</v>
+        <v>3631600</v>
       </c>
       <c r="I66" s="3">
-        <v>3263800</v>
+        <v>3270900</v>
       </c>
       <c r="J66" s="3">
-        <v>2667700</v>
+        <v>2673500</v>
       </c>
       <c r="K66" s="3">
         <v>2296300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3957100</v>
+        <v>3965700</v>
       </c>
       <c r="E72" s="3">
-        <v>3089200</v>
+        <v>3096000</v>
       </c>
       <c r="F72" s="3">
-        <v>2444300</v>
+        <v>2449600</v>
       </c>
       <c r="G72" s="3">
-        <v>1642900</v>
+        <v>1646500</v>
       </c>
       <c r="H72" s="3">
-        <v>1089500</v>
+        <v>1091900</v>
       </c>
       <c r="I72" s="3">
-        <v>771900</v>
+        <v>773600</v>
       </c>
       <c r="J72" s="3">
-        <v>503300</v>
+        <v>504400</v>
       </c>
       <c r="K72" s="3">
         <v>225000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4512600</v>
+        <v>4522400</v>
       </c>
       <c r="E76" s="3">
-        <v>4496200</v>
+        <v>4506000</v>
       </c>
       <c r="F76" s="3">
-        <v>3926400</v>
+        <v>3935000</v>
       </c>
       <c r="G76" s="3">
-        <v>3007300</v>
+        <v>3013900</v>
       </c>
       <c r="H76" s="3">
-        <v>2378300</v>
+        <v>2383500</v>
       </c>
       <c r="I76" s="3">
-        <v>1969500</v>
+        <v>1973800</v>
       </c>
       <c r="J76" s="3">
-        <v>789800</v>
+        <v>791500</v>
       </c>
       <c r="K76" s="3">
         <v>492700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>867900</v>
+        <v>869700</v>
       </c>
       <c r="E81" s="3">
-        <v>645000</v>
+        <v>646400</v>
       </c>
       <c r="F81" s="3">
-        <v>813900</v>
+        <v>815600</v>
       </c>
       <c r="G81" s="3">
-        <v>553400</v>
+        <v>554600</v>
       </c>
       <c r="H81" s="3">
-        <v>293300</v>
+        <v>293900</v>
       </c>
       <c r="I81" s="3">
-        <v>268600</v>
+        <v>269200</v>
       </c>
       <c r="J81" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="K81" s="3">
         <v>221300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>194700</v>
+        <v>195200</v>
       </c>
       <c r="E83" s="3">
-        <v>173500</v>
+        <v>173900</v>
       </c>
       <c r="F83" s="3">
-        <v>157000</v>
+        <v>157300</v>
       </c>
       <c r="G83" s="3">
-        <v>131000</v>
+        <v>131200</v>
       </c>
       <c r="H83" s="3">
-        <v>122600</v>
+        <v>122900</v>
       </c>
       <c r="I83" s="3">
-        <v>153900</v>
+        <v>154300</v>
       </c>
       <c r="J83" s="3">
-        <v>139500</v>
+        <v>139800</v>
       </c>
       <c r="K83" s="3">
         <v>81300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1449400</v>
+        <v>1452600</v>
       </c>
       <c r="E89" s="3">
-        <v>929300</v>
+        <v>931300</v>
       </c>
       <c r="F89" s="3">
-        <v>1628600</v>
+        <v>1632200</v>
       </c>
       <c r="G89" s="3">
-        <v>1693300</v>
+        <v>1697000</v>
       </c>
       <c r="H89" s="3">
-        <v>791600</v>
+        <v>793400</v>
       </c>
       <c r="I89" s="3">
-        <v>135200</v>
+        <v>135500</v>
       </c>
       <c r="J89" s="3">
-        <v>390100</v>
+        <v>391000</v>
       </c>
       <c r="K89" s="3">
         <v>266600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427500</v>
+        <v>-428400</v>
       </c>
       <c r="E91" s="3">
-        <v>-493100</v>
+        <v>-494100</v>
       </c>
       <c r="F91" s="3">
-        <v>-313000</v>
+        <v>-313700</v>
       </c>
       <c r="G91" s="3">
-        <v>-589400</v>
+        <v>-590700</v>
       </c>
       <c r="H91" s="3">
-        <v>-495200</v>
+        <v>-496300</v>
       </c>
       <c r="I91" s="3">
-        <v>-340900</v>
+        <v>-341700</v>
       </c>
       <c r="J91" s="3">
-        <v>-299300</v>
+        <v>-300000</v>
       </c>
       <c r="K91" s="3">
         <v>-321700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>144600</v>
+        <v>144900</v>
       </c>
       <c r="E94" s="3">
-        <v>-320500</v>
+        <v>-321200</v>
       </c>
       <c r="F94" s="3">
-        <v>-922400</v>
+        <v>-924500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1135400</v>
+        <v>-1137900</v>
       </c>
       <c r="H94" s="3">
-        <v>-922300</v>
+        <v>-924300</v>
       </c>
       <c r="I94" s="3">
-        <v>-280100</v>
+        <v>-280700</v>
       </c>
       <c r="J94" s="3">
-        <v>-230000</v>
+        <v>-230500</v>
       </c>
       <c r="K94" s="3">
         <v>-408900</v>
@@ -4165,7 +4165,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-767900</v>
+        <v>-769600</v>
       </c>
       <c r="E100" s="3">
         <v>-8100</v>
@@ -4174,16 +4174,16 @@
         <v>-2900</v>
       </c>
       <c r="G100" s="3">
-        <v>-862000</v>
+        <v>-863900</v>
       </c>
       <c r="H100" s="3">
-        <v>80900</v>
+        <v>81000</v>
       </c>
       <c r="I100" s="3">
-        <v>987900</v>
+        <v>990000</v>
       </c>
       <c r="J100" s="3">
-        <v>-54200</v>
+        <v>-54300</v>
       </c>
       <c r="K100" s="3">
         <v>-75000</v>
@@ -4216,7 +4216,7 @@
         <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="H101" s="3">
         <v>24500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>817300</v>
+        <v>819100</v>
       </c>
       <c r="E102" s="3">
-        <v>600700</v>
+        <v>602000</v>
       </c>
       <c r="F102" s="3">
-        <v>701600</v>
+        <v>703100</v>
       </c>
       <c r="G102" s="3">
-        <v>-319500</v>
+        <v>-320200</v>
       </c>
       <c r="H102" s="3">
         <v>-25300</v>
       </c>
       <c r="I102" s="3">
-        <v>842200</v>
+        <v>844000</v>
       </c>
       <c r="J102" s="3">
-        <v>108200</v>
+        <v>108400</v>
       </c>
       <c r="K102" s="3">
         <v>-204100</v>
